--- a/pythonProject/output_segments.xlsx
+++ b/pythonProject/output_segments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,50 +498,50 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>202.0-206.0</t>
+          <t>236.0-138.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3822.1</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6795.6</t>
+          <t>6831.5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3824.7</t>
+          <t>3827.3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6804.6</t>
+          <t>6869.3</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -553,50 +553,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>216.0-104.0</t>
+          <t>166.0-25.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6823.4</t>
+          <t>6878.1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6841.5</t>
+          <t>6878.2</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -608,50 +608,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>253.0-263.0</t>
+          <t>177.0-81.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6825.1</t>
+          <t>6848.5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3828.4</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6828.2</t>
+          <t>6848.9</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -663,50 +663,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>207.0-265.0</t>
+          <t>144.0-185.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3825.1</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6785.6</t>
+          <t>6875.6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6808.7</t>
+          <t>6875.7</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -718,50 +718,50 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>204.0-215.0</t>
+          <t>240.0-255.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3823.6</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6822.2</t>
+          <t>6813.2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3829.8</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6823.3</t>
+          <t>6825.8</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -773,12 +773,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>233.0-275.0</t>
+          <t>84.0-39.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3825.8</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6804.3</t>
+          <t>6857.5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3820.4</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -803,20 +803,20 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6816.5</t>
+          <t>6858.1</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -828,50 +828,50 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>232.0-231.0</t>
+          <t>152.0-135.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3824.4</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6780.8</t>
+          <t>6863.1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3826.7</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6810.9</t>
+          <t>6864.1</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -883,50 +883,50 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>211.0-229.0</t>
+          <t>68.0-26.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3828.6</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6820.6</t>
+          <t>6871.8</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3825.9</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6838.9</t>
+          <t>6872.7</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -938,50 +938,50 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>251.0-218.0</t>
+          <t>222.0-156.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6824.3</t>
+          <t>6831.9</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3827.2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6828.8</t>
+          <t>6859.0</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -993,12 +993,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>245.0-210.0</t>
+          <t>37.0-115.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1008,12 +1008,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6792.0</t>
+          <t>6841.4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1023,20 +1023,20 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6825.7</t>
+          <t>6842.0</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -1048,50 +1048,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>268.0-225.0</t>
+          <t>149.0-60.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3831.0</t>
+          <t>3826.7</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6793.9</t>
+          <t>6888.3</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3826.9</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6807.4</t>
+          <t>6889.6</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -1103,50 +1103,50 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>254.0-246.0</t>
+          <t>227.0-214.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3827.7</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6809.9</t>
+          <t>6801.4</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6824.5</t>
+          <t>6801.7</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -1158,50 +1158,50 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>258.0-224.0</t>
+          <t>262.0-130.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3829.8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6826.4</t>
+          <t>6835.0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6828.1</t>
+          <t>6856.6</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -1213,12 +1213,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>237.0-223.0</t>
+          <t>219.0-266.0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3824.8</t>
+          <t>3828.4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1228,12 +1228,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6781.9</t>
+          <t>6825.8</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1243,20 +1243,20 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>6795.8</t>
+          <t>6826.5</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -1268,50 +1268,50 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>239.0-212.0</t>
+          <t>74.0-111.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3828.3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6804.0</t>
+          <t>6877.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>6807.0</t>
+          <t>6877.7</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>219.0-266.0</t>
+          <t>197.0-38.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6825.8</t>
+          <t>6882.5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1348,25 +1348,25 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6826.5</t>
+          <t>6883.2</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -1378,50 +1378,50 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>227.0-214.0</t>
+          <t>32.0-140.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3827.7</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6801.4</t>
+          <t>6863.6</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>6801.7</t>
+          <t>6873.8</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -1433,50 +1433,50 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>243.0-238.0</t>
+          <t>146.0-48.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3827.8</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6812.9</t>
+          <t>6876.6</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3828.4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>6820.9</t>
+          <t>6877.7</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -1488,50 +1488,50 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>273.0-244.0</t>
+          <t>119.0-1.0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6819.6</t>
+          <t>6841.7</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>6821.7</t>
+          <t>6843.2</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -1543,50 +1543,50 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>234.0-256.0</t>
+          <t>160.0-72.0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3825.5</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6806.8</t>
+          <t>6858.4</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3826.5</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>6814.1</t>
+          <t>6860.0</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -1598,50 +1598,50 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>240.0-255.0</t>
+          <t>242.0-86.0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6813.2</t>
+          <t>6828.3</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>6825.8</t>
+          <t>6840.1</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.00142857142857143</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>13577.7</t>
+          <t>13603.099999999999</t>
         </is>
       </c>
     </row>
@@ -1653,50 +1653,50 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>201.0-208.0</t>
+          <t>127.0-162.0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3820.2</t>
+          <t>3830.6</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6830.2</t>
+          <t>6866.1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3824.1</t>
+          <t>3828.3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>6837.6</t>
+          <t>6866.2</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -1708,50 +1708,50 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>205.0-189.0</t>
+          <t>258.0-224.0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3822.1</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6826.8</t>
+          <t>6826.4</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>6866.1</t>
+          <t>6828.1</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -1763,50 +1763,50 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>257.0-186.0</t>
+          <t>56.0-148.0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6830.0</t>
+          <t>6856.4</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6873.4</t>
+          <t>6857.6</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -1818,50 +1818,50 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>217.0-264.0</t>
+          <t>10.0-58.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6826.5</t>
+          <t>6864.4</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>6835.7</t>
+          <t>6873.1</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -1873,50 +1873,50 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>260.0-154.0</t>
+          <t>20.0-52.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6839.4</t>
+          <t>6843.4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3827.9</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>6856.5</t>
+          <t>6845.4</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -1928,50 +1928,50 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>230.0-250.0</t>
+          <t>198.0-179.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3824.6</t>
+          <t>3825.3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6836.0</t>
+          <t>6865.9</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3826.4</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>6837.2</t>
+          <t>6867.4</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -1983,50 +1983,50 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>228.0-203.0</t>
+          <t>8.0-187.0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3827.1</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6833.6</t>
+          <t>6876.6</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3823.0</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>6839.0</t>
+          <t>6879.1</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2038,50 +2038,50 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>259.0-249.0</t>
+          <t>159.0-59.0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3823.5</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6827.6</t>
+          <t>6875.1</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3827.2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>6835.4</t>
+          <t>6892.4</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2093,50 +2093,50 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>247.0-221.0</t>
+          <t>165.0-120.0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3828.0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6836.6</t>
+          <t>6883.8</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>6839.1</t>
+          <t>6885.5</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2148,50 +2148,50 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>267.0-226.0</t>
+          <t>129.0-142.0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3828.3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6830.6</t>
+          <t>6877.7</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3829.8</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>6834.8</t>
+          <t>6878.8</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2203,50 +2203,50 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>213.0-163.0</t>
+          <t>273.0-244.0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3828.6</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6835.3</t>
+          <t>6819.6</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>6845.3</t>
+          <t>6821.7</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2258,50 +2258,50 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>272.0-271.0</t>
+          <t>24.0-151.0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3830.6</t>
+          <t>3828.4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6826.8</t>
+          <t>6887.6</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3830.3</t>
+          <t>3830.7</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>6832.1</t>
+          <t>6894.4</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2313,50 +2313,50 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>261.0-121.0</t>
+          <t>172.0-136.0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>3829.3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>6878.3</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>3828.9</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>6838.5</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3829.3</t>
-        </is>
-      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>6844.5</t>
+          <t>6881.0</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2368,50 +2368,50 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>252.0-134.0</t>
+          <t>105.0-2.0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>3828.6</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>6880.8</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>3829.5</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>6828.7</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3830.1</t>
-        </is>
-      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>6856.4</t>
+          <t>6883.0</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2423,50 +2423,50 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>248.0-209.0</t>
+          <t>143.0-79.0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6828.6</t>
+          <t>6884.6</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>6829.8</t>
+          <t>6887.6</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2478,50 +2478,50 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>274.0-168.0</t>
+          <t>234.0-256.0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3825.5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6839.1</t>
+          <t>6806.8</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3826.5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>6840.9</t>
+          <t>6814.1</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>235.0-220.0</t>
+          <t>3.0-193.0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2543,40 +2543,40 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6827.3</t>
+          <t>6843.0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3832.0</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>6836.2</t>
+          <t>6843.4</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2588,50 +2588,50 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>242.0-86.0</t>
+          <t>19.0-11.0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3827.8</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6828.3</t>
+          <t>6866.5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>6840.1</t>
+          <t>6867.7</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2643,50 +2643,50 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>262.0-130.0</t>
+          <t>50.0-73.0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3829.8</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6835.0</t>
+          <t>6868.5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3827.5</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>6856.6</t>
+          <t>6870.3</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2698,50 +2698,50 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>222.0-156.0</t>
+          <t>235.0-220.0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6831.9</t>
+          <t>6827.3</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3827.2</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>6859.0</t>
+          <t>6836.2</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2753,50 +2753,50 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>236.0-138.0</t>
+          <t>158.0-150.0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6831.5</t>
+          <t>6873.5</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3827.3</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>6869.3</t>
+          <t>6876.1</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0.0009523809523809426</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>13658.400000000001</t>
+          <t>13620.900000000001</t>
         </is>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>88.0-101.0</t>
+          <t>170.0-23.0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2818,40 +2818,40 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6846.1</t>
+          <t>6881.1</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3822.6</t>
+          <t>3831.9</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>6853.2</t>
+          <t>6881.2</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -2863,50 +2863,50 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>119.0-1.0</t>
+          <t>175.0-9.0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6841.7</t>
+          <t>6890.4</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>6843.2</t>
+          <t>6893.9</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -2918,50 +2918,50 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>51.0-99.0</t>
+          <t>33.0-141.0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>6843.9</t>
+          <t>6844.7</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>6845.3</t>
+          <t>6853.3</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -2973,50 +2973,50 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>87.0-54.0</t>
+          <t>55.0-6.0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3826.3</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6854.4</t>
+          <t>6856.2</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3827.2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>6858.2</t>
+          <t>6857.7</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3028,50 +3028,50 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>69.0-177.0</t>
+          <t>85.0-46.0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3828.2</t>
+          <t>3825.2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6843.5</t>
+          <t>6846.7</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>6848.5</t>
+          <t>6846.8</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3083,50 +3083,50 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>81.0-5.0</t>
+          <t>247.0-221.0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6848.9</t>
+          <t>6836.6</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3825.4</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>6851.9</t>
+          <t>6839.1</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3138,50 +3138,50 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>108.0-75.0</t>
+          <t>67.0-110.0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>3825.2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6846.6</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>3828.7</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>6843.6</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3828.6</t>
-        </is>
-      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>6849.8</t>
+          <t>6879.2</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3193,50 +3193,50 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>171.0-90.0</t>
+          <t>253.0-263.0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6850.6</t>
+          <t>6825.1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3822.6</t>
+          <t>3828.4</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>6859.5</t>
+          <t>6828.2</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3248,50 +3248,50 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>241.0-3.0</t>
+          <t>78.0-22.0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3828.4</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6839.6</t>
+          <t>6880.3</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3827.8</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>6843.0</t>
+          <t>6883.6</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3303,12 +3303,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>193.0-132.0</t>
+          <t>66.0-21.0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3832.0</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3318,12 +3318,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>6843.4</t>
+          <t>6871.7</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3333,20 +3333,20 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>6847.4</t>
+          <t>6875.0</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3358,50 +3358,50 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>93.0-137.0</t>
+          <t>49.0-12.0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3824.8</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6848.1</t>
+          <t>6856.8</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3823.1</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>6854.4</t>
+          <t>6861.8</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3413,50 +3413,50 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>37.0-115.0</t>
+          <t>103.0-7.0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3828.4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6841.4</t>
+          <t>6878.6</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>6842.0</t>
+          <t>6882.7</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3468,12 +3468,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>36.0-17.0</t>
+          <t>44.0-176.0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3483,12 +3483,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6849.1</t>
+          <t>6869.6</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3498,20 +3498,20 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>6852.2</t>
+          <t>6873.9</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3523,12 +3523,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>153.0-34.0</t>
+          <t>34.0-57.0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3824.7</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3538,12 +3538,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6853.3</t>
+          <t>6860.6</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3553,20 +3553,20 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>6860.6</t>
+          <t>6865.1</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3578,50 +3578,50 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>85.0-46.0</t>
+          <t>4.0-200.0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3825.2</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6846.7</t>
+          <t>6864.6</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>6846.8</t>
+          <t>6881.5</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3633,50 +3633,50 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>174.0-82.0</t>
+          <t>267.0-226.0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6847.3</t>
+          <t>6830.6</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>6847.4</t>
+          <t>6834.8</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3688,50 +3688,50 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>139.0-41.0</t>
+          <t>178.0-77.0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3828.0</t>
+          <t>3827.9</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6848.8</t>
+          <t>6861.5</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3829.8</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>6851.4</t>
+          <t>6864.9</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3743,50 +3743,50 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20.0-52.0</t>
+          <t>272.0-271.0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3830.6</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6843.4</t>
+          <t>6826.8</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3830.3</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>6845.4</t>
+          <t>6832.1</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3798,12 +3798,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>155.0-167.0</t>
+          <t>273.0-244.0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6847.7</t>
+          <t>6819.6</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3828.2</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3828,20 +3828,20 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>6860.6</t>
+          <t>6821.7</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3853,50 +3853,50 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>33.0-67.0</t>
+          <t>183.0-131.0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6844.7</t>
+          <t>6883.2</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>3825.2</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>6846.6</t>
+          <t>6888.4</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3908,50 +3908,50 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>141.0-49.0</t>
+          <t>161.0-76.0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>6853.3</t>
+          <t>6867.3</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>6856.8</t>
+          <t>6873.1</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>0.002380952380952383</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>13682.6</t>
+          <t>13641.3</t>
         </is>
       </c>
     </row>
@@ -3963,37 +3963,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>61.0-65.0</t>
+          <t>108.0-75.0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3821.2</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6858.5</t>
+          <t>6843.6</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3828.6</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>6864.4</t>
+          <t>6849.8</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4018,37 +4018,37 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>198.0-179.0</t>
+          <t>248.0-209.0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>3825.3</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>6865.9</t>
+          <t>6828.6</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>3826.4</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>6867.4</t>
+          <t>6829.8</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4073,37 +4073,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>160.0-95.0</t>
+          <t>70.0-112.0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>6858.4</t>
+          <t>6877.3</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>3824.3</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>6860.8</t>
+          <t>6883.1</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4128,37 +4128,37 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16.0-84.0</t>
+          <t>101.0-61.0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3822.6</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6857.3</t>
+          <t>6853.2</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3821.2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>6857.5</t>
+          <t>6858.5</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4183,37 +4183,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>39.0-72.0</t>
+          <t>87.0-54.0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3826.3</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>6858.1</t>
+          <t>6854.4</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>6860.0</t>
+          <t>6858.2</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4238,37 +4238,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>83.0-157.0</t>
+          <t>274.0-168.0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6862.4</t>
+          <t>6839.1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>6871.8</t>
+          <t>6840.9</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4293,37 +4293,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>91.0-35.0</t>
+          <t>124.0-107.0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3822.1</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>6860.8</t>
+          <t>6886.7</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3830.5</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>6864.5</t>
+          <t>6893.3</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4348,37 +4348,37 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>127.0-162.0</t>
+          <t>228.0-241.0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3830.6</t>
+          <t>3827.1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6866.1</t>
+          <t>6833.6</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>3828.3</t>
+          <t>3828.4</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>6866.2</t>
+          <t>6839.6</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4403,37 +4403,37 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>161.0-76.0</t>
+          <t>64.0-29.0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>6867.3</t>
+          <t>6885.5</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>6873.1</t>
+          <t>6892.2</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -4441,12 +4441,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4458,37 +4458,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>71.0-178.0</t>
+          <t>20.0-52.0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>6855.8</t>
+          <t>6843.4</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>3827.9</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>6861.5</t>
+          <t>6845.4</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4513,22 +4513,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>77.0-31.0</t>
+          <t>169.0-47.0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3829.8</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6864.9</t>
+          <t>6864.6</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4538,12 +4538,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>6868.6</t>
+          <t>6872.4</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4568,37 +4568,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>55.0-6.0</t>
+          <t>5.0-16.0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3825.4</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6856.2</t>
+          <t>6851.9</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>3827.2</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>6857.7</t>
+          <t>6857.3</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -4606,12 +4606,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4623,12 +4623,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>194.0-43.0</t>
+          <t>259.0-249.0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4638,12 +4638,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>6860.7</t>
+          <t>6827.6</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>6863.4</t>
+          <t>6835.4</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4678,37 +4678,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>19.0-11.0</t>
+          <t>155.0-167.0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3827.8</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>6866.5</t>
+          <t>6847.7</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3828.2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>6867.7</t>
+          <t>6860.6</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4733,37 +4733,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>57.0-94.0</t>
+          <t>28.0-173.0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>6865.1</t>
+          <t>6869.2</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>3826.8</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>6868.5</t>
+          <t>6877.3</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4788,37 +4788,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>56.0-148.0</t>
+          <t>243.0-238.0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>3827.8</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>6812.9</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>3828.7</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>6856.4</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>3829.9</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>6857.6</t>
+          <t>6820.9</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4843,37 +4843,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>152.0-135.0</t>
+          <t>132.0-71.0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>6863.1</t>
+          <t>6847.4</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>6864.1</t>
+          <t>6855.8</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -4881,12 +4881,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4898,37 +4898,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>169.0-18.0</t>
+          <t>50.0-73.0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>6864.6</t>
+          <t>6868.5</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>3825.7</t>
+          <t>3827.5</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>6867.9</t>
+          <t>6870.3</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -4953,37 +4953,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>12.0-4.0</t>
+          <t>10.0-58.0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>6861.8</t>
+          <t>6864.4</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>6864.6</t>
+          <t>6873.1</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -4991,12 +4991,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>10.0-58.0</t>
+          <t>33.0-141.0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5018,27 +5018,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>6864.4</t>
+          <t>6844.7</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>6873.1</t>
+          <t>6853.3</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -5046,12 +5046,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -5063,37 +5063,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>32.0-140.0</t>
+          <t>83.0-157.0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>6863.6</t>
+          <t>6862.4</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>6873.8</t>
+          <t>6871.8</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>13713.9</t>
+          <t>13633.8</t>
         </is>
       </c>
     </row>
@@ -5118,50 +5118,50 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>96.0-192.0</t>
+          <t>68.0-26.0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3823.4</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>6873.9</t>
+          <t>6871.8</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>3825.4</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>6877.1</t>
+          <t>6872.7</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5173,50 +5173,50 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>74.0-111.0</t>
+          <t>217.0-264.0</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3828.3</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>6877.0</t>
+          <t>6826.5</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>6877.7</t>
+          <t>6835.7</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5228,50 +5228,50 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>117.0-195.0</t>
+          <t>235.0-220.0</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>6872.5</t>
+          <t>6827.3</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3828.0</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>6878.3</t>
+          <t>6836.2</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5283,50 +5283,50 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>8.0-187.0</t>
+          <t>32.0-140.0</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>3829.9</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>6863.6</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>3829.5</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>6876.6</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>3829.6</t>
-        </is>
-      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>6879.1</t>
+          <t>6873.8</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5338,50 +5338,50 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>15.0-123.0</t>
+          <t>172.0-136.0</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3828.0</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>6877.9</t>
+          <t>6878.3</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>6878.1</t>
+          <t>6881.0</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5393,50 +5393,50 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>118.0-126.0</t>
+          <t>201.0-208.0</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3828.0</t>
+          <t>3820.2</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>6876.3</t>
+          <t>6830.2</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3824.1</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>6892.2</t>
+          <t>6837.6</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5448,50 +5448,50 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>181.0-66.0</t>
+          <t>213.0-163.0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3828.6</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>6868.7</t>
+          <t>6835.3</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>6871.7</t>
+          <t>6845.3</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5503,50 +5503,50 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>21.0-100.0</t>
+          <t>202.0-206.0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3822.1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6875.0</t>
+          <t>6795.6</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>3825.1</t>
+          <t>3824.7</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>6875.5</t>
+          <t>6804.6</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5558,50 +5558,50 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>144.0-185.0</t>
+          <t>149.0-60.0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3826.7</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>6875.6</t>
+          <t>6888.3</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3826.9</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>6875.7</t>
+          <t>6889.6</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5613,50 +5613,50 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>70.0-112.0</t>
+          <t>223.0-212.0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>6877.3</t>
+          <t>6795.8</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>6883.1</t>
+          <t>6807.0</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5668,50 +5668,50 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>44.0-62.0</t>
+          <t>240.0-255.0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>6869.6</t>
+          <t>6813.2</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3823.3</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>6872.2</t>
+          <t>6825.8</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5723,50 +5723,50 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>176.0-143.0</t>
+          <t>18.0-27.0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3825.7</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>6873.9</t>
+          <t>6867.9</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>6884.6</t>
+          <t>6878.2</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5778,50 +5778,50 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>158.0-150.0</t>
+          <t>175.0-9.0</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>6873.5</t>
+          <t>6890.4</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>6876.1</t>
+          <t>6893.9</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>146.0-48.0</t>
+          <t>189.0-192.0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5843,40 +5843,40 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>6876.6</t>
+          <t>6866.1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>3828.4</t>
+          <t>3825.4</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>6877.7</t>
+          <t>6877.1</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5888,12 +5888,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>166.0-25.0</t>
+          <t>254.0-246.0</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5903,12 +5903,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>6878.1</t>
+          <t>6809.9</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5918,20 +5918,20 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>6878.2</t>
+          <t>6824.5</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5943,50 +5943,50 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>47.0-27.0</t>
+          <t>265.0-215.0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>6872.4</t>
+          <t>6808.7</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.8</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>6878.2</t>
+          <t>6823.3</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -5998,12 +5998,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>28.0-173.0</t>
+          <t>227.0-214.0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3827.7</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -6013,12 +6013,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>6869.2</t>
+          <t>6801.4</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6028,20 +6028,20 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>6877.3</t>
+          <t>6801.7</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -6053,50 +6053,50 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>129.0-142.0</t>
+          <t>268.0-225.0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3828.3</t>
+          <t>3831.0</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>6877.7</t>
+          <t>6793.9</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>3829.8</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>6878.8</t>
+          <t>6807.4</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -6108,50 +6108,50 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>50.0-73.0</t>
+          <t>4.0-200.0</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>6868.5</t>
+          <t>6864.6</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>3827.5</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>6870.3</t>
+          <t>6881.5</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -6163,50 +6163,50 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>68.0-26.0</t>
+          <t>153.0-94.0</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3824.7</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>6871.8</t>
+          <t>6853.3</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3826.8</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>6872.7</t>
+          <t>6868.5</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -6218,50 +6218,50 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>159.0-59.0</t>
+          <t>243.0-238.0</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>3823.5</t>
+          <t>3827.8</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>6875.1</t>
+          <t>6812.9</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3827.2</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>6892.4</t>
+          <t>6820.9</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>0.00285714285714286</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>13738.8</t>
+          <t>13600.2</t>
         </is>
       </c>
     </row>
@@ -6273,50 +6273,50 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>182.0-184.0</t>
+          <t>62.0-92.0</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3823.3</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>6889.5</t>
+          <t>6872.2</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3825.2</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>6893.5</t>
+          <t>6888.5</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -6328,50 +6328,50 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>191.0-107.0</t>
+          <t>88.0-65.0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3822.1</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>6890.2</t>
+          <t>6846.1</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>6893.3</t>
+          <t>6864.4</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -6383,12 +6383,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>14.0-188.0</t>
+          <t>216.0-104.0</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -6398,12 +6398,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>6879.3</t>
+          <t>6823.4</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -6413,20 +6413,20 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>6881.6</t>
+          <t>6841.5</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -6438,50 +6438,50 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>124.0-98.0</t>
+          <t>252.0-134.0</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>6886.7</t>
+          <t>6828.7</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>3825.0</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>6887.5</t>
+          <t>6856.4</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -6493,50 +6493,50 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>78.0-89.0</t>
+          <t>211.0-229.0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3828.6</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>6880.3</t>
+          <t>6820.6</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3822.6</t>
+          <t>3825.9</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>6880.4</t>
+          <t>6838.9</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -6548,50 +6548,50 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>22.0-165.0</t>
+          <t>159.0-59.0</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3827.8</t>
+          <t>3823.5</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>6883.6</t>
+          <t>6875.1</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>3828.0</t>
+          <t>3827.2</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>6883.8</t>
+          <t>6892.4</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -6603,50 +6603,50 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>120.0-63.0</t>
+          <t>262.0-130.0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3829.8</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>6885.5</t>
+          <t>6835.0</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>6890.4</t>
+          <t>6856.6</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -6658,50 +6658,50 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>147.0-13.0</t>
+          <t>28.0-173.0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>6892.9</t>
+          <t>6869.2</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>6893.6</t>
+          <t>6877.3</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -6713,50 +6713,50 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>183.0-131.0</t>
+          <t>237.0-239.0</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3824.8</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>6883.2</t>
+          <t>6781.9</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>6888.4</t>
+          <t>6804.0</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -6768,50 +6768,50 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>79.0-80.0</t>
+          <t>252.0-134.0</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>6887.6</t>
+          <t>6828.7</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>6890.7</t>
+          <t>6856.4</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -6823,50 +6823,50 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>170.0-23.0</t>
+          <t>222.0-156.0</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>6881.1</t>
+          <t>6831.9</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3831.9</t>
+          <t>3827.2</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>6881.2</t>
+          <t>6859.0</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -6878,50 +6878,50 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>197.0-38.0</t>
+          <t>129.0-142.0</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3828.4</t>
+          <t>3828.3</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>6882.5</t>
+          <t>6877.7</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3829.8</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>6883.2</t>
+          <t>6878.8</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -6933,50 +6933,50 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>175.0-9.0</t>
+          <t>233.0-230.0</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3825.8</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>6890.4</t>
+          <t>6804.3</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3824.6</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>6893.9</t>
+          <t>6836.0</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -6988,50 +6988,50 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>114.0-29.0</t>
+          <t>245.0-210.0</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3827.6</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>6890.0</t>
+          <t>6792.0</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>6892.2</t>
+          <t>6825.7</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -7043,50 +7043,50 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>103.0-7.0</t>
+          <t>67.0-110.0</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>3828.4</t>
+          <t>3825.2</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>6878.6</t>
+          <t>6846.6</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>6882.7</t>
+          <t>6879.2</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -7098,50 +7098,50 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>64.0-92.0</t>
+          <t>105.0-2.0</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3828.6</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>6880.8</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3829.5</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
           <t>1.84</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>6885.5</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>3825.2</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>6888.5</t>
+          <t>6883.0</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -7153,50 +7153,50 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>105.0-2.0</t>
+          <t>236.0-138.0</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>3828.6</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>6880.8</t>
+          <t>6831.5</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3827.3</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>6883.0</t>
+          <t>6869.3</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -7208,50 +7208,50 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>172.0-136.0</t>
+          <t>257.0-186.0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>6878.3</t>
+          <t>6830.0</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>6881.0</t>
+          <t>6873.4</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -7263,50 +7263,50 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>149.0-60.0</t>
+          <t>275.0-95.0</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3826.7</t>
+          <t>3820.4</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>6888.3</t>
+          <t>6816.5</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>3826.9</t>
+          <t>3824.3</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>6889.6</t>
+          <t>6860.8</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
@@ -7318,82 +7318,82 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>110.0-200.0</t>
+          <t>237.0-239.0</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3824.8</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>6879.2</t>
+          <t>6781.9</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>6881.5</t>
+          <t>6804.0</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13585.9</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Segment 6</t>
+          <t>Segment 1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>24.0-151.0</t>
+          <t>145.0-30.0</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>3828.4</t>
+          <t>3829.8</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>6887.6</t>
+          <t>6896.5</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>3830.7</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -7403,20 +7403,20 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>6894.4</t>
+          <t>6895.9</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0.005714285714285709</v>
+        <v>0.05675454545454546</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>13759.3</t>
+          <t>13728.6</t>
         </is>
       </c>
     </row>
@@ -7428,32 +7428,32 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>270.0-106.0</t>
+          <t>45.0-125.0</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>3828.77</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1.3571</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>6813.8</t>
+          <t>6895.1</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -7462,16 +7462,16 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0.04026363636363637</v>
+        <v>0.05675454545454546</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>13708.6</t>
+          <t>13728.6</t>
         </is>
       </c>
     </row>
@@ -7483,50 +7483,50 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>199.0-109.0</t>
+          <t>145.0-30.0</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>3830.5</t>
+          <t>3829.8</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>6896.3</t>
+          <t>6896.5</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>3826.8</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>6896.4</t>
+          <t>6895.9</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0.04026363636363637</v>
+        <v>0.05675454545454546</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>13708.6</t>
+          <t>13728.6</t>
         </is>
       </c>
     </row>
@@ -7538,50 +7538,50 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>102.0-190.0</t>
+          <t>164.0-116.0</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>3824.5</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>6895.6</t>
+          <t>6897.9</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>6896.1</t>
+          <t>6896.6</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0.04026363636363637</v>
+        <v>0.05675454545454546</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>13708.6</t>
+          <t>13728.6</t>
         </is>
       </c>
     </row>
@@ -7593,50 +7593,50 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>97.0-113.0</t>
+          <t>164.0-116.0</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>6899.5</t>
+          <t>6897.9</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>6899.8</t>
+          <t>6896.6</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0.04026363636363637</v>
+        <v>0.05675454545454546</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>13708.6</t>
+          <t>13728.6</t>
         </is>
       </c>
     </row>
@@ -7648,50 +7648,50 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>128.0-125.0</t>
+          <t>40.0-53.0</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>3828.6</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>6899.3</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
           <t>3829.1</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>6894.5</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>3829.9</t>
-        </is>
-      </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>6894.8</t>
+          <t>6896.6</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0.04026363636363637</v>
+        <v>0.05675454545454546</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>13708.6</t>
+          <t>13728.6</t>
         </is>
       </c>
     </row>
@@ -7703,50 +7703,50 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>45.0-133.0</t>
+          <t>97.0-109.0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>6895.1</t>
+          <t>6899.5</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3826.8</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>6895.3</t>
+          <t>6896.4</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0.04026363636363637</v>
+        <v>0.05675454545454546</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>13708.6</t>
+          <t>13728.6</t>
         </is>
       </c>
     </row>
@@ -7758,50 +7758,50 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>196.0-122.0</t>
+          <t>113.0-133.0</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3828.6</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>6897.0</t>
+          <t>6899.8</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>6899.4</t>
+          <t>6895.3</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0.04026363636363637</v>
+        <v>0.05675454545454546</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>13708.6</t>
+          <t>13728.6</t>
         </is>
       </c>
     </row>
@@ -7813,12 +7813,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>180.0-53.0</t>
+          <t>42.0-122.0</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3822.2</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -7828,12 +7828,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>6896.2</t>
+          <t>6899.5</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -7843,20 +7843,20 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>6896.6</t>
+          <t>6899.4</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0.04026363636363637</v>
+        <v>0.05675454545454546</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>13708.6</t>
+          <t>13728.6</t>
         </is>
       </c>
     </row>
@@ -7868,50 +7868,50 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>116.0-40.0</t>
+          <t>196.0-180.0</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3828.6</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>6897.0</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3822.2</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
           <t>1.84</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>6896.6</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>3828.6</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>6899.3</t>
+          <t>6896.2</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0.04026363636363637</v>
+        <v>0.05675454545454546</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>13708.6</t>
+          <t>13728.6</t>
         </is>
       </c>
     </row>
@@ -7923,105 +7923,50 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>164.0-42.0</t>
+          <t>128.0-269.0</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>6897.9</t>
+          <t>6894.5</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3827.39</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.2257</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>6899.5</t>
+          <t>6834.1</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0.04026363636363637</v>
+        <v>0.05675454545454546</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>13708.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>30.0-145.0</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>3829.4</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>6895.9</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>3829.8</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>6896.5</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>0.04026363636363637</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>9.86</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>13708.6</t>
+          <t>13728.6</t>
         </is>
       </c>
     </row>

--- a/pythonProject/output_segments.xlsx
+++ b/pythonProject/output_segments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,50 +498,50 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>236.0-138.0</t>
+          <t>138.0-236.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>3827.3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6869.3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>3828.1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>6831.5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3827.3</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>6869.3</t>
-        </is>
-      </c>
       <c r="I2" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -553,50 +553,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166.0-25.0</t>
+          <t>156.0-222.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3827.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6878.1</t>
+          <t>6859.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6878.2</t>
+          <t>6831.9</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -608,50 +608,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>177.0-81.0</t>
+          <t>140.0-32.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6848.5</t>
+          <t>6873.8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6848.9</t>
+          <t>6863.6</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -663,50 +663,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>144.0-185.0</t>
+          <t>130.0-262.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6875.6</t>
+          <t>6856.6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3829.8</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6875.7</t>
+          <t>6835.0</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -718,50 +718,50 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>240.0-255.0</t>
+          <t>255.0-273.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6813.2</t>
+          <t>6825.8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6825.8</t>
+          <t>6819.6</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -773,50 +773,50 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>84.0-39.0</t>
+          <t>145.0-30.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3829.8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6857.5</t>
+          <t>6896.5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6858.1</t>
+          <t>6895.9</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -828,50 +828,50 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>152.0-135.0</t>
+          <t>151.0-59.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3830.7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6863.1</t>
+          <t>6894.4</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3827.2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6864.1</t>
+          <t>6892.4</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -883,50 +883,50 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>68.0-26.0</t>
+          <t>58.0-10.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6871.8</t>
+          <t>6873.1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6872.7</t>
+          <t>6864.4</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -938,50 +938,50 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>222.0-156.0</t>
+          <t>86.0-242.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6831.9</t>
+          <t>6840.1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3827.2</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6859.0</t>
+          <t>6828.3</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -993,50 +993,50 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>37.0-115.0</t>
+          <t>159.0-67.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3823.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6841.4</t>
+          <t>6875.1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3825.2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6842.0</t>
+          <t>6846.6</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -1048,50 +1048,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>149.0-60.0</t>
+          <t>24.0-200.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3826.7</t>
+          <t>3828.4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6888.3</t>
+          <t>6887.6</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3826.9</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6889.6</t>
+          <t>6881.5</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -1103,50 +1103,50 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>227.0-214.0</t>
+          <t>110.0-4.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3827.7</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6801.4</t>
+          <t>6879.2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6801.7</t>
+          <t>6864.6</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -1158,22 +1158,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>262.0-130.0</t>
+          <t>12.0-49.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3829.8</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6835.0</t>
+          <t>6861.8</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1183,25 +1183,25 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6856.6</t>
+          <t>6856.8</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -1213,22 +1213,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>219.0-266.0</t>
+          <t>141.0-33.0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3828.4</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6825.8</t>
+          <t>6853.3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1238,25 +1238,25 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>6826.5</t>
+          <t>6844.7</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -1268,50 +1268,50 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>74.0-111.0</t>
+          <t>220.0-235.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3828.3</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6877.0</t>
+          <t>6836.2</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>6877.7</t>
+          <t>6827.3</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -1323,50 +1323,50 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>197.0-38.0</t>
+          <t>175.0-60.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3828.4</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6882.5</t>
+          <t>6890.4</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3826.9</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6883.2</t>
+          <t>6889.6</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -1378,50 +1378,50 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>32.0-140.0</t>
+          <t>149.0-136.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3826.7</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6863.6</t>
+          <t>6888.3</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>6873.8</t>
+          <t>6881.0</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -1433,50 +1433,50 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>146.0-48.0</t>
+          <t>172.0-26.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6876.6</t>
+          <t>6878.3</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3828.4</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>6877.7</t>
+          <t>6872.7</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -1488,50 +1488,50 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>119.0-1.0</t>
+          <t>68.0-73.0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6841.7</t>
+          <t>6871.8</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3827.5</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>6843.2</t>
+          <t>6870.3</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -1543,50 +1543,50 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>160.0-72.0</t>
+          <t>50.0-167.0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6858.4</t>
+          <t>6868.5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3828.2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>6860.0</t>
+          <t>6860.6</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -1598,50 +1598,50 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>242.0-86.0</t>
+          <t>155.0-52.0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6828.3</t>
+          <t>6847.7</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>6840.1</t>
+          <t>6845.4</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.00142857142857143</v>
+        <v>0.003809523809523792</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>13603.099999999999</t>
+          <t>13645.400000000001</t>
         </is>
       </c>
     </row>
@@ -1653,50 +1653,50 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>127.0-162.0</t>
+          <t>20.0-168.0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3830.6</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6866.1</t>
+          <t>6843.4</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3828.3</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>6866.2</t>
+          <t>6840.9</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -1708,50 +1708,50 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>258.0-224.0</t>
+          <t>274.0-209.0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6826.4</t>
+          <t>6839.1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>6828.1</t>
+          <t>6829.8</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -1763,50 +1763,50 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>56.0-148.0</t>
+          <t>248.0-244.0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6856.4</t>
+          <t>6828.6</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6857.6</t>
+          <t>6821.7</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -1818,50 +1818,50 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.0-58.0</t>
+          <t>164.0-105.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6864.4</t>
+          <t>6897.9</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3828.6</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>6873.1</t>
+          <t>6880.8</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -1873,50 +1873,50 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20.0-52.0</t>
+          <t>142.0-129.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3829.8</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6843.4</t>
+          <t>6878.8</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3828.3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>6845.4</t>
+          <t>6877.7</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -1928,50 +1928,50 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>198.0-179.0</t>
+          <t>173.0-28.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3825.3</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6865.9</t>
+          <t>6877.3</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3826.4</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>6867.4</t>
+          <t>6869.2</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -1983,50 +1983,50 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8.0-187.0</t>
+          <t>134.0-252.0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>3830.1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>6856.4</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>3829.5</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>6876.6</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3829.6</t>
-        </is>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>6879.1</t>
+          <t>6828.7</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2038,50 +2038,50 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>159.0-59.0</t>
+          <t>42.0-122.0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3823.5</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6875.1</t>
+          <t>6899.5</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3827.2</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>6892.4</t>
+          <t>6899.4</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2093,50 +2093,50 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>165.0-120.0</t>
+          <t>40.0-53.0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3828.0</t>
+          <t>3828.6</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6883.8</t>
+          <t>6899.3</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>6885.5</t>
+          <t>6896.6</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2148,50 +2148,50 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>129.0-142.0</t>
+          <t>116.0-29.0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3828.3</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6877.7</t>
+          <t>6896.6</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3829.8</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>6878.8</t>
+          <t>6892.2</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2203,50 +2203,50 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>273.0-244.0</t>
+          <t>180.0-92.0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3822.2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6819.6</t>
+          <t>6896.2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3825.2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>6821.7</t>
+          <t>6888.5</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2258,50 +2258,50 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>24.0-151.0</t>
+          <t>64.0-2.0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3828.4</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6887.6</t>
+          <t>6885.5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3830.7</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>6894.4</t>
+          <t>6883.0</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2313,50 +2313,50 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>172.0-136.0</t>
+          <t>7.0-103.0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6878.3</t>
+          <t>6882.7</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3828.4</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>6881.0</t>
+          <t>6878.6</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2368,27 +2368,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>105.0-2.0</t>
+          <t>27.0-47.0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3828.6</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6880.8</t>
+          <t>6878.2</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2398,20 +2398,20 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>6883.0</t>
+          <t>6872.4</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2423,50 +2423,50 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>143.0-79.0</t>
+          <t>18.0-135.0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3825.7</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6884.6</t>
+          <t>6867.9</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>6887.6</t>
+          <t>6864.1</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2478,50 +2478,50 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>234.0-256.0</t>
+          <t>169.0-152.0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3825.5</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6806.8</t>
+          <t>6864.6</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3826.5</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>6814.1</t>
+          <t>6863.1</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2533,50 +2533,50 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3.0-193.0</t>
+          <t>148.0-56.0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6843.0</t>
+          <t>6857.6</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3832.0</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>6843.4</t>
+          <t>6856.4</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2588,50 +2588,50 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>19.0-11.0</t>
+          <t>41.0-139.0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3827.8</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6866.5</t>
+          <t>6851.4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3828.0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>6867.7</t>
+          <t>6848.8</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2643,50 +2643,50 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>50.0-73.0</t>
+          <t>82.0-174.0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6868.5</t>
+          <t>6847.4</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3827.5</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>6870.3</t>
+          <t>6847.3</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2698,50 +2698,50 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>235.0-220.0</t>
+          <t>46.0-85.0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6827.3</t>
+          <t>6846.8</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3825.2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>6836.2</t>
+          <t>6846.7</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2753,50 +2753,50 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>158.0-150.0</t>
+          <t>121.0-261.0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6873.5</t>
+          <t>6844.5</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>6876.1</t>
+          <t>6838.5</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0.0009523809523809426</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>13620.900000000001</t>
+          <t>13650.3</t>
         </is>
       </c>
     </row>
@@ -2808,37 +2808,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>170.0-23.0</t>
+          <t>271.0-272.0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3830.3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6881.1</t>
+          <t>6832.1</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3831.9</t>
+          <t>3830.6</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>6881.2</t>
+          <t>6826.8</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -2863,37 +2863,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>175.0-9.0</t>
+          <t>266.0-219.0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6890.4</t>
+          <t>6826.5</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3828.4</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>6893.9</t>
+          <t>6825.8</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -2918,37 +2918,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>33.0-141.0</t>
+          <t>196.0-114.0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3828.6</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>6844.7</t>
+          <t>6897.0</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3827.6</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>6853.3</t>
+          <t>6890.0</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -2956,12 +2956,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -2973,37 +2973,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>55.0-6.0</t>
+          <t>38.0-197.0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6856.2</t>
+          <t>6883.2</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3827.2</t>
+          <t>3828.4</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>6857.7</t>
+          <t>6882.5</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3028,37 +3028,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>85.0-46.0</t>
+          <t>23.0-170.0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3825.2</t>
+          <t>3831.9</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6846.7</t>
+          <t>6881.2</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>6846.8</t>
+          <t>6881.1</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3083,37 +3083,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>247.0-221.0</t>
+          <t>25.0-166.0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6836.6</t>
+          <t>6878.2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>6839.1</t>
+          <t>6878.1</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3138,37 +3138,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>67.0-110.0</t>
+          <t>48.0-146.0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3825.2</t>
+          <t>3828.4</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>6846.6</t>
+          <t>6877.7</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>6879.2</t>
+          <t>6876.6</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3193,37 +3193,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>253.0-263.0</t>
+          <t>150.0-158.0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6825.1</t>
+          <t>6876.1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3828.4</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>6828.2</t>
+          <t>6873.5</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3248,37 +3248,37 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>78.0-22.0</t>
+          <t>94.0-57.0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3826.8</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6880.3</t>
+          <t>6868.5</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3827.8</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>6883.6</t>
+          <t>6865.1</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3303,37 +3303,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>66.0-21.0</t>
+          <t>34.0-163.0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>6871.7</t>
+          <t>6860.6</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>6875.0</t>
+          <t>6845.3</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3358,37 +3358,37 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>49.0-12.0</t>
+          <t>153.0-213.0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3824.7</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6856.8</t>
+          <t>6853.3</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3828.6</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>6861.8</t>
+          <t>6835.3</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3413,37 +3413,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>103.0-7.0</t>
+          <t>226.0-267.0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3828.4</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6878.6</t>
+          <t>6834.8</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>6882.7</t>
+          <t>6830.6</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3468,37 +3468,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>44.0-176.0</t>
+          <t>224.0-258.0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6869.6</t>
+          <t>6828.1</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>6873.9</t>
+          <t>6826.4</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3523,37 +3523,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>34.0-57.0</t>
+          <t>251.0-238.0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6860.6</t>
+          <t>6824.3</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>6865.1</t>
+          <t>6820.9</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -3561,12 +3561,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3578,22 +3578,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4.0-200.0</t>
+          <t>210.0-246.0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6864.6</t>
+          <t>6825.7</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3603,12 +3603,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>6881.5</t>
+          <t>6824.5</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3633,37 +3633,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>267.0-226.0</t>
+          <t>80.0-79.0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6830.6</t>
+          <t>6890.7</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>6834.8</t>
+          <t>6887.6</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3688,37 +3688,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>178.0-77.0</t>
+          <t>143.0-176.0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3827.9</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6861.5</t>
+          <t>6884.6</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3829.8</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>6864.9</t>
+          <t>6873.9</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3743,37 +3743,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>272.0-271.0</t>
+          <t>62.0-6.0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3830.6</t>
+          <t>3823.3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6826.8</t>
+          <t>6872.2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3830.3</t>
+          <t>3827.2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>6832.1</t>
+          <t>6857.7</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3798,37 +3798,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>273.0-244.0</t>
+          <t>44.0-11.0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6819.6</t>
+          <t>6869.6</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>6821.7</t>
+          <t>6867.7</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -3836,12 +3836,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3853,37 +3853,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>183.0-131.0</t>
+          <t>19.0-43.0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3827.8</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6883.2</t>
+          <t>6866.5</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>6888.4</t>
+          <t>6863.4</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3908,37 +3908,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>161.0-76.0</t>
+          <t>194.0-55.0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>6867.3</t>
+          <t>6860.7</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>6873.1</t>
+          <t>6856.2</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>13641.3</t>
+          <t>13645.2</t>
         </is>
       </c>
     </row>
@@ -3963,50 +3963,50 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>108.0-75.0</t>
+          <t>17.0-36.0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6843.6</t>
+          <t>6852.2</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3828.6</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>6849.8</t>
+          <t>6849.1</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4018,50 +4018,50 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>248.0-209.0</t>
+          <t>115.0-37.0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>6828.6</t>
+          <t>6842.0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>6829.8</t>
+          <t>6841.4</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4073,50 +4073,50 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>70.0-112.0</t>
+          <t>221.0-247.0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>3830.0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>6839.1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>3828.5</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>6877.3</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3829.1</t>
-        </is>
-      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>6883.1</t>
+          <t>6836.6</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4128,50 +4128,50 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>101.0-61.0</t>
+          <t>249.0-259.0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>3822.6</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6853.2</t>
+          <t>6835.4</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>3821.2</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>6858.5</t>
+          <t>6827.6</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4183,50 +4183,50 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>87.0-54.0</t>
+          <t>113.0-133.0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3826.3</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>6854.4</t>
+          <t>6899.8</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>6858.2</t>
+          <t>6895.3</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4238,50 +4238,50 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>274.0-168.0</t>
+          <t>45.0-125.0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6839.1</t>
+          <t>6895.1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>6840.9</t>
+          <t>6894.8</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4293,50 +4293,50 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>124.0-107.0</t>
+          <t>128.0-9.0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>6886.7</t>
+          <t>6894.5</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>6893.3</t>
+          <t>6893.9</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4348,12 +4348,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>228.0-241.0</t>
+          <t>131.0-183.0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3827.1</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4363,12 +4363,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6833.6</t>
+          <t>6888.4</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>3828.4</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4378,20 +4378,20 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>6839.6</t>
+          <t>6883.2</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4403,50 +4403,50 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>64.0-29.0</t>
+          <t>112.0-70.0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>6885.5</t>
+          <t>6883.1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>6892.2</t>
+          <t>6877.3</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4458,50 +4458,50 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>20.0-52.0</t>
+          <t>185.0-144.0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>6843.4</t>
+          <t>6875.7</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>6845.4</t>
+          <t>6875.6</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4513,50 +4513,50 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>169.0-47.0</t>
+          <t>100.0-66.0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3825.1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6864.6</t>
+          <t>6875.5</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>6872.4</t>
+          <t>6871.7</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4568,50 +4568,50 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5.0-16.0</t>
+          <t>21.0-181.0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3825.4</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6851.9</t>
+          <t>6875.0</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>6857.3</t>
+          <t>6868.7</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>259.0-249.0</t>
+          <t>31.0-77.0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4633,40 +4633,40 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>6827.6</t>
+          <t>6868.6</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.8</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>6835.4</t>
+          <t>6864.9</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4678,50 +4678,50 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>155.0-167.0</t>
+          <t>178.0-71.0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3827.9</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>6847.7</t>
+          <t>6861.5</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>3828.2</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>6860.6</t>
+          <t>6855.8</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4733,50 +4733,50 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>28.0-173.0</t>
+          <t>137.0-93.0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3823.1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>6869.2</t>
+          <t>6854.4</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3824.8</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>6877.3</t>
+          <t>6848.1</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4788,50 +4788,50 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>243.0-238.0</t>
+          <t>132.0-193.0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3827.8</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>6812.9</t>
+          <t>6847.4</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3832.0</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>6820.9</t>
+          <t>6843.4</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4843,12 +4843,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>132.0-71.0</t>
+          <t>3.0-241.0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3829.0</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4858,12 +4858,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>6847.4</t>
+          <t>6843.0</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3828.4</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4873,20 +4873,20 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>6855.8</t>
+          <t>6839.6</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4898,50 +4898,50 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>50.0-73.0</t>
+          <t>228.0-218.0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3827.1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>6868.5</t>
+          <t>6833.6</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>3827.5</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>6870.3</t>
+          <t>6828.8</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -4953,50 +4953,50 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>10.0-58.0</t>
+          <t>147.0-126.0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>3829.6</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>6892.9</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>3829.5</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>6864.4</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>3830.1</t>
-        </is>
-      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>6873.1</t>
+          <t>6892.2</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -5008,50 +5008,50 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>33.0-141.0</t>
+          <t>118.0-76.0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3828.0</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>6844.7</t>
+          <t>6876.3</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>6853.3</t>
+          <t>6873.1</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -5063,50 +5063,50 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>83.0-157.0</t>
+          <t>161.0-162.0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>6862.4</t>
+          <t>6867.3</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3828.3</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>6871.8</t>
+          <t>6866.2</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0.0004761904761904766</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>13633.8</t>
+          <t>13662.400000000001</t>
         </is>
       </c>
     </row>
@@ -5118,50 +5118,50 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>68.0-26.0</t>
+          <t>127.0-35.0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3830.6</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>6871.8</t>
+          <t>6866.1</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3830.5</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>6872.7</t>
+          <t>6864.5</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5173,50 +5173,50 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>217.0-264.0</t>
+          <t>91.0-90.0</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3822.1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>6826.5</t>
+          <t>6860.8</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3822.6</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>6835.7</t>
+          <t>6859.5</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5228,50 +5228,50 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>235.0-220.0</t>
+          <t>171.0-75.0</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>6827.3</t>
+          <t>6850.6</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3828.6</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>6836.2</t>
+          <t>6849.8</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5283,50 +5283,50 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>32.0-140.0</t>
+          <t>108.0-229.0</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>6863.6</t>
+          <t>6843.6</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3825.9</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>6873.8</t>
+          <t>6838.9</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5338,50 +5338,50 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>172.0-136.0</t>
+          <t>203.0-230.0</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3823.0</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>6878.3</t>
+          <t>6839.0</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3824.6</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>6881.0</t>
+          <t>6836.0</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5393,50 +5393,50 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>201.0-208.0</t>
+          <t>13.0-63.0</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3820.2</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>6830.2</t>
+          <t>6893.6</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3824.1</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>6837.6</t>
+          <t>6890.4</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5448,50 +5448,50 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>213.0-163.0</t>
+          <t>120.0-165.0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3828.6</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>6835.3</t>
+          <t>6885.5</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3828.0</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>6845.3</t>
+          <t>6883.8</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5503,50 +5503,50 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>202.0-206.0</t>
+          <t>22.0-78.0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3822.1</t>
+          <t>3827.8</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6795.6</t>
+          <t>6883.6</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>3824.7</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>6804.6</t>
+          <t>6880.3</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5558,50 +5558,50 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>149.0-60.0</t>
+          <t>89.0-95.0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3826.7</t>
+          <t>3822.6</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>6888.3</t>
+          <t>6880.4</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3826.9</t>
+          <t>3824.3</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>6889.6</t>
+          <t>6860.8</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5613,50 +5613,50 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>223.0-212.0</t>
+          <t>123.0-15.0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>6795.8</t>
+          <t>6878.1</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3828.0</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>6807.0</t>
+          <t>6877.9</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5668,50 +5668,50 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>240.0-255.0</t>
+          <t>157.0-83.0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>6813.2</t>
+          <t>6871.8</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>6825.8</t>
+          <t>6862.4</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5723,50 +5723,50 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>18.0-27.0</t>
+          <t>72.0-39.0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3825.7</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>6867.9</t>
+          <t>6860.0</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>6878.2</t>
+          <t>6858.1</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5778,50 +5778,50 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>175.0-9.0</t>
+          <t>84.0-16.0</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>6890.4</t>
+          <t>6857.5</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>6893.9</t>
+          <t>6857.3</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5833,50 +5833,50 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>189.0-192.0</t>
+          <t>5.0-81.0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3825.4</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>6866.1</t>
+          <t>6851.9</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>3825.4</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>6877.1</t>
+          <t>6848.9</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5888,50 +5888,50 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>254.0-246.0</t>
+          <t>177.0-69.0</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3828.9</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>6809.9</t>
+          <t>6848.5</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3828.2</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>6824.5</t>
+          <t>6843.5</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>265.0-215.0</t>
+          <t>250.0-264.0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5953,40 +5953,40 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>6837.2</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3829.9</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>1.78</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>6808.7</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>3829.8</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>6823.3</t>
+          <t>6835.7</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -5998,50 +5998,50 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>227.0-214.0</t>
+          <t>204.0-275.0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3827.7</t>
+          <t>3823.6</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>6801.4</t>
+          <t>6822.2</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3820.4</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>6801.7</t>
+          <t>6816.5</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -6053,50 +6053,50 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>268.0-225.0</t>
+          <t>253.0-211.0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3831.0</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>6793.9</t>
+          <t>6825.1</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3828.6</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>6807.4</t>
+          <t>6820.6</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -6108,50 +6108,50 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>4.0-200.0</t>
+          <t>97.0-160.0</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3829.6</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>6864.6</t>
+          <t>6899.5</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>6881.5</t>
+          <t>6858.4</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -6163,50 +6163,50 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>153.0-94.0</t>
+          <t>154.0-260.0</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3824.7</t>
+          <t>3827.9</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>6853.3</t>
+          <t>6856.5</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3826.8</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>6868.5</t>
+          <t>6839.4</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -6218,50 +6218,50 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>243.0-238.0</t>
+          <t>217.0-215.0</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>3827.8</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>6812.9</t>
+          <t>6826.5</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3829.8</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>6820.9</t>
+          <t>6823.3</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0.00285714285714286</v>
+        <v>0.003333333333333336</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>13600.2</t>
+          <t>13638.7</t>
         </is>
       </c>
     </row>
@@ -6273,50 +6273,50 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>62.0-92.0</t>
+          <t>109.0-190.0</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3823.3</t>
+          <t>3826.8</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>6872.2</t>
+          <t>6896.4</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>3825.2</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>6888.5</t>
+          <t>6896.1</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -6328,50 +6328,50 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>88.0-65.0</t>
+          <t>102.0-98.0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3824.5</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>6846.1</t>
+          <t>6895.6</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3825.0</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>6864.4</t>
+          <t>6887.5</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -6383,50 +6383,50 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>216.0-104.0</t>
+          <t>107.0-187.0</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>3828.8</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>6893.3</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
           <t>3829.6</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>6823.4</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>3829.2</t>
-        </is>
-      </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>6841.5</t>
+          <t>6879.1</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>252.0-134.0</t>
+          <t>8.0-179.0</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -6448,40 +6448,40 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>6828.7</t>
+          <t>6876.6</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3826.4</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>6856.4</t>
+          <t>6867.4</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -6493,50 +6493,50 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>211.0-229.0</t>
+          <t>198.0-87.0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3828.6</t>
+          <t>3825.3</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>6820.6</t>
+          <t>6865.9</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3825.9</t>
+          <t>3826.3</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>6838.9</t>
+          <t>6854.4</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -6548,50 +6548,50 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>159.0-59.0</t>
+          <t>54.0-99.0</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3823.5</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>6875.1</t>
+          <t>6858.2</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>3827.2</t>
+          <t>3828.1</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>6892.4</t>
+          <t>6845.3</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -6603,50 +6603,50 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>262.0-130.0</t>
+          <t>51.0-1.0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3829.8</t>
+          <t>3830.1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>6835.0</t>
+          <t>6843.9</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>3829.3</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>6856.6</t>
+          <t>6843.2</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -6658,50 +6658,50 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>28.0-173.0</t>
+          <t>119.0-263.0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>6869.2</t>
+          <t>6841.7</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3828.4</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>6877.3</t>
+          <t>6828.2</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -6713,50 +6713,50 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>237.0-239.0</t>
+          <t>199.0-124.0</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3824.8</t>
+          <t>3830.5</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>6781.9</t>
+          <t>6896.3</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>6804.0</t>
+          <t>6886.7</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -6768,50 +6768,50 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>252.0-134.0</t>
+          <t>188.0-14.0</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>6828.7</t>
+          <t>6881.6</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>3830.1</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>6856.4</t>
+          <t>6879.3</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -6823,50 +6823,50 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>222.0-156.0</t>
+          <t>195.0-117.0</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>3828.0</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>6878.3</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
           <t>3829.1</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>6831.9</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>3827.2</t>
-        </is>
-      </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>6859.0</t>
+          <t>6872.5</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -6878,50 +6878,50 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>129.0-142.0</t>
+          <t>65.0-88.0</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3828.3</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>6877.7</t>
+          <t>6864.4</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>3829.8</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>6878.8</t>
+          <t>6846.1</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -6933,50 +6933,50 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>233.0-230.0</t>
+          <t>61.0-101.0</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3825.8</t>
+          <t>3821.2</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>6804.3</t>
+          <t>6858.5</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>3824.6</t>
+          <t>3822.6</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>6836.0</t>
+          <t>6853.2</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -6988,50 +6988,50 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>245.0-210.0</t>
+          <t>104.0-216.0</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>6792.0</t>
+          <t>6841.5</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3829.6</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>6825.7</t>
+          <t>6823.4</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -7043,50 +7043,50 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>67.0-110.0</t>
+          <t>111.0-74.0</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>3825.2</t>
+          <t>3829.4</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>6846.6</t>
+          <t>6877.7</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>3828.7</t>
+          <t>3828.3</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>6879.2</t>
+          <t>6877.0</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -7098,50 +7098,50 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>105.0-2.0</t>
+          <t>186.0-257.0</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>3828.6</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>6880.8</t>
+          <t>6873.4</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3828.8</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>6883.0</t>
+          <t>6830.0</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -7153,50 +7153,50 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>236.0-138.0</t>
+          <t>191.0-192.0</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>3828.1</t>
+          <t>3822.1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>6831.5</t>
+          <t>6890.2</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>3827.3</t>
+          <t>3825.4</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>6869.3</t>
+          <t>6877.1</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -7208,50 +7208,50 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>257.0-186.0</t>
+          <t>106.0-184.0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3829.3</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>6830.0</t>
+          <t>6894.8</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>6873.4</t>
+          <t>6893.5</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -7263,50 +7263,50 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>275.0-95.0</t>
+          <t>182.0-189.0</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3820.4</t>
+          <t>3829.9</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>6816.5</t>
+          <t>6889.5</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>3824.3</t>
+          <t>3829.2</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>6860.8</t>
+          <t>6866.1</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -7318,105 +7318,105 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>237.0-239.0</t>
+          <t>96.0-205.0</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>3824.8</t>
+          <t>3823.4</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>6781.9</t>
+          <t>6873.9</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3822.1</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>6804.0</t>
+          <t>6826.8</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>13585.9</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Segment 1</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>145.0-30.0</t>
+          <t>208.0-201.0</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>3829.8</t>
+          <t>3824.1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>6896.5</t>
+          <t>6837.6</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3820.2</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>6895.9</t>
+          <t>6830.2</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0.05675454545454546</v>
+        <v>0.0004761904761904766</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>13728.6</t>
+          <t>13664.9</t>
         </is>
       </c>
     </row>
@@ -7428,50 +7428,50 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>45.0-125.0</t>
+          <t>240.0-243.0</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>3829.7</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>6895.1</t>
+          <t>6813.2</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>3829.9</t>
+          <t>3827.8</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>6894.8</t>
+          <t>6812.9</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0.05675454545454546</v>
+        <v>0.06311818181818181</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>13728.6</t>
+          <t>13577.7</t>
         </is>
       </c>
     </row>
@@ -7483,50 +7483,50 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>145.0-30.0</t>
+          <t>256.0-234.0</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>3829.8</t>
+          <t>3826.5</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>6896.5</t>
+          <t>6814.1</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>3829.4</t>
+          <t>3825.5</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>6895.9</t>
+          <t>6806.8</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0.05675454545454546</v>
+        <v>0.06311818181818181</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>13728.6</t>
+          <t>13577.7</t>
         </is>
       </c>
     </row>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>164.0-116.0</t>
+          <t>214.0-227.0</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -7553,35 +7553,35 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>6897.9</t>
+          <t>6801.7</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3827.7</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>6896.6</t>
+          <t>6801.4</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0.05675454545454546</v>
+        <v>0.06311818181818181</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>13728.6</t>
+          <t>13577.7</t>
         </is>
       </c>
     </row>
@@ -7593,27 +7593,27 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>164.0-116.0</t>
+          <t>212.0-239.0</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>3829.0</t>
+          <t>3828.7</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>6897.9</t>
+          <t>6807.0</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>3829.5</t>
+          <t>3828.5</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -7623,20 +7623,20 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>6896.6</t>
+          <t>6804.0</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0.05675454545454546</v>
+        <v>0.06311818181818181</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>13728.6</t>
+          <t>13577.7</t>
         </is>
       </c>
     </row>
@@ -7648,12 +7648,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>40.0-53.0</t>
+          <t>223.0-237.0</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>3828.6</t>
+          <t>3829.7</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -7663,12 +7663,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>6899.3</t>
+          <t>6795.8</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3824.8</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -7678,20 +7678,20 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>6896.6</t>
+          <t>6781.9</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0.05675454545454546</v>
+        <v>0.06311818181818181</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>13728.6</t>
+          <t>13577.7</t>
         </is>
       </c>
     </row>
@@ -7703,50 +7703,50 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>97.0-109.0</t>
+          <t>254.0-225.0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3828.5</t>
+          <t>3828.9</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>6899.5</t>
+          <t>6809.9</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>3826.8</t>
+          <t>3829.1</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>6896.4</t>
+          <t>6807.4</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0.05675454545454546</v>
+        <v>0.06311818181818181</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>13728.6</t>
+          <t>13577.7</t>
         </is>
       </c>
     </row>
@@ -7758,50 +7758,50 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>113.0-133.0</t>
+          <t>233.0-245.0</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>3825.8</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>6804.3</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
           <t>3828.8</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>6899.8</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>3829.9</t>
-        </is>
-      </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>6895.3</t>
+          <t>6792.0</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0.05675454545454546</v>
+        <v>0.06311818181818181</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>13728.6</t>
+          <t>13577.7</t>
         </is>
       </c>
     </row>
@@ -7813,50 +7813,50 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>42.0-122.0</t>
+          <t>231.0-232.0</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3828.8</t>
+          <t>3826.7</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>6899.5</t>
+          <t>6810.9</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>3829.2</t>
+          <t>3824.4</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>6899.4</t>
+          <t>6780.8</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0.05675454545454546</v>
+        <v>0.06311818181818181</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>13728.6</t>
+          <t>13577.7</t>
         </is>
       </c>
     </row>
@@ -7868,50 +7868,50 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>196.0-180.0</t>
+          <t>265.0-207.0</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>3828.6</t>
+          <t>3829.5</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>6897.0</t>
+          <t>6808.7</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>3822.2</t>
+          <t>3825.1</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>6896.2</t>
+          <t>6785.6</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0.05675454545454546</v>
+        <v>0.06311818181818181</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>13728.6</t>
+          <t>13577.7</t>
         </is>
       </c>
     </row>
@@ -7923,50 +7923,105 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>128.0-269.0</t>
+          <t>206.0-202.0</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>3829.1</t>
+          <t>3824.7</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>6894.5</t>
+          <t>6804.6</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
+          <t>3822.1</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>6795.6</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0.06311818181818181</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>13577.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Segment 1</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>268.0-269.0</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3831.0</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>6793.9</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
           <t>3827.39</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>1.2257</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>6834.1</t>
         </is>
       </c>
-      <c r="I137" t="n">
-        <v>0.05675454545454546</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>13728.6</t>
+      <c r="I138" t="n">
+        <v>0.06311818181818181</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>13577.7</t>
         </is>
       </c>
     </row>

--- a/pythonProject/output_segments.xlsx
+++ b/pythonProject/output_segments.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1691,40 +1691,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>89.0-95.0</t>
+          <t>96.0-205.0</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3822.6</v>
+        <v>3823.4</v>
       </c>
       <c r="E29" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="F29" t="n">
-        <v>6880.4</v>
+        <v>6873.9</v>
       </c>
       <c r="G29" t="n">
-        <v>3824.3</v>
+        <v>3822.1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="I29" t="n">
-        <v>6860.8</v>
+        <v>6826.8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.700000000000273</v>
+        <v>1.300000000000182</v>
       </c>
       <c r="K29" t="n">
-        <v>0.895</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="L29" t="n">
-        <v>21.29999999999973</v>
+        <v>48.39999999999964</v>
       </c>
     </row>
     <row r="30">
@@ -1735,40 +1735,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>110.0-4.0</t>
+          <t>138.0-236.0</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3828.7</v>
+        <v>3827.3</v>
       </c>
       <c r="E30" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="F30" t="n">
-        <v>6879.2</v>
+        <v>6869.3</v>
       </c>
       <c r="G30" t="n">
-        <v>3829.6</v>
+        <v>3828.1</v>
       </c>
       <c r="H30" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="I30" t="n">
-        <v>6864.6</v>
+        <v>6831.5</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9000000000000909</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.9624935064935063</v>
       </c>
       <c r="L30" t="n">
-        <v>15.49999999999955</v>
+        <v>38.60999999999991</v>
       </c>
     </row>
     <row r="31">
@@ -1779,40 +1779,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>131.0-183.0</t>
+          <t>186.0-257.0</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3829.7</v>
+        <v>3829.2</v>
       </c>
       <c r="E31" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="F31" t="n">
-        <v>6888.4</v>
+        <v>6873.4</v>
       </c>
       <c r="G31" t="n">
-        <v>3830.1</v>
+        <v>3828.8</v>
       </c>
       <c r="H31" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="I31" t="n">
-        <v>6883.2</v>
+        <v>6830</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.3999999999996362</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="L31" t="n">
-        <v>5.599999999999909</v>
+        <v>43.79999999999927</v>
       </c>
     </row>
     <row r="32">
@@ -1823,40 +1823,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>151.0-59.0</t>
+          <t>12.0-49.0</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3830.7</v>
+        <v>3829.9</v>
       </c>
       <c r="E32" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="F32" t="n">
-        <v>6894.4</v>
+        <v>6861.8</v>
       </c>
       <c r="G32" t="n">
-        <v>3827.2</v>
+        <v>3829.3</v>
       </c>
       <c r="H32" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I32" t="n">
-        <v>6892.4</v>
+        <v>6856.8</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L32" t="n">
-        <v>5.5</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="33">
@@ -1867,40 +1867,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>191.0-192.0</t>
+          <t>123.0-15.0</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3822.1</v>
+        <v>3829.5</v>
       </c>
       <c r="E33" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="F33" t="n">
-        <v>6890.2</v>
+        <v>6878.1</v>
       </c>
       <c r="G33" t="n">
-        <v>3825.4</v>
+        <v>3828</v>
       </c>
       <c r="H33" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="I33" t="n">
-        <v>6877.1</v>
+        <v>6877.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.300000000000182</v>
+        <v>1.5</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8724928366762178</v>
+        <v>0.895</v>
       </c>
       <c r="L33" t="n">
-        <v>16.40999999999963</v>
+        <v>1.700000000000728</v>
       </c>
     </row>
     <row r="34">
@@ -1911,40 +1911,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>149.0-136.0</t>
+          <t>159.0-67.0</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3826.7</v>
+        <v>3823.5</v>
       </c>
       <c r="E34" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="F34" t="n">
-        <v>6888.3</v>
+        <v>6875.1</v>
       </c>
       <c r="G34" t="n">
-        <v>3828.9</v>
+        <v>3825.2</v>
       </c>
       <c r="H34" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I34" t="n">
-        <v>6881</v>
+        <v>6846.6</v>
       </c>
       <c r="J34" t="n">
-        <v>2.200000000000273</v>
+        <v>1.699999999999818</v>
       </c>
       <c r="K34" t="n">
-        <v>0.93</v>
+        <v>0.9374933333333334</v>
       </c>
       <c r="L34" t="n">
-        <v>9.500000000000455</v>
+        <v>30.20999999999982</v>
       </c>
     </row>
     <row r="35">
@@ -1955,40 +1955,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>27.0-47.0</t>
+          <t>111.0-74.0</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3829.1</v>
+        <v>3829.4</v>
       </c>
       <c r="E35" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="F35" t="n">
-        <v>6878.2</v>
+        <v>6877.7</v>
       </c>
       <c r="G35" t="n">
-        <v>3829.6</v>
+        <v>3828.3</v>
       </c>
       <c r="H35" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="I35" t="n">
-        <v>6872.4</v>
+        <v>6877</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K35" t="n">
-        <v>0.92</v>
+        <v>0.875</v>
       </c>
       <c r="L35" t="n">
-        <v>6.300000000000182</v>
+        <v>1.799999999999727</v>
       </c>
     </row>
     <row r="36">
@@ -1999,40 +1999,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>58.0-10.0</t>
+          <t>141.0-33.0</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3830.1</v>
+        <v>3828.7</v>
       </c>
       <c r="E36" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="F36" t="n">
-        <v>6873.1</v>
+        <v>6853.3</v>
       </c>
       <c r="G36" t="n">
         <v>3829.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I36" t="n">
-        <v>6864.4</v>
+        <v>6844.7</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L36" t="n">
-        <v>9.300000000000637</v>
+        <v>9.400000000000546</v>
       </c>
     </row>
     <row r="37">
@@ -2043,40 +2043,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>172.0-26.0</t>
+          <t>48.0-146.0</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3829.3</v>
+        <v>3828.4</v>
       </c>
       <c r="E37" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="F37" t="n">
-        <v>6878.3</v>
+        <v>6877.7</v>
       </c>
       <c r="G37" t="n">
-        <v>3829.3</v>
+        <v>3829.2</v>
       </c>
       <c r="H37" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="I37" t="n">
-        <v>6872.7</v>
+        <v>6876.6</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="K37" t="n">
-        <v>0.93</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L37" t="n">
-        <v>5.600000000000364</v>
+        <v>1.899999999999181</v>
       </c>
     </row>
     <row r="38">
@@ -2087,40 +2087,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>24.0-200.0</t>
+          <t>185.0-144.0</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3828.4</v>
+        <v>3829.7</v>
       </c>
       <c r="E38" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="F38" t="n">
-        <v>6887.6</v>
+        <v>6875.7</v>
       </c>
       <c r="G38" t="n">
-        <v>3829.2</v>
+        <v>3828.9</v>
       </c>
       <c r="H38" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="I38" t="n">
-        <v>6881.5</v>
+        <v>6875.6</v>
       </c>
       <c r="J38" t="n">
         <v>0.7999999999997272</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L38" t="n">
-        <v>6.900000000000091</v>
+        <v>0.8999999999991815</v>
       </c>
     </row>
     <row r="39">
@@ -2131,40 +2131,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>64.0-2.0</t>
+          <t>150.0-158.0</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3828.9</v>
+        <v>3830</v>
       </c>
       <c r="E39" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="F39" t="n">
-        <v>6885.5</v>
+        <v>6876.1</v>
       </c>
       <c r="G39" t="n">
-        <v>3829.5</v>
+        <v>3829.2</v>
       </c>
       <c r="H39" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I39" t="n">
-        <v>6883</v>
+        <v>6873.5</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K39" t="n">
-        <v>0.92</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L39" t="n">
-        <v>3.099999999999909</v>
+        <v>3.400000000000546</v>
       </c>
     </row>
     <row r="40">
@@ -2175,40 +2175,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>86.0-242.0</t>
+          <t>220.0-235.0</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3829.6</v>
+        <v>3830.1</v>
       </c>
       <c r="E40" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="F40" t="n">
-        <v>6840.1</v>
+        <v>6836.2</v>
       </c>
       <c r="G40" t="n">
-        <v>3829.7</v>
+        <v>3829</v>
       </c>
       <c r="H40" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I40" t="n">
-        <v>6828.3</v>
+        <v>6827.3</v>
       </c>
       <c r="J40" t="n">
-        <v>0.09999999999990905</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L40" t="n">
-        <v>11.90000000000009</v>
+        <v>9.999999999999545</v>
       </c>
     </row>
     <row r="41">
@@ -2219,40 +2219,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>120.0-165.0</t>
+          <t>118.0-76.0</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3828.9</v>
+        <v>3828</v>
       </c>
       <c r="E41" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="F41" t="n">
-        <v>6885.5</v>
+        <v>6876.3</v>
       </c>
       <c r="G41" t="n">
-        <v>3828</v>
+        <v>3828.8</v>
       </c>
       <c r="H41" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I41" t="n">
-        <v>6883.8</v>
+        <v>6873.1</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9000000000000909</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K41" t="n">
-        <v>0.895</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L41" t="n">
-        <v>2.599999999999909</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2263,40 +2263,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>195.0-117.0</t>
+          <t>100.0-66.0</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3828</v>
+        <v>3825.1</v>
       </c>
       <c r="E42" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="F42" t="n">
-        <v>6878.3</v>
+        <v>6875.5</v>
       </c>
       <c r="G42" t="n">
-        <v>3829.1</v>
+        <v>3828.7</v>
       </c>
       <c r="H42" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="I42" t="n">
-        <v>6872.5</v>
+        <v>6871.7</v>
       </c>
       <c r="J42" t="n">
-        <v>1.099999999999909</v>
+        <v>3.599999999999909</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L42" t="n">
-        <v>6.900000000000091</v>
+        <v>7.400000000000091</v>
       </c>
     </row>
     <row r="43">
@@ -2307,40 +2307,40 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>38.0-197.0</t>
+          <t>173.0-28.0</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3829.5</v>
+        <v>3829.7</v>
       </c>
       <c r="E43" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="F43" t="n">
-        <v>6883.2</v>
+        <v>6877.3</v>
       </c>
       <c r="G43" t="n">
-        <v>3828.4</v>
+        <v>3829.4</v>
       </c>
       <c r="H43" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="I43" t="n">
-        <v>6882.5</v>
+        <v>6869.2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.099999999999909</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L43" t="n">
-        <v>1.799999999999727</v>
+        <v>8.400000000000091</v>
       </c>
     </row>
     <row r="44">
@@ -2351,40 +2351,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>159.0-67.0</t>
+          <t>175.0-60.0</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3823.5</v>
+        <v>3828.9</v>
       </c>
       <c r="E44" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="F44" t="n">
-        <v>6875.1</v>
+        <v>6890.4</v>
       </c>
       <c r="G44" t="n">
-        <v>3825.2</v>
+        <v>3826.9</v>
       </c>
       <c r="H44" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I44" t="n">
-        <v>6846.6</v>
+        <v>6889.6</v>
       </c>
       <c r="J44" t="n">
-        <v>1.699999999999818</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9374933333333334</v>
+        <v>0.93</v>
       </c>
       <c r="L44" t="n">
-        <v>30.20999999999982</v>
+        <v>2.799999999999272</v>
       </c>
     </row>
     <row r="45">
@@ -2395,40 +2395,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>182.0-189.0</t>
+          <t>62.0-6.0</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3829.9</v>
+        <v>3823.3</v>
       </c>
       <c r="E45" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="F45" t="n">
-        <v>6889.5</v>
+        <v>6872.2</v>
       </c>
       <c r="G45" t="n">
-        <v>3829.2</v>
+        <v>3827.2</v>
       </c>
       <c r="H45" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="I45" t="n">
-        <v>6866.1</v>
+        <v>6857.7</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7000000000002728</v>
+        <v>3.899999999999636</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L45" t="n">
-        <v>24.09999999999991</v>
+        <v>18.39999999999964</v>
       </c>
     </row>
     <row r="46">
@@ -2439,40 +2439,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>25.0-166.0</t>
+          <t>8.0-179.0</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3830</v>
+        <v>3829.5</v>
       </c>
       <c r="E46" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="F46" t="n">
-        <v>6878.2</v>
+        <v>6876.6</v>
       </c>
       <c r="G46" t="n">
-        <v>3829.5</v>
+        <v>3826.4</v>
       </c>
       <c r="H46" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="I46" t="n">
-        <v>6878.1</v>
+        <v>6867.4</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5</v>
+        <v>3.099999999999909</v>
       </c>
       <c r="K46" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5999999999994543</v>
+        <v>12.30000000000064</v>
       </c>
     </row>
     <row r="47">
@@ -2483,40 +2483,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>22.0-78.0</t>
+          <t>21.0-181.0</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3827.8</v>
+        <v>3830</v>
       </c>
       <c r="E47" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="F47" t="n">
-        <v>6883.6</v>
+        <v>6875</v>
       </c>
       <c r="G47" t="n">
         <v>3828.7</v>
       </c>
       <c r="H47" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I47" t="n">
-        <v>6880.3</v>
+        <v>6868.7</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8999999999996362</v>
+        <v>1.300000000000182</v>
       </c>
       <c r="K47" t="n">
-        <v>0.895</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L47" t="n">
-        <v>4.199999999999818</v>
+        <v>7.600000000000364</v>
       </c>
     </row>
     <row r="48">
@@ -2527,40 +2527,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>24.0-200.0</t>
+          <t>149.0-136.0</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3828.4</v>
+        <v>3826.7</v>
       </c>
       <c r="E48" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="F48" t="n">
-        <v>6887.6</v>
+        <v>6888.3</v>
       </c>
       <c r="G48" t="n">
-        <v>3829.2</v>
+        <v>3828.9</v>
       </c>
       <c r="H48" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I48" t="n">
-        <v>6881.5</v>
+        <v>6881</v>
       </c>
       <c r="J48" t="n">
-        <v>0.7999999999997272</v>
+        <v>2.200000000000273</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.93</v>
       </c>
       <c r="L48" t="n">
-        <v>6.900000000000091</v>
+        <v>9.500000000000455</v>
       </c>
     </row>
     <row r="49">
@@ -2571,40 +2571,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>142.0-129.0</t>
+          <t>31.0-77.0</t>
         </is>
       </c>
       <c r="D49" t="n">
+        <v>3829.6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6868.6</v>
+      </c>
+      <c r="G49" t="n">
         <v>3829.8</v>
       </c>
-      <c r="E49" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F49" t="n">
-        <v>6878.8</v>
-      </c>
-      <c r="G49" t="n">
-        <v>3828.3</v>
-      </c>
       <c r="H49" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="I49" t="n">
-        <v>6877.7</v>
+        <v>6864.9</v>
       </c>
       <c r="J49" t="n">
-        <v>1.5</v>
+        <v>0.2000000000002728</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L49" t="n">
-        <v>2.600000000000364</v>
+        <v>3.900000000001</v>
       </c>
     </row>
     <row r="50">
@@ -2615,40 +2615,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>23.0-170.0</t>
+          <t>68.0-73.0</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3831.9</v>
+        <v>3829.6</v>
       </c>
       <c r="E50" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="F50" t="n">
-        <v>6881.2</v>
+        <v>6871.8</v>
       </c>
       <c r="G50" t="n">
-        <v>3828.5</v>
+        <v>3827.5</v>
       </c>
       <c r="H50" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I50" t="n">
-        <v>6881.1</v>
+        <v>6870.3</v>
       </c>
       <c r="J50" t="n">
-        <v>3.400000000000091</v>
+        <v>2.099999999999909</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="L50" t="n">
-        <v>3.499999999999545</v>
+        <v>3.599999999999909</v>
       </c>
     </row>
     <row r="51">
@@ -2659,40 +2659,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>188.0-14.0</t>
+          <t>157.0-83.0</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3828.8</v>
+        <v>3829.2</v>
       </c>
       <c r="E51" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="F51" t="n">
-        <v>6881.6</v>
+        <v>6871.8</v>
       </c>
       <c r="G51" t="n">
         <v>3829.1</v>
       </c>
       <c r="H51" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="I51" t="n">
-        <v>6879.3</v>
+        <v>6862.4</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2999999999997272</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.895</v>
       </c>
       <c r="L51" t="n">
-        <v>2.599999999999909</v>
+        <v>9.500000000000455</v>
       </c>
     </row>
     <row r="52">
@@ -2703,40 +2703,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>110.0-4.0</t>
+          <t>172.0-26.0</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3828.7</v>
+        <v>3829.3</v>
       </c>
       <c r="E52" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="F52" t="n">
-        <v>6879.2</v>
+        <v>6878.3</v>
       </c>
       <c r="G52" t="n">
-        <v>3829.6</v>
+        <v>3829.3</v>
       </c>
       <c r="H52" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I52" t="n">
-        <v>6864.6</v>
+        <v>6872.7</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9000000000000909</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.93</v>
       </c>
       <c r="L52" t="n">
-        <v>15.49999999999955</v>
+        <v>5.600000000000364</v>
       </c>
     </row>
     <row r="53">
@@ -2747,40 +2747,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7.0-103.0</t>
+          <t>58.0-10.0</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3829</v>
+        <v>3830.1</v>
       </c>
       <c r="E53" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="F53" t="n">
-        <v>6882.7</v>
+        <v>6873.1</v>
       </c>
       <c r="G53" t="n">
-        <v>3828.4</v>
+        <v>3829.5</v>
       </c>
       <c r="H53" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="I53" t="n">
-        <v>6878.6</v>
+        <v>6864.4</v>
       </c>
       <c r="J53" t="n">
         <v>0.5999999999999091</v>
       </c>
       <c r="K53" t="n">
-        <v>0.92</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L53" t="n">
-        <v>4.699999999999363</v>
+        <v>9.300000000000637</v>
       </c>
     </row>
     <row r="54">
@@ -2791,40 +2791,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>143.0-176.0</t>
+          <t>140.0-32.0</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3829</v>
+        <v>3829.5</v>
       </c>
       <c r="E54" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="F54" t="n">
-        <v>6884.6</v>
+        <v>6873.8</v>
       </c>
       <c r="G54" t="n">
-        <v>3828.7</v>
+        <v>3829.9</v>
       </c>
       <c r="H54" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="I54" t="n">
-        <v>6873.9</v>
+        <v>6863.6</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3000000000001819</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.9449999999999998</v>
       </c>
       <c r="L54" t="n">
-        <v>11.00000000000091</v>
+        <v>10.59999999999991</v>
       </c>
     </row>
     <row r="55">
@@ -2835,40 +2835,40 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>112.0-70.0</t>
+          <t>44.0-11.0</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3829.1</v>
+        <v>3828.1</v>
       </c>
       <c r="E55" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="F55" t="n">
-        <v>6883.1</v>
+        <v>6869.6</v>
       </c>
       <c r="G55" t="n">
-        <v>3828.5</v>
+        <v>3830</v>
       </c>
       <c r="H55" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I55" t="n">
-        <v>6877.3</v>
+        <v>6867.7</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5999999999999091</v>
+        <v>1.900000000000091</v>
       </c>
       <c r="K55" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L55" t="n">
-        <v>6.400000000000091</v>
+        <v>3.800000000000637</v>
       </c>
     </row>
     <row r="56">
@@ -2879,40 +2879,40 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>96.0-205.0</t>
+          <t>89.0-95.0</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3823.4</v>
+        <v>3822.6</v>
       </c>
       <c r="E56" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="F56" t="n">
-        <v>6873.9</v>
+        <v>6880.4</v>
       </c>
       <c r="G56" t="n">
-        <v>3822.1</v>
+        <v>3824.3</v>
       </c>
       <c r="H56" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="I56" t="n">
-        <v>6826.8</v>
+        <v>6860.8</v>
       </c>
       <c r="J56" t="n">
-        <v>1.300000000000182</v>
+        <v>1.700000000000273</v>
       </c>
       <c r="K56" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="L56" t="n">
-        <v>48.39999999999964</v>
+        <v>21.29999999999973</v>
       </c>
     </row>
     <row r="57">
@@ -2923,40 +2923,40 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>138.0-236.0</t>
+          <t>110.0-4.0</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3827.3</v>
+        <v>3828.7</v>
       </c>
       <c r="E57" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="F57" t="n">
-        <v>6869.3</v>
+        <v>6879.2</v>
       </c>
       <c r="G57" t="n">
-        <v>3828.1</v>
+        <v>3829.6</v>
       </c>
       <c r="H57" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="I57" t="n">
-        <v>6831.5</v>
+        <v>6864.6</v>
       </c>
       <c r="J57" t="n">
-        <v>0.7999999999997272</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K57" t="n">
-        <v>0.9624935064935063</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L57" t="n">
-        <v>38.60999999999991</v>
+        <v>15.49999999999955</v>
       </c>
     </row>
     <row r="58">
@@ -2967,40 +2967,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>186.0-257.0</t>
+          <t>131.0-183.0</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3829.2</v>
+        <v>3829.7</v>
       </c>
       <c r="E58" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="F58" t="n">
-        <v>6873.4</v>
+        <v>6888.4</v>
       </c>
       <c r="G58" t="n">
-        <v>3828.8</v>
+        <v>3830.1</v>
       </c>
       <c r="H58" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="I58" t="n">
-        <v>6830</v>
+        <v>6883.2</v>
       </c>
       <c r="J58" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K58" t="n">
-        <v>0.875</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L58" t="n">
-        <v>43.79999999999927</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="59">
@@ -3011,40 +3011,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>12.0-49.0</t>
+          <t>151.0-59.0</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3829.9</v>
+        <v>3830.7</v>
       </c>
       <c r="E59" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="F59" t="n">
-        <v>6861.8</v>
+        <v>6894.4</v>
       </c>
       <c r="G59" t="n">
-        <v>3829.3</v>
+        <v>3827.2</v>
       </c>
       <c r="H59" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I59" t="n">
-        <v>6856.8</v>
+        <v>6892.4</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5999999999999091</v>
+        <v>3.5</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L59" t="n">
-        <v>5.599999999999909</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="60">
@@ -3055,40 +3055,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>123.0-15.0</t>
+          <t>191.0-192.0</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3829.5</v>
+        <v>3822.1</v>
       </c>
       <c r="E60" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="F60" t="n">
-        <v>6878.1</v>
+        <v>6890.2</v>
       </c>
       <c r="G60" t="n">
-        <v>3828</v>
+        <v>3825.4</v>
       </c>
       <c r="H60" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="I60" t="n">
-        <v>6877.9</v>
+        <v>6877.1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.5</v>
+        <v>3.300000000000182</v>
       </c>
       <c r="K60" t="n">
-        <v>0.895</v>
+        <v>0.8724928366762178</v>
       </c>
       <c r="L60" t="n">
-        <v>1.700000000000728</v>
+        <v>16.40999999999963</v>
       </c>
     </row>
     <row r="61">
@@ -3099,40 +3099,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>159.0-67.0</t>
+          <t>149.0-136.0</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3823.5</v>
+        <v>3826.7</v>
       </c>
       <c r="E61" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="F61" t="n">
-        <v>6875.1</v>
+        <v>6888.3</v>
       </c>
       <c r="G61" t="n">
-        <v>3825.2</v>
+        <v>3828.9</v>
       </c>
       <c r="H61" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I61" t="n">
-        <v>6846.6</v>
+        <v>6881</v>
       </c>
       <c r="J61" t="n">
-        <v>1.699999999999818</v>
+        <v>2.200000000000273</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9374933333333334</v>
+        <v>0.93</v>
       </c>
       <c r="L61" t="n">
-        <v>30.20999999999982</v>
+        <v>9.500000000000455</v>
       </c>
     </row>
     <row r="62">
@@ -3143,40 +3143,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>111.0-74.0</t>
+          <t>27.0-47.0</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3829.4</v>
+        <v>3829.1</v>
       </c>
       <c r="E62" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="F62" t="n">
-        <v>6877.7</v>
+        <v>6878.2</v>
       </c>
       <c r="G62" t="n">
-        <v>3828.3</v>
+        <v>3829.6</v>
       </c>
       <c r="H62" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="I62" t="n">
-        <v>6877</v>
+        <v>6872.4</v>
       </c>
       <c r="J62" t="n">
-        <v>1.099999999999909</v>
+        <v>0.5</v>
       </c>
       <c r="K62" t="n">
-        <v>0.875</v>
+        <v>0.92</v>
       </c>
       <c r="L62" t="n">
-        <v>1.799999999999727</v>
+        <v>6.300000000000182</v>
       </c>
     </row>
     <row r="63">
@@ -3187,40 +3187,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>141.0-33.0</t>
+          <t>58.0-10.0</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3828.7</v>
+        <v>3830.1</v>
       </c>
       <c r="E63" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="F63" t="n">
-        <v>6853.3</v>
+        <v>6873.1</v>
       </c>
       <c r="G63" t="n">
         <v>3829.5</v>
       </c>
       <c r="H63" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I63" t="n">
-        <v>6844.7</v>
+        <v>6864.4</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8000000000001819</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K63" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>9.400000000000546</v>
+        <v>9.300000000000637</v>
       </c>
     </row>
     <row r="64">
@@ -3231,40 +3231,40 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>48.0-146.0</t>
+          <t>172.0-26.0</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3828.4</v>
+        <v>3829.3</v>
       </c>
       <c r="E64" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="F64" t="n">
-        <v>6877.7</v>
+        <v>6878.3</v>
       </c>
       <c r="G64" t="n">
-        <v>3829.2</v>
+        <v>3829.3</v>
       </c>
       <c r="H64" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I64" t="n">
-        <v>6876.6</v>
+        <v>6872.7</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7999999999997272</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="L64" t="n">
-        <v>1.899999999999181</v>
+        <v>5.600000000000364</v>
       </c>
     </row>
     <row r="65">
@@ -3275,40 +3275,40 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>185.0-144.0</t>
+          <t>24.0-200.0</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3829.7</v>
+        <v>3828.4</v>
       </c>
       <c r="E65" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="F65" t="n">
-        <v>6875.7</v>
+        <v>6887.6</v>
       </c>
       <c r="G65" t="n">
-        <v>3828.9</v>
+        <v>3829.2</v>
       </c>
       <c r="H65" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="I65" t="n">
-        <v>6875.6</v>
+        <v>6881.5</v>
       </c>
       <c r="J65" t="n">
         <v>0.7999999999997272</v>
       </c>
       <c r="K65" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L65" t="n">
-        <v>0.8999999999991815</v>
+        <v>6.900000000000091</v>
       </c>
     </row>
     <row r="66">
@@ -3319,40 +3319,40 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>150.0-158.0</t>
+          <t>64.0-2.0</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3830</v>
+        <v>3828.9</v>
       </c>
       <c r="E66" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F66" t="n">
-        <v>6876.1</v>
+        <v>6885.5</v>
       </c>
       <c r="G66" t="n">
-        <v>3829.2</v>
+        <v>3829.5</v>
       </c>
       <c r="H66" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I66" t="n">
-        <v>6873.5</v>
+        <v>6883</v>
       </c>
       <c r="J66" t="n">
-        <v>0.8000000000001819</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K66" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L66" t="n">
-        <v>3.400000000000546</v>
+        <v>3.099999999999909</v>
       </c>
     </row>
     <row r="67">
@@ -3363,40 +3363,40 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>220.0-235.0</t>
+          <t>86.0-242.0</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3830.1</v>
+        <v>3829.6</v>
       </c>
       <c r="E67" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="F67" t="n">
-        <v>6836.2</v>
+        <v>6840.1</v>
       </c>
       <c r="G67" t="n">
-        <v>3829</v>
+        <v>3829.7</v>
       </c>
       <c r="H67" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I67" t="n">
-        <v>6827.3</v>
+        <v>6828.3</v>
       </c>
       <c r="J67" t="n">
-        <v>1.099999999999909</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K67" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L67" t="n">
-        <v>9.999999999999545</v>
+        <v>11.90000000000009</v>
       </c>
     </row>
     <row r="68">
@@ -3407,40 +3407,40 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>118.0-76.0</t>
+          <t>120.0-165.0</t>
         </is>
       </c>
       <c r="D68" t="n">
+        <v>3828.9</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6885.5</v>
+      </c>
+      <c r="G68" t="n">
         <v>3828</v>
       </c>
-      <c r="E68" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F68" t="n">
-        <v>6876.3</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3828.8</v>
-      </c>
       <c r="H68" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I68" t="n">
-        <v>6873.1</v>
+        <v>6883.8</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8000000000001819</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K68" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.895</v>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>2.599999999999909</v>
       </c>
     </row>
     <row r="69">
@@ -3451,40 +3451,40 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>100.0-66.0</t>
+          <t>195.0-117.0</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3825.1</v>
+        <v>3828</v>
       </c>
       <c r="E69" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="F69" t="n">
-        <v>6875.5</v>
+        <v>6878.3</v>
       </c>
       <c r="G69" t="n">
-        <v>3828.7</v>
+        <v>3829.1</v>
       </c>
       <c r="H69" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="I69" t="n">
-        <v>6871.7</v>
+        <v>6872.5</v>
       </c>
       <c r="J69" t="n">
-        <v>3.599999999999909</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K69" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L69" t="n">
-        <v>7.400000000000091</v>
+        <v>6.900000000000091</v>
       </c>
     </row>
     <row r="70">
@@ -3495,40 +3495,40 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>173.0-28.0</t>
+          <t>38.0-197.0</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3829.7</v>
+        <v>3829.5</v>
       </c>
       <c r="E70" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="F70" t="n">
-        <v>6877.3</v>
+        <v>6883.2</v>
       </c>
       <c r="G70" t="n">
-        <v>3829.4</v>
+        <v>3828.4</v>
       </c>
       <c r="H70" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="I70" t="n">
-        <v>6869.2</v>
+        <v>6882.5</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2999999999997272</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>8.400000000000091</v>
+        <v>1.799999999999727</v>
       </c>
     </row>
     <row r="71">
@@ -3539,40 +3539,40 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>175.0-60.0</t>
+          <t>159.0-67.0</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3828.9</v>
+        <v>3823.5</v>
       </c>
       <c r="E71" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="F71" t="n">
-        <v>6890.4</v>
+        <v>6875.1</v>
       </c>
       <c r="G71" t="n">
-        <v>3826.9</v>
+        <v>3825.2</v>
       </c>
       <c r="H71" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I71" t="n">
-        <v>6889.6</v>
+        <v>6846.6</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>1.699999999999818</v>
       </c>
       <c r="K71" t="n">
-        <v>0.93</v>
+        <v>0.9374933333333334</v>
       </c>
       <c r="L71" t="n">
-        <v>2.799999999999272</v>
+        <v>30.20999999999982</v>
       </c>
     </row>
     <row r="72">
@@ -3583,40 +3583,40 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>62.0-6.0</t>
+          <t>182.0-189.0</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3823.3</v>
+        <v>3829.9</v>
       </c>
       <c r="E72" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="F72" t="n">
-        <v>6872.2</v>
+        <v>6889.5</v>
       </c>
       <c r="G72" t="n">
-        <v>3827.2</v>
+        <v>3829.2</v>
       </c>
       <c r="H72" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="I72" t="n">
-        <v>6857.7</v>
+        <v>6866.1</v>
       </c>
       <c r="J72" t="n">
-        <v>3.899999999999636</v>
+        <v>0.7000000000002728</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="L72" t="n">
-        <v>18.39999999999964</v>
+        <v>24.09999999999991</v>
       </c>
     </row>
     <row r="73">
@@ -3627,40 +3627,40 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>8.0-179.0</t>
+          <t>25.0-166.0</t>
         </is>
       </c>
       <c r="D73" t="n">
+        <v>3830</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6878.2</v>
+      </c>
+      <c r="G73" t="n">
         <v>3829.5</v>
       </c>
-      <c r="E73" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F73" t="n">
-        <v>6876.6</v>
-      </c>
-      <c r="G73" t="n">
-        <v>3826.4</v>
-      </c>
       <c r="H73" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="I73" t="n">
-        <v>6867.4</v>
+        <v>6878.1</v>
       </c>
       <c r="J73" t="n">
-        <v>3.099999999999909</v>
+        <v>0.5</v>
       </c>
       <c r="K73" t="n">
-        <v>0.885</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L73" t="n">
-        <v>12.30000000000064</v>
+        <v>0.5999999999994543</v>
       </c>
     </row>
     <row r="74">
@@ -3671,40 +3671,40 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>21.0-181.0</t>
+          <t>22.0-78.0</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3830</v>
+        <v>3827.8</v>
       </c>
       <c r="E74" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="F74" t="n">
-        <v>6875</v>
+        <v>6883.6</v>
       </c>
       <c r="G74" t="n">
         <v>3828.7</v>
       </c>
       <c r="H74" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="I74" t="n">
-        <v>6868.7</v>
+        <v>6880.3</v>
       </c>
       <c r="J74" t="n">
-        <v>1.300000000000182</v>
+        <v>0.8999999999996362</v>
       </c>
       <c r="K74" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.895</v>
       </c>
       <c r="L74" t="n">
-        <v>7.600000000000364</v>
+        <v>4.199999999999818</v>
       </c>
     </row>
     <row r="75">
@@ -3715,40 +3715,40 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>149.0-136.0</t>
+          <t>24.0-200.0</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3826.7</v>
+        <v>3828.4</v>
       </c>
       <c r="E75" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="F75" t="n">
-        <v>6888.3</v>
+        <v>6887.6</v>
       </c>
       <c r="G75" t="n">
-        <v>3828.9</v>
+        <v>3829.2</v>
       </c>
       <c r="H75" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I75" t="n">
-        <v>6881</v>
+        <v>6881.5</v>
       </c>
       <c r="J75" t="n">
-        <v>2.200000000000273</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="K75" t="n">
-        <v>0.93</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L75" t="n">
-        <v>9.500000000000455</v>
+        <v>6.900000000000091</v>
       </c>
     </row>
     <row r="76">
@@ -3759,40 +3759,40 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>31.0-77.0</t>
+          <t>142.0-129.0</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3829.6</v>
+        <v>3829.8</v>
       </c>
       <c r="E76" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="F76" t="n">
-        <v>6868.6</v>
+        <v>6878.8</v>
       </c>
       <c r="G76" t="n">
-        <v>3829.8</v>
+        <v>3828.3</v>
       </c>
       <c r="H76" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="I76" t="n">
-        <v>6864.9</v>
+        <v>6877.7</v>
       </c>
       <c r="J76" t="n">
-        <v>0.2000000000002728</v>
+        <v>1.5</v>
       </c>
       <c r="K76" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L76" t="n">
-        <v>3.900000000001</v>
+        <v>2.600000000000364</v>
       </c>
     </row>
     <row r="77">
@@ -3803,40 +3803,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>68.0-73.0</t>
+          <t>23.0-170.0</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3829.6</v>
+        <v>3831.9</v>
       </c>
       <c r="E77" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="F77" t="n">
-        <v>6871.8</v>
+        <v>6881.2</v>
       </c>
       <c r="G77" t="n">
-        <v>3827.5</v>
+        <v>3828.5</v>
       </c>
       <c r="H77" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="I77" t="n">
-        <v>6870.3</v>
+        <v>6881.1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.099999999999909</v>
+        <v>3.400000000000091</v>
       </c>
       <c r="K77" t="n">
-        <v>0.93</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L77" t="n">
-        <v>3.599999999999909</v>
+        <v>3.499999999999545</v>
       </c>
     </row>
     <row r="78">
@@ -3847,40 +3847,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>157.0-83.0</t>
+          <t>188.0-14.0</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3829.2</v>
+        <v>3828.8</v>
       </c>
       <c r="E78" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="F78" t="n">
-        <v>6871.8</v>
+        <v>6881.6</v>
       </c>
       <c r="G78" t="n">
         <v>3829.1</v>
       </c>
       <c r="H78" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="I78" t="n">
-        <v>6862.4</v>
+        <v>6879.3</v>
       </c>
       <c r="J78" t="n">
-        <v>0.09999999999990905</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K78" t="n">
-        <v>0.895</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L78" t="n">
-        <v>9.500000000000455</v>
+        <v>2.599999999999909</v>
       </c>
     </row>
     <row r="79">
@@ -3891,40 +3891,40 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>172.0-26.0</t>
+          <t>110.0-4.0</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3829.3</v>
+        <v>3828.7</v>
       </c>
       <c r="E79" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="F79" t="n">
-        <v>6878.3</v>
+        <v>6879.2</v>
       </c>
       <c r="G79" t="n">
-        <v>3829.3</v>
+        <v>3829.6</v>
       </c>
       <c r="H79" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I79" t="n">
-        <v>6872.7</v>
+        <v>6864.6</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K79" t="n">
-        <v>0.93</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L79" t="n">
-        <v>5.600000000000364</v>
+        <v>15.49999999999955</v>
       </c>
     </row>
     <row r="80">
@@ -3935,40 +3935,40 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>58.0-10.0</t>
+          <t>7.0-103.0</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3830.1</v>
+        <v>3829</v>
       </c>
       <c r="E80" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="F80" t="n">
-        <v>6873.1</v>
+        <v>6882.7</v>
       </c>
       <c r="G80" t="n">
-        <v>3829.5</v>
+        <v>3828.4</v>
       </c>
       <c r="H80" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="I80" t="n">
-        <v>6864.4</v>
+        <v>6878.6</v>
       </c>
       <c r="J80" t="n">
         <v>0.5999999999999091</v>
       </c>
       <c r="K80" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L80" t="n">
-        <v>9.300000000000637</v>
+        <v>4.699999999999363</v>
       </c>
     </row>
     <row r="81">
@@ -3979,40 +3979,40 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>140.0-32.0</t>
+          <t>143.0-176.0</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3829.5</v>
+        <v>3829</v>
       </c>
       <c r="E81" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="F81" t="n">
-        <v>6873.8</v>
+        <v>6884.6</v>
       </c>
       <c r="G81" t="n">
-        <v>3829.9</v>
+        <v>3828.7</v>
       </c>
       <c r="H81" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="I81" t="n">
-        <v>6863.6</v>
+        <v>6873.9</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.3000000000001819</v>
       </c>
       <c r="K81" t="n">
-        <v>0.9449999999999998</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L81" t="n">
-        <v>10.59999999999991</v>
+        <v>11.00000000000091</v>
       </c>
     </row>
     <row r="82">
@@ -4023,40 +4023,40 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>44.0-11.0</t>
+          <t>112.0-70.0</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3828.1</v>
+        <v>3829.1</v>
       </c>
       <c r="E82" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="F82" t="n">
-        <v>6869.6</v>
+        <v>6883.1</v>
       </c>
       <c r="G82" t="n">
-        <v>3830</v>
+        <v>3828.5</v>
       </c>
       <c r="H82" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="I82" t="n">
-        <v>6867.7</v>
+        <v>6877.3</v>
       </c>
       <c r="J82" t="n">
-        <v>1.900000000000091</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K82" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L82" t="n">
-        <v>3.800000000000637</v>
+        <v>6.400000000000091</v>
       </c>
     </row>
     <row r="83">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>109</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>105</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>109</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7807,7 +7807,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8203,7 +8203,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">

--- a/pythonProject/output_segments.xlsx
+++ b/pythonProject/output_segments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L177"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,40 +503,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>97.0-160.0</t>
+          <t>172.0-26.0</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3828.5</v>
+        <v>3829.3</v>
       </c>
       <c r="E2" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="F2" t="n">
-        <v>6899.5</v>
+        <v>6878.3</v>
       </c>
       <c r="G2" t="n">
-        <v>3828.1</v>
+        <v>3829.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="I2" t="n">
-        <v>6858.4</v>
+        <v>6872.7</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4000000000000909</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8899999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L2" t="n">
-        <v>41.50000000000045</v>
+        <v>5.600000000000364</v>
       </c>
     </row>
     <row r="3">
@@ -547,40 +547,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>42.0-122.0</t>
+          <t>210.0-246.0</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3828.8</v>
+        <v>3829.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="F3" t="n">
-        <v>6899.5</v>
+        <v>6825.7</v>
       </c>
       <c r="G3" t="n">
         <v>3829.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I3" t="n">
-        <v>6899.4</v>
+        <v>6824.5</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K3" t="n">
-        <v>0.92</v>
+        <v>0.9124931506849315</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>1.309999999999727</v>
       </c>
     </row>
     <row r="4">
@@ -591,40 +591,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>107.0-187.0</t>
+          <t>138.0-236.0</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3828.8</v>
+        <v>3827.3</v>
       </c>
       <c r="E4" t="n">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="F4" t="n">
-        <v>6893.3</v>
+        <v>6869.3</v>
       </c>
       <c r="G4" t="n">
-        <v>3829.6</v>
+        <v>3828.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="I4" t="n">
-        <v>6879.1</v>
+        <v>6831.5</v>
       </c>
       <c r="J4" t="n">
         <v>0.7999999999997272</v>
       </c>
       <c r="K4" t="n">
-        <v>0.885</v>
+        <v>0.9624935064935063</v>
       </c>
       <c r="L4" t="n">
-        <v>14.99999999999955</v>
+        <v>38.60999999999991</v>
       </c>
     </row>
     <row r="5">
@@ -635,40 +635,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>138.0-236.0</t>
+          <t>86.0-242.0</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3827.3</v>
+        <v>3829.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="F5" t="n">
-        <v>6869.3</v>
+        <v>6840.1</v>
       </c>
       <c r="G5" t="n">
-        <v>3828.1</v>
+        <v>3829.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="I5" t="n">
-        <v>6831.5</v>
+        <v>6828.3</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7999999999997272</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9624935064935063</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>38.60999999999991</v>
+        <v>11.90000000000009</v>
       </c>
     </row>
     <row r="6">
@@ -679,40 +679,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>40.0-53.0</t>
+          <t>34.0-163.0</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3828.6</v>
+        <v>3830</v>
       </c>
       <c r="E6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="F6" t="n">
-        <v>6899.3</v>
+        <v>6860.6</v>
       </c>
       <c r="G6" t="n">
-        <v>3829.1</v>
+        <v>3830.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I6" t="n">
-        <v>6896.6</v>
+        <v>6845.3</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K6" t="n">
-        <v>0.92</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>3.199999999999818</v>
+        <v>15.40000000000009</v>
       </c>
     </row>
     <row r="7">
@@ -723,40 +723,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>113.0-133.0</t>
+          <t>156.0-222.0</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3828.8</v>
+        <v>3827.2</v>
       </c>
       <c r="E7" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="F7" t="n">
-        <v>6899.8</v>
+        <v>6859</v>
       </c>
       <c r="G7" t="n">
-        <v>3829.9</v>
+        <v>3829.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="I7" t="n">
-        <v>6895.3</v>
+        <v>6831.9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.099999999999909</v>
+        <v>1.900000000000091</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>5.599999999999909</v>
+        <v>29.00000000000045</v>
       </c>
     </row>
     <row r="8">
@@ -767,40 +767,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>145.0-30.0</t>
+          <t>127.0-35.0</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3829.8</v>
+        <v>3830.6</v>
       </c>
       <c r="E8" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="F8" t="n">
-        <v>6896.5</v>
+        <v>6866.1</v>
       </c>
       <c r="G8" t="n">
-        <v>3829.4</v>
+        <v>3830.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="I8" t="n">
-        <v>6895.9</v>
+        <v>6864.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>1.000000000000455</v>
+        <v>1.700000000000273</v>
       </c>
     </row>
     <row r="9">
@@ -811,40 +811,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>156.0-222.0</t>
+          <t>157.0-83.0</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3827.2</v>
+        <v>3829.2</v>
       </c>
       <c r="E9" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="F9" t="n">
-        <v>6859</v>
+        <v>6871.8</v>
       </c>
       <c r="G9" t="n">
         <v>3829.1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="I9" t="n">
-        <v>6831.9</v>
+        <v>6862.4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.900000000000091</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="L9" t="n">
-        <v>29.00000000000045</v>
+        <v>9.500000000000455</v>
       </c>
     </row>
     <row r="10">
@@ -855,40 +855,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>109.0-190.0</t>
+          <t>130.0-262.0</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3826.8</v>
+        <v>3829.3</v>
       </c>
       <c r="E10" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="F10" t="n">
-        <v>6896.4</v>
+        <v>6856.6</v>
       </c>
       <c r="G10" t="n">
-        <v>3828.8</v>
+        <v>3829.8</v>
       </c>
       <c r="H10" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="I10" t="n">
-        <v>6896.1</v>
+        <v>6835</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.885</v>
+        <v>0.9449999999999998</v>
       </c>
       <c r="L10" t="n">
-        <v>2.299999999999272</v>
+        <v>22.10000000000036</v>
       </c>
     </row>
     <row r="11">
@@ -899,40 +899,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>80.0-79.0</t>
+          <t>147.0-126.0</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3829.4</v>
+        <v>3829.6</v>
       </c>
       <c r="E11" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="F11" t="n">
-        <v>6890.7</v>
+        <v>6892.9</v>
       </c>
       <c r="G11" t="n">
-        <v>3828.8</v>
+        <v>3829.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I11" t="n">
-        <v>6887.6</v>
+        <v>6892.2</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>3.699999999999363</v>
+        <v>0.7999999999997272</v>
       </c>
     </row>
     <row r="12">
@@ -943,40 +943,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>164.0-105.0</t>
+          <t>251.0-238.0</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3829</v>
+        <v>3828.8</v>
       </c>
       <c r="E12" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="F12" t="n">
-        <v>6897.9</v>
+        <v>6824.3</v>
       </c>
       <c r="G12" t="n">
-        <v>3828.6</v>
+        <v>3828.7</v>
       </c>
       <c r="H12" t="n">
         <v>1.85</v>
       </c>
       <c r="I12" t="n">
-        <v>6880.8</v>
+        <v>6820.9</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.1000000000003638</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.9148907103825137</v>
       </c>
       <c r="L12" t="n">
-        <v>17.49999999999955</v>
+        <v>3.54000000000091</v>
       </c>
     </row>
     <row r="13">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>175.0-60.0</t>
+          <t>248.0-244.0</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1046,25 +1046,25 @@
         <v>1.86</v>
       </c>
       <c r="F14" t="n">
-        <v>6890.4</v>
+        <v>6828.6</v>
       </c>
       <c r="G14" t="n">
-        <v>3826.9</v>
+        <v>3829.1</v>
       </c>
       <c r="H14" t="n">
         <v>1.86</v>
       </c>
       <c r="I14" t="n">
-        <v>6889.6</v>
+        <v>6821.7</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="K14" t="n">
         <v>0.93</v>
       </c>
       <c r="L14" t="n">
-        <v>2.799999999999272</v>
+        <v>7.100000000000364</v>
       </c>
     </row>
     <row r="15">
@@ -1075,40 +1075,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>180.0-92.0</t>
+          <t>82.0-174.0</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3822.2</v>
+        <v>3829.5</v>
       </c>
       <c r="E15" t="n">
         <v>1.84</v>
       </c>
       <c r="F15" t="n">
-        <v>6896.2</v>
+        <v>6847.4</v>
       </c>
       <c r="G15" t="n">
-        <v>3825.2</v>
+        <v>3829.3</v>
       </c>
       <c r="H15" t="n">
         <v>1.84</v>
       </c>
       <c r="I15" t="n">
-        <v>6888.5</v>
+        <v>6847.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="K15" t="n">
         <v>0.92</v>
       </c>
       <c r="L15" t="n">
-        <v>10.69999999999982</v>
+        <v>0.2999999999992724</v>
       </c>
     </row>
     <row r="16">
@@ -1119,40 +1119,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>45.0-125.0</t>
+          <t>255.0-273.0</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3829.7</v>
+        <v>3829.4</v>
       </c>
       <c r="E16" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="F16" t="n">
-        <v>6895.1</v>
+        <v>6825.8</v>
       </c>
       <c r="G16" t="n">
-        <v>3829.9</v>
+        <v>3830.1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="I16" t="n">
-        <v>6894.8</v>
+        <v>6819.6</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2000000000002728</v>
+        <v>0.6999999999998181</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.9447619047619047</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5000000000004547</v>
+        <v>6.959999999999636</v>
       </c>
     </row>
     <row r="17">
@@ -1163,40 +1163,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>130.0-262.0</t>
+          <t>17.0-36.0</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3829.3</v>
+        <v>3829.7</v>
       </c>
       <c r="E17" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="F17" t="n">
-        <v>6856.6</v>
+        <v>6852.2</v>
       </c>
       <c r="G17" t="n">
-        <v>3829.8</v>
+        <v>3829.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="I17" t="n">
-        <v>6835</v>
+        <v>6849.1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9449999999999998</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L17" t="n">
-        <v>22.10000000000036</v>
+        <v>3.299999999999272</v>
       </c>
     </row>
     <row r="18">
@@ -1207,40 +1207,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>102.0-98.0</t>
+          <t>65.0-88.0</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3824.5</v>
+        <v>3828.7</v>
       </c>
       <c r="E18" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="F18" t="n">
-        <v>6895.6</v>
+        <v>6864.4</v>
       </c>
       <c r="G18" t="n">
-        <v>3825</v>
+        <v>3828.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I18" t="n">
-        <v>6887.5</v>
+        <v>6846.1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="K18" t="n">
-        <v>0.885</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>8.600000000000364</v>
+        <v>18.49999999999909</v>
       </c>
     </row>
     <row r="19">
@@ -1251,40 +1251,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>106.0-184.0</t>
+          <t>128.0-9.0</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3829.3</v>
+        <v>3829.1</v>
       </c>
       <c r="E19" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="F19" t="n">
-        <v>6894.8</v>
+        <v>6894.5</v>
       </c>
       <c r="G19" t="n">
-        <v>3829.9</v>
+        <v>3828.9</v>
       </c>
       <c r="H19" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="I19" t="n">
-        <v>6893.5</v>
+        <v>6893.9</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>1.900000000000091</v>
+        <v>0.8000000000001819</v>
       </c>
     </row>
     <row r="20">
@@ -1295,40 +1295,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>128.0-9.0</t>
+          <t>31.0-77.0</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3829.1</v>
+        <v>3829.6</v>
       </c>
       <c r="E20" t="n">
         <v>1.81</v>
       </c>
       <c r="F20" t="n">
-        <v>6894.5</v>
+        <v>6868.6</v>
       </c>
       <c r="G20" t="n">
-        <v>3828.9</v>
+        <v>3829.8</v>
       </c>
       <c r="H20" t="n">
         <v>1.81</v>
       </c>
       <c r="I20" t="n">
-        <v>6893.9</v>
+        <v>6864.9</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.2000000000002728</v>
       </c>
       <c r="K20" t="n">
         <v>0.9049999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8000000000001819</v>
+        <v>3.900000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1339,40 +1339,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>255.0-273.0</t>
+          <t>58.0-10.0</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3829.4</v>
+        <v>3830.1</v>
       </c>
       <c r="E21" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="F21" t="n">
-        <v>6825.8</v>
+        <v>6873.1</v>
       </c>
       <c r="G21" t="n">
-        <v>3830.1</v>
+        <v>3829.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="I21" t="n">
-        <v>6819.6</v>
+        <v>6864.4</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6999999999998181</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9447619047619047</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L21" t="n">
-        <v>6.959999999999636</v>
+        <v>9.300000000000637</v>
       </c>
     </row>
     <row r="22">
@@ -1383,304 +1383,304 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>199.0-124.0</t>
+          <t>45.0-125.0</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3830.5</v>
+        <v>3829.7</v>
       </c>
       <c r="E22" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="F22" t="n">
-        <v>6896.3</v>
+        <v>6895.1</v>
       </c>
       <c r="G22" t="n">
-        <v>3829.4</v>
+        <v>3829.9</v>
       </c>
       <c r="H22" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="I22" t="n">
-        <v>6886.7</v>
+        <v>6894.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.099999999999909</v>
+        <v>0.2000000000002728</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>10.70000000000027</v>
+        <v>0.5000000000004547</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Segment 1</t>
+          <t>Segment 2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>116.0-29.0</t>
+          <t>24.0-200.0</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3829.5</v>
+        <v>3828.4</v>
       </c>
       <c r="E23" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="F23" t="n">
-        <v>6896.6</v>
+        <v>6887.6</v>
       </c>
       <c r="G23" t="n">
-        <v>3828.1</v>
+        <v>3829.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="I23" t="n">
-        <v>6892.2</v>
+        <v>6881.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.400000000000091</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="K23" t="n">
-        <v>0.92</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L23" t="n">
-        <v>5.800000000000637</v>
+        <v>6.900000000000091</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Segment 1</t>
+          <t>Segment 2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>151.0-59.0</t>
+          <t>13.0-63.0</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3830.7</v>
+        <v>3828.9</v>
       </c>
       <c r="E24" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="F24" t="n">
-        <v>6894.4</v>
+        <v>6893.6</v>
       </c>
       <c r="G24" t="n">
-        <v>3827.2</v>
+        <v>3828.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="I24" t="n">
-        <v>6892.4</v>
+        <v>6890.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>3.600000000000819</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Segment 1</t>
+          <t>Segment 2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>145.0-30.0</t>
+          <t>249.0-259.0</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3829.8</v>
+        <v>3829.1</v>
       </c>
       <c r="E25" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="F25" t="n">
-        <v>6896.5</v>
+        <v>6835.4</v>
       </c>
       <c r="G25" t="n">
-        <v>3829.4</v>
+        <v>3829.6</v>
       </c>
       <c r="H25" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="I25" t="n">
-        <v>6895.9</v>
+        <v>6827.6</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L25" t="n">
-        <v>1.000000000000455</v>
+        <v>8.299999999999272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Segment 1</t>
+          <t>Segment 2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>109</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>196.0-114.0</t>
+          <t>274.0-209.0</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3828.6</v>
+        <v>3829.4</v>
       </c>
       <c r="E26" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="F26" t="n">
-        <v>6897</v>
+        <v>6839.1</v>
       </c>
       <c r="G26" t="n">
-        <v>3827.6</v>
+        <v>3828.7</v>
       </c>
       <c r="H26" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I26" t="n">
-        <v>6890</v>
+        <v>6829.8</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.7000000000002728</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>10.00000000000045</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Segment 1</t>
+          <t>Segment 2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13.0-63.0</t>
+          <t>177.0-69.0</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3828.9</v>
+        <v>3828.7</v>
       </c>
       <c r="E27" t="n">
         <v>1.79</v>
       </c>
       <c r="F27" t="n">
-        <v>6893.6</v>
+        <v>6848.5</v>
       </c>
       <c r="G27" t="n">
-        <v>3828.5</v>
+        <v>3828.2</v>
       </c>
       <c r="H27" t="n">
         <v>1.79</v>
       </c>
       <c r="I27" t="n">
-        <v>6890.4</v>
+        <v>6843.5</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.5</v>
       </c>
       <c r="K27" t="n">
         <v>0.895</v>
       </c>
       <c r="L27" t="n">
-        <v>3.600000000000819</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Segment 1</t>
+          <t>Segment 2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>147.0-126.0</t>
+          <t>91.0-90.0</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3829.6</v>
+        <v>3822.1</v>
       </c>
       <c r="E28" t="n">
         <v>1.8</v>
       </c>
       <c r="F28" t="n">
-        <v>6892.9</v>
+        <v>6860.8</v>
       </c>
       <c r="G28" t="n">
-        <v>3829.5</v>
+        <v>3822.6</v>
       </c>
       <c r="H28" t="n">
         <v>1.8</v>
       </c>
       <c r="I28" t="n">
-        <v>6892.2</v>
+        <v>6859.5</v>
       </c>
       <c r="J28" t="n">
-        <v>0.09999999999990905</v>
+        <v>0.5</v>
       </c>
       <c r="K28" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7999999999997272</v>
+        <v>1.800000000000182</v>
       </c>
     </row>
     <row r="29">
@@ -1691,40 +1691,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>96.0-205.0</t>
+          <t>20.0-168.0</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3823.4</v>
+        <v>3828.1</v>
       </c>
       <c r="E29" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="F29" t="n">
-        <v>6873.9</v>
+        <v>6843.4</v>
       </c>
       <c r="G29" t="n">
-        <v>3822.1</v>
+        <v>3828.8</v>
       </c>
       <c r="H29" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="I29" t="n">
-        <v>6826.8</v>
+        <v>6840.9</v>
       </c>
       <c r="J29" t="n">
-        <v>1.300000000000182</v>
+        <v>0.7000000000002728</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="L29" t="n">
-        <v>48.39999999999964</v>
+        <v>3.200000000000273</v>
       </c>
     </row>
     <row r="30">
@@ -1735,40 +1735,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>138.0-236.0</t>
+          <t>27.0-47.0</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3827.3</v>
+        <v>3829.1</v>
       </c>
       <c r="E30" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="F30" t="n">
-        <v>6869.3</v>
+        <v>6878.2</v>
       </c>
       <c r="G30" t="n">
-        <v>3828.1</v>
+        <v>3829.6</v>
       </c>
       <c r="H30" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="I30" t="n">
-        <v>6831.5</v>
+        <v>6872.4</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7999999999997272</v>
+        <v>0.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9624935064935063</v>
+        <v>0.92</v>
       </c>
       <c r="L30" t="n">
-        <v>38.60999999999991</v>
+        <v>6.300000000000182</v>
       </c>
     </row>
     <row r="31">
@@ -1779,40 +1779,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>186.0-257.0</t>
+          <t>25.0-166.0</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3829.2</v>
+        <v>3830</v>
       </c>
       <c r="E31" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="F31" t="n">
-        <v>6873.4</v>
+        <v>6878.2</v>
       </c>
       <c r="G31" t="n">
-        <v>3828.8</v>
+        <v>3829.5</v>
       </c>
       <c r="H31" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="I31" t="n">
-        <v>6830</v>
+        <v>6878.1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.875</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>43.79999999999927</v>
+        <v>0.5999999999994543</v>
       </c>
     </row>
     <row r="32">
@@ -1823,40 +1823,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12.0-49.0</t>
+          <t>155.0-52.0</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3829.9</v>
+        <v>3829.5</v>
       </c>
       <c r="E32" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="F32" t="n">
-        <v>6861.8</v>
+        <v>6847.7</v>
       </c>
       <c r="G32" t="n">
-        <v>3829.3</v>
+        <v>3828.7</v>
       </c>
       <c r="H32" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I32" t="n">
-        <v>6856.8</v>
+        <v>6845.4</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.93</v>
       </c>
       <c r="L32" t="n">
-        <v>5.599999999999909</v>
+        <v>3.100000000000364</v>
       </c>
     </row>
     <row r="33">
@@ -1867,40 +1867,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>123.0-15.0</t>
+          <t>102.0-98.0</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3829.5</v>
+        <v>3824.5</v>
       </c>
       <c r="E33" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="F33" t="n">
-        <v>6878.1</v>
+        <v>6895.6</v>
       </c>
       <c r="G33" t="n">
-        <v>3828</v>
+        <v>3825</v>
       </c>
       <c r="H33" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="I33" t="n">
-        <v>6877.9</v>
+        <v>6887.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="K33" t="n">
-        <v>0.895</v>
+        <v>0.885</v>
       </c>
       <c r="L33" t="n">
-        <v>1.700000000000728</v>
+        <v>8.600000000000364</v>
       </c>
     </row>
     <row r="34">
@@ -1911,40 +1911,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>159.0-67.0</t>
+          <t>40.0-53.0</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3823.5</v>
+        <v>3828.6</v>
       </c>
       <c r="E34" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="F34" t="n">
-        <v>6875.1</v>
+        <v>6899.3</v>
       </c>
       <c r="G34" t="n">
-        <v>3825.2</v>
+        <v>3829.1</v>
       </c>
       <c r="H34" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="I34" t="n">
-        <v>6846.6</v>
+        <v>6896.6</v>
       </c>
       <c r="J34" t="n">
-        <v>1.699999999999818</v>
+        <v>0.5</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9374933333333334</v>
+        <v>0.92</v>
       </c>
       <c r="L34" t="n">
-        <v>30.20999999999982</v>
+        <v>3.199999999999818</v>
       </c>
     </row>
     <row r="35">
@@ -1955,40 +1955,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>111.0-74.0</t>
+          <t>50.0-167.0</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3829.4</v>
+        <v>3829.1</v>
       </c>
       <c r="E35" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="F35" t="n">
-        <v>6877.7</v>
+        <v>6868.5</v>
       </c>
       <c r="G35" t="n">
-        <v>3828.3</v>
+        <v>3828.2</v>
       </c>
       <c r="H35" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="I35" t="n">
-        <v>6877</v>
+        <v>6860.6</v>
       </c>
       <c r="J35" t="n">
-        <v>1.099999999999909</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K35" t="n">
-        <v>0.875</v>
+        <v>0.93</v>
       </c>
       <c r="L35" t="n">
-        <v>1.799999999999727</v>
+        <v>8.799999999999727</v>
       </c>
     </row>
     <row r="36">
@@ -1999,40 +1999,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>141.0-33.0</t>
+          <t>3.0-241.0</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3828.7</v>
+        <v>3829</v>
       </c>
       <c r="E36" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="F36" t="n">
-        <v>6853.3</v>
+        <v>6843</v>
       </c>
       <c r="G36" t="n">
-        <v>3829.5</v>
+        <v>3828.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="I36" t="n">
-        <v>6844.7</v>
+        <v>6839.6</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8000000000001819</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L36" t="n">
-        <v>9.400000000000546</v>
+        <v>3.999999999999545</v>
       </c>
     </row>
     <row r="37">
@@ -2043,40 +2043,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>48.0-146.0</t>
+          <t>134.0-252.0</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3828.4</v>
+        <v>3830.1</v>
       </c>
       <c r="E37" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="F37" t="n">
-        <v>6877.7</v>
+        <v>6856.4</v>
       </c>
       <c r="G37" t="n">
-        <v>3829.2</v>
+        <v>3829.5</v>
       </c>
       <c r="H37" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="I37" t="n">
-        <v>6876.6</v>
+        <v>6828.7</v>
       </c>
       <c r="J37" t="n">
-        <v>0.7999999999997272</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L37" t="n">
-        <v>1.899999999999181</v>
+        <v>28.29999999999973</v>
       </c>
     </row>
     <row r="38">
@@ -2087,40 +2087,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>185.0-144.0</t>
+          <t>68.0-73.0</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3829.7</v>
+        <v>3829.6</v>
       </c>
       <c r="E38" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="F38" t="n">
-        <v>6875.7</v>
+        <v>6871.8</v>
       </c>
       <c r="G38" t="n">
-        <v>3828.9</v>
+        <v>3827.5</v>
       </c>
       <c r="H38" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="I38" t="n">
-        <v>6875.6</v>
+        <v>6870.3</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7999999999997272</v>
+        <v>2.099999999999909</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L38" t="n">
-        <v>0.8999999999991815</v>
+        <v>3.599999999999909</v>
       </c>
     </row>
     <row r="39">
@@ -2131,40 +2131,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>150.0-158.0</t>
+          <t>112.0-70.0</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3830</v>
+        <v>3829.1</v>
       </c>
       <c r="E39" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="F39" t="n">
-        <v>6876.1</v>
+        <v>6883.1</v>
       </c>
       <c r="G39" t="n">
-        <v>3829.2</v>
+        <v>3828.5</v>
       </c>
       <c r="H39" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="I39" t="n">
-        <v>6873.5</v>
+        <v>6877.3</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8000000000001819</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L39" t="n">
-        <v>3.400000000000546</v>
+        <v>6.400000000000091</v>
       </c>
     </row>
     <row r="40">
@@ -2175,40 +2175,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>220.0-235.0</t>
+          <t>7.0-103.0</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3830.1</v>
+        <v>3829</v>
       </c>
       <c r="E40" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="F40" t="n">
-        <v>6836.2</v>
+        <v>6882.7</v>
       </c>
       <c r="G40" t="n">
-        <v>3829</v>
+        <v>3828.4</v>
       </c>
       <c r="H40" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="I40" t="n">
-        <v>6827.3</v>
+        <v>6878.6</v>
       </c>
       <c r="J40" t="n">
-        <v>1.099999999999909</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.92</v>
       </c>
       <c r="L40" t="n">
-        <v>9.999999999999545</v>
+        <v>4.699999999999363</v>
       </c>
     </row>
     <row r="41">
@@ -2219,40 +2219,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>118.0-76.0</t>
+          <t>149.0-136.0</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3828</v>
+        <v>3826.7</v>
       </c>
       <c r="E41" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="F41" t="n">
-        <v>6876.3</v>
+        <v>6888.3</v>
       </c>
       <c r="G41" t="n">
-        <v>3828.8</v>
+        <v>3828.9</v>
       </c>
       <c r="H41" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="I41" t="n">
-        <v>6873.1</v>
+        <v>6881</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8000000000001819</v>
+        <v>2.200000000000273</v>
       </c>
       <c r="K41" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>9.500000000000455</v>
       </c>
     </row>
     <row r="42">
@@ -2263,40 +2263,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>100.0-66.0</t>
+          <t>64.0-2.0</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3825.1</v>
+        <v>3828.9</v>
       </c>
       <c r="E42" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="F42" t="n">
-        <v>6875.5</v>
+        <v>6885.5</v>
       </c>
       <c r="G42" t="n">
-        <v>3828.7</v>
+        <v>3829.5</v>
       </c>
       <c r="H42" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I42" t="n">
-        <v>6871.7</v>
+        <v>6883</v>
       </c>
       <c r="J42" t="n">
-        <v>3.599999999999909</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L42" t="n">
-        <v>7.400000000000091</v>
+        <v>3.099999999999909</v>
       </c>
     </row>
     <row r="43">
@@ -2307,568 +2307,568 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>173.0-28.0</t>
+          <t>80.0-79.0</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3829.7</v>
+        <v>3829.4</v>
       </c>
       <c r="E43" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="F43" t="n">
-        <v>6877.3</v>
+        <v>6890.7</v>
       </c>
       <c r="G43" t="n">
-        <v>3829.4</v>
+        <v>3828.8</v>
       </c>
       <c r="H43" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="I43" t="n">
-        <v>6869.2</v>
+        <v>6887.6</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2999999999997272</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L43" t="n">
-        <v>8.400000000000091</v>
+        <v>3.699999999999363</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Segment 2</t>
+          <t>Segment 3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>175.0-60.0</t>
+          <t>271.0-272.0</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3828.9</v>
+        <v>3830.3</v>
       </c>
       <c r="E44" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="F44" t="n">
-        <v>6890.4</v>
+        <v>6832.1</v>
       </c>
       <c r="G44" t="n">
-        <v>3826.9</v>
+        <v>3830.6</v>
       </c>
       <c r="H44" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="I44" t="n">
-        <v>6889.6</v>
+        <v>6826.8</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K44" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L44" t="n">
-        <v>2.799999999999272</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Segment 2</t>
+          <t>Segment 3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>62.0-6.0</t>
+          <t>151.0-59.0</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3823.3</v>
+        <v>3830.7</v>
       </c>
       <c r="E45" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="F45" t="n">
-        <v>6872.2</v>
+        <v>6894.4</v>
       </c>
       <c r="G45" t="n">
         <v>3827.2</v>
       </c>
       <c r="H45" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="I45" t="n">
-        <v>6857.7</v>
+        <v>6892.4</v>
       </c>
       <c r="J45" t="n">
-        <v>3.899999999999636</v>
+        <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L45" t="n">
-        <v>18.39999999999964</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Segment 2</t>
+          <t>Segment 3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8.0-179.0</t>
+          <t>19.0-43.0</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3829.5</v>
+        <v>3827.8</v>
       </c>
       <c r="E46" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="F46" t="n">
-        <v>6876.6</v>
+        <v>6866.5</v>
       </c>
       <c r="G46" t="n">
-        <v>3826.4</v>
+        <v>3828.1</v>
       </c>
       <c r="H46" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="I46" t="n">
-        <v>6867.4</v>
+        <v>6863.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.099999999999909</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K46" t="n">
-        <v>0.885</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L46" t="n">
-        <v>12.30000000000064</v>
+        <v>3.400000000000091</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Segment 2</t>
+          <t>Segment 3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>21.0-181.0</t>
+          <t>173.0-28.0</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3830</v>
+        <v>3829.7</v>
       </c>
       <c r="E47" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="F47" t="n">
-        <v>6875</v>
+        <v>6877.3</v>
       </c>
       <c r="G47" t="n">
-        <v>3828.7</v>
+        <v>3829.4</v>
       </c>
       <c r="H47" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="I47" t="n">
-        <v>6868.7</v>
+        <v>6869.2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.300000000000182</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K47" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L47" t="n">
-        <v>7.600000000000364</v>
+        <v>8.400000000000091</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Segment 2</t>
+          <t>Segment 3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>149.0-136.0</t>
+          <t>145.0-30.0</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3826.7</v>
+        <v>3829.8</v>
       </c>
       <c r="E48" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="F48" t="n">
-        <v>6888.3</v>
+        <v>6896.5</v>
       </c>
       <c r="G48" t="n">
-        <v>3828.9</v>
+        <v>3829.4</v>
       </c>
       <c r="H48" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="I48" t="n">
-        <v>6881</v>
+        <v>6895.9</v>
       </c>
       <c r="J48" t="n">
-        <v>2.200000000000273</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K48" t="n">
-        <v>0.93</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L48" t="n">
-        <v>9.500000000000455</v>
+        <v>1.000000000000455</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Segment 2</t>
+          <t>Segment 3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>31.0-77.0</t>
+          <t>188.0-14.0</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3829.6</v>
+        <v>3828.8</v>
       </c>
       <c r="E49" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="F49" t="n">
-        <v>6868.6</v>
+        <v>6881.6</v>
       </c>
       <c r="G49" t="n">
-        <v>3829.8</v>
+        <v>3829.1</v>
       </c>
       <c r="H49" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="I49" t="n">
-        <v>6864.9</v>
+        <v>6879.3</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2000000000002728</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L49" t="n">
-        <v>3.900000000001</v>
+        <v>2.599999999999909</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Segment 2</t>
+          <t>Segment 3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>68.0-73.0</t>
+          <t>143.0-176.0</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3829.6</v>
+        <v>3829</v>
       </c>
       <c r="E50" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="F50" t="n">
-        <v>6871.8</v>
+        <v>6884.6</v>
       </c>
       <c r="G50" t="n">
-        <v>3827.5</v>
+        <v>3828.7</v>
       </c>
       <c r="H50" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="I50" t="n">
-        <v>6870.3</v>
+        <v>6873.9</v>
       </c>
       <c r="J50" t="n">
-        <v>2.099999999999909</v>
+        <v>0.3000000000001819</v>
       </c>
       <c r="K50" t="n">
-        <v>0.93</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>3.599999999999909</v>
+        <v>11.00000000000091</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Segment 2</t>
+          <t>Segment 3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>157.0-83.0</t>
+          <t>159.0-67.0</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3829.2</v>
+        <v>3823.5</v>
       </c>
       <c r="E51" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="F51" t="n">
-        <v>6871.8</v>
+        <v>6875.1</v>
       </c>
       <c r="G51" t="n">
-        <v>3829.1</v>
+        <v>3825.2</v>
       </c>
       <c r="H51" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="I51" t="n">
-        <v>6862.4</v>
+        <v>6846.6</v>
       </c>
       <c r="J51" t="n">
-        <v>0.09999999999990905</v>
+        <v>1.699999999999818</v>
       </c>
       <c r="K51" t="n">
-        <v>0.895</v>
+        <v>0.9374933333333334</v>
       </c>
       <c r="L51" t="n">
-        <v>9.500000000000455</v>
+        <v>30.20999999999982</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Segment 2</t>
+          <t>Segment 3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>172.0-26.0</t>
+          <t>186.0-257.0</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3829.3</v>
+        <v>3829.2</v>
       </c>
       <c r="E52" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="F52" t="n">
-        <v>6878.3</v>
+        <v>6873.4</v>
       </c>
       <c r="G52" t="n">
-        <v>3829.3</v>
+        <v>3828.8</v>
       </c>
       <c r="H52" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="I52" t="n">
-        <v>6872.7</v>
+        <v>6830</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>0.3999999999996362</v>
       </c>
       <c r="K52" t="n">
-        <v>0.93</v>
+        <v>0.875</v>
       </c>
       <c r="L52" t="n">
-        <v>5.600000000000364</v>
+        <v>43.79999999999927</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Segment 2</t>
+          <t>Segment 3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>58.0-10.0</t>
+          <t>42.0-122.0</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3830.1</v>
+        <v>3828.8</v>
       </c>
       <c r="E53" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="F53" t="n">
-        <v>6873.1</v>
+        <v>6899.5</v>
       </c>
       <c r="G53" t="n">
-        <v>3829.5</v>
+        <v>3829.2</v>
       </c>
       <c r="H53" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="I53" t="n">
-        <v>6864.4</v>
+        <v>6899.4</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.3999999999996362</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L53" t="n">
-        <v>9.300000000000637</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Segment 2</t>
+          <t>Segment 3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>140.0-32.0</t>
+          <t>220.0-235.0</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3829.5</v>
+        <v>3830.1</v>
       </c>
       <c r="E54" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="F54" t="n">
-        <v>6873.8</v>
+        <v>6836.2</v>
       </c>
       <c r="G54" t="n">
-        <v>3829.9</v>
+        <v>3829</v>
       </c>
       <c r="H54" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="I54" t="n">
-        <v>6863.6</v>
+        <v>6827.3</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4000000000000909</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9449999999999998</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L54" t="n">
-        <v>10.59999999999991</v>
+        <v>9.999999999999545</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Segment 2</t>
+          <t>Segment 3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>44.0-11.0</t>
+          <t>104.0-216.0</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3828.1</v>
+        <v>3829.2</v>
       </c>
       <c r="E55" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="F55" t="n">
-        <v>6869.6</v>
+        <v>6841.5</v>
       </c>
       <c r="G55" t="n">
-        <v>3830</v>
+        <v>3829.6</v>
       </c>
       <c r="H55" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="I55" t="n">
-        <v>6867.7</v>
+        <v>6823.4</v>
       </c>
       <c r="J55" t="n">
-        <v>1.900000000000091</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K55" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L55" t="n">
-        <v>3.800000000000637</v>
+        <v>18.50000000000045</v>
       </c>
     </row>
     <row r="56">
@@ -2879,40 +2879,40 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>89.0-95.0</t>
+          <t>250.0-264.0</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3822.6</v>
+        <v>3829.5</v>
       </c>
       <c r="E56" t="n">
         <v>1.79</v>
       </c>
       <c r="F56" t="n">
-        <v>6880.4</v>
+        <v>6837.2</v>
       </c>
       <c r="G56" t="n">
-        <v>3824.3</v>
+        <v>3829.9</v>
       </c>
       <c r="H56" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I56" t="n">
-        <v>6860.8</v>
+        <v>6835.7</v>
       </c>
       <c r="J56" t="n">
-        <v>1.700000000000273</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K56" t="n">
-        <v>0.895</v>
+        <v>0.8924929971988794</v>
       </c>
       <c r="L56" t="n">
-        <v>21.29999999999973</v>
+        <v>1.910000000000091</v>
       </c>
     </row>
     <row r="57">
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>110.0-4.0</t>
+          <t>141.0-33.0</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2938,25 +2938,25 @@
         <v>1.87</v>
       </c>
       <c r="F57" t="n">
-        <v>6879.2</v>
+        <v>6853.3</v>
       </c>
       <c r="G57" t="n">
-        <v>3829.6</v>
+        <v>3829.5</v>
       </c>
       <c r="H57" t="n">
         <v>1.87</v>
       </c>
       <c r="I57" t="n">
-        <v>6864.6</v>
+        <v>6844.7</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9000000000000909</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K57" t="n">
         <v>0.9350000000000002</v>
       </c>
       <c r="L57" t="n">
-        <v>15.49999999999955</v>
+        <v>9.400000000000546</v>
       </c>
     </row>
     <row r="58">
@@ -2967,40 +2967,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>131.0-183.0</t>
+          <t>121.0-261.0</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3829.7</v>
+        <v>3829.3</v>
       </c>
       <c r="E58" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="F58" t="n">
-        <v>6888.4</v>
+        <v>6844.5</v>
       </c>
       <c r="G58" t="n">
-        <v>3830.1</v>
+        <v>3828.9</v>
       </c>
       <c r="H58" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I58" t="n">
-        <v>6883.2</v>
+        <v>6838.5</v>
       </c>
       <c r="J58" t="n">
         <v>0.4000000000000909</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L58" t="n">
-        <v>5.599999999999909</v>
+        <v>6.400000000000091</v>
       </c>
     </row>
     <row r="59">
@@ -3011,40 +3011,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>151.0-59.0</t>
+          <t>51.0-1.0</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3830.7</v>
+        <v>3830.1</v>
       </c>
       <c r="E59" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="F59" t="n">
-        <v>6894.4</v>
+        <v>6843.9</v>
       </c>
       <c r="G59" t="n">
-        <v>3827.2</v>
+        <v>3829.7</v>
       </c>
       <c r="H59" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="I59" t="n">
-        <v>6892.4</v>
+        <v>6843.2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.5</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="L59" t="n">
-        <v>5.5</v>
+        <v>1.099999999999909</v>
       </c>
     </row>
     <row r="60">
@@ -3055,40 +3055,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>191.0-192.0</t>
+          <t>12.0-49.0</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3822.1</v>
+        <v>3829.9</v>
       </c>
       <c r="E60" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="F60" t="n">
-        <v>6890.2</v>
+        <v>6861.8</v>
       </c>
       <c r="G60" t="n">
-        <v>3825.4</v>
+        <v>3829.3</v>
       </c>
       <c r="H60" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="I60" t="n">
-        <v>6877.1</v>
+        <v>6856.8</v>
       </c>
       <c r="J60" t="n">
-        <v>3.300000000000182</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8724928366762178</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L60" t="n">
-        <v>16.40999999999963</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="61">
@@ -3099,40 +3099,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>149.0-136.0</t>
+          <t>97.0-160.0</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3826.7</v>
+        <v>3828.5</v>
       </c>
       <c r="E61" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="F61" t="n">
-        <v>6888.3</v>
+        <v>6899.5</v>
       </c>
       <c r="G61" t="n">
-        <v>3828.9</v>
+        <v>3828.1</v>
       </c>
       <c r="H61" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="I61" t="n">
-        <v>6881</v>
+        <v>6858.4</v>
       </c>
       <c r="J61" t="n">
-        <v>2.200000000000273</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K61" t="n">
-        <v>0.93</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="L61" t="n">
-        <v>9.500000000000455</v>
+        <v>41.50000000000045</v>
       </c>
     </row>
     <row r="62">
@@ -3143,40 +3143,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>27.0-47.0</t>
+          <t>110.0-4.0</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3829.1</v>
+        <v>3828.7</v>
       </c>
       <c r="E62" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="F62" t="n">
-        <v>6878.2</v>
+        <v>6879.2</v>
       </c>
       <c r="G62" t="n">
         <v>3829.6</v>
       </c>
       <c r="H62" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="I62" t="n">
-        <v>6872.4</v>
+        <v>6864.6</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K62" t="n">
-        <v>0.92</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L62" t="n">
-        <v>6.300000000000182</v>
+        <v>15.49999999999955</v>
       </c>
     </row>
     <row r="63">
@@ -3187,40 +3187,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>58.0-10.0</t>
+          <t>131.0-183.0</t>
         </is>
       </c>
       <c r="D63" t="n">
+        <v>3829.7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6888.4</v>
+      </c>
+      <c r="G63" t="n">
         <v>3830.1</v>
       </c>
-      <c r="E63" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F63" t="n">
-        <v>6873.1</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3829.5</v>
-      </c>
       <c r="H63" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="I63" t="n">
-        <v>6864.4</v>
+        <v>6883.2</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K63" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L63" t="n">
-        <v>9.300000000000637</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="64">
@@ -3231,832 +3231,832 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>172.0-26.0</t>
+          <t>164.0-105.0</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3829.3</v>
+        <v>3829</v>
       </c>
       <c r="E64" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="F64" t="n">
-        <v>6878.3</v>
+        <v>6897.9</v>
       </c>
       <c r="G64" t="n">
-        <v>3829.3</v>
+        <v>3828.6</v>
       </c>
       <c r="H64" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="I64" t="n">
-        <v>6872.7</v>
+        <v>6880.8</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K64" t="n">
-        <v>0.93</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L64" t="n">
-        <v>5.600000000000364</v>
+        <v>17.49999999999955</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>24.0-200.0</t>
+          <t>175.0-60.0</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3828.4</v>
+        <v>3828.9</v>
       </c>
       <c r="E65" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="F65" t="n">
-        <v>6887.6</v>
+        <v>6890.4</v>
       </c>
       <c r="G65" t="n">
-        <v>3829.2</v>
+        <v>3826.9</v>
       </c>
       <c r="H65" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I65" t="n">
-        <v>6881.5</v>
+        <v>6889.6</v>
       </c>
       <c r="J65" t="n">
-        <v>0.7999999999997272</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.93</v>
       </c>
       <c r="L65" t="n">
-        <v>6.900000000000091</v>
+        <v>2.799999999999272</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>64.0-2.0</t>
+          <t>106.0-184.0</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3828.9</v>
+        <v>3829.3</v>
       </c>
       <c r="E66" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="F66" t="n">
-        <v>6885.5</v>
+        <v>6894.8</v>
       </c>
       <c r="G66" t="n">
-        <v>3829.5</v>
+        <v>3829.9</v>
       </c>
       <c r="H66" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="I66" t="n">
-        <v>6883</v>
+        <v>6893.5</v>
       </c>
       <c r="J66" t="n">
         <v>0.5999999999999091</v>
       </c>
       <c r="K66" t="n">
-        <v>0.92</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="L66" t="n">
-        <v>3.099999999999909</v>
+        <v>1.900000000000091</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>86.0-242.0</t>
+          <t>217.0-215.0</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3829.6</v>
+        <v>3829.2</v>
       </c>
       <c r="E67" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="F67" t="n">
-        <v>6840.1</v>
+        <v>6826.5</v>
       </c>
       <c r="G67" t="n">
-        <v>3829.7</v>
+        <v>3829.8</v>
       </c>
       <c r="H67" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="I67" t="n">
-        <v>6828.3</v>
+        <v>6823.3</v>
       </c>
       <c r="J67" t="n">
-        <v>0.09999999999990905</v>
+        <v>0.6000000000003638</v>
       </c>
       <c r="K67" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="L67" t="n">
-        <v>11.90000000000009</v>
+        <v>3.800000000000182</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>120.0-165.0</t>
+          <t>224.0-258.0</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3828.9</v>
+        <v>3829</v>
       </c>
       <c r="E68" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="F68" t="n">
-        <v>6885.5</v>
+        <v>6828.1</v>
       </c>
       <c r="G68" t="n">
-        <v>3828</v>
+        <v>3829.7</v>
       </c>
       <c r="H68" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="I68" t="n">
-        <v>6883.8</v>
+        <v>6826.4</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9000000000000909</v>
+        <v>0.6999999999998181</v>
       </c>
       <c r="K68" t="n">
-        <v>0.895</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L68" t="n">
-        <v>2.599999999999909</v>
+        <v>2.400000000000546</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>195.0-117.0</t>
+          <t>142.0-129.0</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3828</v>
+        <v>3829.8</v>
       </c>
       <c r="E69" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="F69" t="n">
-        <v>6878.3</v>
+        <v>6878.8</v>
       </c>
       <c r="G69" t="n">
-        <v>3829.1</v>
+        <v>3828.3</v>
       </c>
       <c r="H69" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="I69" t="n">
-        <v>6872.5</v>
+        <v>6877.7</v>
       </c>
       <c r="J69" t="n">
-        <v>1.099999999999909</v>
+        <v>1.5</v>
       </c>
       <c r="K69" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L69" t="n">
-        <v>6.900000000000091</v>
+        <v>2.600000000000364</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>38.0-197.0</t>
+          <t>169.0-152.0</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3829.5</v>
+        <v>3829.9</v>
       </c>
       <c r="E70" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F70" t="n">
-        <v>6883.2</v>
+        <v>6864.6</v>
       </c>
       <c r="G70" t="n">
-        <v>3828.4</v>
+        <v>3829.2</v>
       </c>
       <c r="H70" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I70" t="n">
-        <v>6882.5</v>
+        <v>6863.1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.099999999999909</v>
+        <v>0.7000000000002728</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L70" t="n">
-        <v>1.799999999999727</v>
+        <v>2.200000000000273</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>159.0-67.0</t>
+          <t>182.0-189.0</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3823.5</v>
+        <v>3829.9</v>
       </c>
       <c r="E71" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="F71" t="n">
-        <v>6875.1</v>
+        <v>6889.5</v>
       </c>
       <c r="G71" t="n">
-        <v>3825.2</v>
+        <v>3829.2</v>
       </c>
       <c r="H71" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="I71" t="n">
-        <v>6846.6</v>
+        <v>6866.1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.699999999999818</v>
+        <v>0.7000000000002728</v>
       </c>
       <c r="K71" t="n">
-        <v>0.9374933333333334</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="L71" t="n">
-        <v>30.20999999999982</v>
+        <v>24.09999999999991</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>182.0-189.0</t>
+          <t>185.0-144.0</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3829.9</v>
+        <v>3829.7</v>
       </c>
       <c r="E72" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="F72" t="n">
-        <v>6889.5</v>
+        <v>6875.7</v>
       </c>
       <c r="G72" t="n">
-        <v>3829.2</v>
+        <v>3828.9</v>
       </c>
       <c r="H72" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="I72" t="n">
-        <v>6866.1</v>
+        <v>6875.6</v>
       </c>
       <c r="J72" t="n">
-        <v>0.7000000000002728</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="K72" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L72" t="n">
-        <v>24.09999999999991</v>
+        <v>0.8999999999991815</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>25.0-166.0</t>
+          <t>266.0-219.0</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3830</v>
+        <v>3829.5</v>
       </c>
       <c r="E73" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F73" t="n">
-        <v>6878.2</v>
+        <v>6826.5</v>
       </c>
       <c r="G73" t="n">
-        <v>3829.5</v>
+        <v>3828.4</v>
       </c>
       <c r="H73" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I73" t="n">
-        <v>6878.1</v>
+        <v>6825.8</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K73" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L73" t="n">
-        <v>0.5999999999994543</v>
+        <v>1.799999999999727</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>22.0-78.0</t>
+          <t>48.0-146.0</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3827.8</v>
+        <v>3828.4</v>
       </c>
       <c r="E74" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="F74" t="n">
-        <v>6883.6</v>
+        <v>6877.7</v>
       </c>
       <c r="G74" t="n">
-        <v>3828.7</v>
+        <v>3829.2</v>
       </c>
       <c r="H74" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="I74" t="n">
-        <v>6880.3</v>
+        <v>6876.6</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8999999999996362</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="K74" t="n">
-        <v>0.895</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L74" t="n">
-        <v>4.199999999999818</v>
+        <v>1.899999999999181</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>24.0-200.0</t>
+          <t>107.0-187.0</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3828.4</v>
+        <v>3828.8</v>
       </c>
       <c r="E75" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="F75" t="n">
-        <v>6887.6</v>
+        <v>6893.3</v>
       </c>
       <c r="G75" t="n">
-        <v>3829.2</v>
+        <v>3829.6</v>
       </c>
       <c r="H75" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="I75" t="n">
-        <v>6881.5</v>
+        <v>6879.1</v>
       </c>
       <c r="J75" t="n">
         <v>0.7999999999997272</v>
       </c>
       <c r="K75" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.885</v>
       </c>
       <c r="L75" t="n">
-        <v>6.900000000000091</v>
+        <v>14.99999999999955</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>142.0-129.0</t>
+          <t>171.0-75.0</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3829.8</v>
+        <v>3829.4</v>
       </c>
       <c r="E76" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="F76" t="n">
-        <v>6878.8</v>
+        <v>6850.6</v>
       </c>
       <c r="G76" t="n">
-        <v>3828.3</v>
+        <v>3828.6</v>
       </c>
       <c r="H76" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="I76" t="n">
-        <v>6877.7</v>
+        <v>6849.8</v>
       </c>
       <c r="J76" t="n">
-        <v>1.5</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K76" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L76" t="n">
-        <v>2.600000000000364</v>
+        <v>1.600000000000364</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>23.0-170.0</t>
+          <t>46.0-85.0</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3831.9</v>
+        <v>3828.8</v>
       </c>
       <c r="E77" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F77" t="n">
-        <v>6881.2</v>
+        <v>6846.8</v>
       </c>
       <c r="G77" t="n">
-        <v>3828.5</v>
+        <v>3825.2</v>
       </c>
       <c r="H77" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I77" t="n">
-        <v>6881.1</v>
+        <v>6846.7</v>
       </c>
       <c r="J77" t="n">
-        <v>3.400000000000091</v>
+        <v>3.600000000000364</v>
       </c>
       <c r="K77" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L77" t="n">
-        <v>3.499999999999545</v>
+        <v>3.700000000000728</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>188.0-14.0</t>
+          <t>118.0-76.0</t>
         </is>
       </c>
       <c r="D78" t="n">
+        <v>3828</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6876.3</v>
+      </c>
+      <c r="G78" t="n">
         <v>3828.8</v>
       </c>
-      <c r="E78" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F78" t="n">
-        <v>6881.6</v>
-      </c>
-      <c r="G78" t="n">
-        <v>3829.1</v>
-      </c>
       <c r="H78" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="I78" t="n">
-        <v>6879.3</v>
+        <v>6873.1</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2999999999997272</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K78" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L78" t="n">
-        <v>2.599999999999909</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>110.0-4.0</t>
+          <t>150.0-158.0</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3828.7</v>
+        <v>3830</v>
       </c>
       <c r="E79" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="F79" t="n">
-        <v>6879.2</v>
+        <v>6876.1</v>
       </c>
       <c r="G79" t="n">
-        <v>3829.6</v>
+        <v>3829.2</v>
       </c>
       <c r="H79" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="I79" t="n">
-        <v>6864.6</v>
+        <v>6873.5</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9000000000000909</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K79" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L79" t="n">
-        <v>15.49999999999955</v>
+        <v>3.400000000000546</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>7.0-103.0</t>
+          <t>161.0-162.0</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3829</v>
+        <v>3829.2</v>
       </c>
       <c r="E80" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="F80" t="n">
-        <v>6882.7</v>
+        <v>6867.3</v>
       </c>
       <c r="G80" t="n">
-        <v>3828.4</v>
+        <v>3828.3</v>
       </c>
       <c r="H80" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="I80" t="n">
-        <v>6878.6</v>
+        <v>6866.2</v>
       </c>
       <c r="J80" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.8999999999996362</v>
       </c>
       <c r="K80" t="n">
-        <v>0.92</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L80" t="n">
-        <v>4.699999999999363</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>143.0-176.0</t>
+          <t>22.0-78.0</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3829</v>
+        <v>3827.8</v>
       </c>
       <c r="E81" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="F81" t="n">
-        <v>6884.6</v>
+        <v>6883.6</v>
       </c>
       <c r="G81" t="n">
         <v>3828.7</v>
       </c>
       <c r="H81" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I81" t="n">
-        <v>6873.9</v>
+        <v>6880.3</v>
       </c>
       <c r="J81" t="n">
-        <v>0.3000000000001819</v>
+        <v>0.8999999999996362</v>
       </c>
       <c r="K81" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="L81" t="n">
-        <v>11.00000000000091</v>
+        <v>4.199999999999818</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Segment 3</t>
+          <t>Segment 4</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>112.0-70.0</t>
+          <t>41.0-139.0</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3829.1</v>
+        <v>3830.1</v>
       </c>
       <c r="E82" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="F82" t="n">
-        <v>6883.1</v>
+        <v>6851.4</v>
       </c>
       <c r="G82" t="n">
-        <v>3828.5</v>
+        <v>3828</v>
       </c>
       <c r="H82" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I82" t="n">
-        <v>6877.3</v>
+        <v>6848.8</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5999999999999091</v>
+        <v>2.099999999999909</v>
       </c>
       <c r="K82" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L82" t="n">
-        <v>6.400000000000091</v>
+        <v>4.699999999999363</v>
       </c>
     </row>
     <row r="83">
@@ -4067,40 +4067,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>130.0-262.0</t>
+          <t>253.0-211.0</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3829.3</v>
+        <v>3829.5</v>
       </c>
       <c r="E83" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="F83" t="n">
-        <v>6856.6</v>
+        <v>6825.1</v>
       </c>
       <c r="G83" t="n">
-        <v>3829.8</v>
+        <v>3828.6</v>
       </c>
       <c r="H83" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="I83" t="n">
-        <v>6835</v>
+        <v>6820.6</v>
       </c>
       <c r="J83" t="n">
-        <v>0.5</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K83" t="n">
-        <v>0.9449999999999998</v>
+        <v>0.892436974789916</v>
       </c>
       <c r="L83" t="n">
-        <v>22.10000000000036</v>
+        <v>5.430000000000091</v>
       </c>
     </row>
     <row r="84">
@@ -4111,40 +4111,40 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>105</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>156.0-222.0</t>
+          <t>119.0-263.0</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3827.2</v>
+        <v>3829.3</v>
       </c>
       <c r="E84" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="F84" t="n">
-        <v>6859</v>
+        <v>6841.7</v>
       </c>
       <c r="G84" t="n">
-        <v>3829.1</v>
+        <v>3828.4</v>
       </c>
       <c r="H84" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="I84" t="n">
-        <v>6831.9</v>
+        <v>6828.2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.900000000000091</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K84" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="L84" t="n">
-        <v>29.00000000000045</v>
+        <v>14.40000000000009</v>
       </c>
     </row>
     <row r="85">
@@ -4155,134 +4155,134 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>94.0-57.0</t>
+          <t>148.0-56.0</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3826.8</v>
+        <v>3829.9</v>
       </c>
       <c r="E85" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F85" t="n">
-        <v>6868.5</v>
+        <v>6857.6</v>
       </c>
       <c r="G85" t="n">
-        <v>3829.6</v>
+        <v>3828.7</v>
       </c>
       <c r="H85" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I85" t="n">
-        <v>6865.1</v>
+        <v>6856.4</v>
       </c>
       <c r="J85" t="n">
-        <v>2.799999999999727</v>
+        <v>1.200000000000273</v>
       </c>
       <c r="K85" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L85" t="n">
-        <v>6.199999999999363</v>
+        <v>2.400000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>68.0-73.0</t>
+          <t>115.0-37.0</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3829.6</v>
+        <v>3830</v>
       </c>
       <c r="E86" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="F86" t="n">
-        <v>6871.8</v>
+        <v>6842</v>
       </c>
       <c r="G86" t="n">
-        <v>3827.5</v>
+        <v>3829.1</v>
       </c>
       <c r="H86" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="I86" t="n">
-        <v>6870.3</v>
+        <v>6841.4</v>
       </c>
       <c r="J86" t="n">
-        <v>2.099999999999909</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K86" t="n">
-        <v>0.93</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L86" t="n">
-        <v>3.599999999999909</v>
+        <v>1.500000000000455</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>161.0-162.0</t>
+          <t>194.0-55.0</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3829.2</v>
+        <v>3828.5</v>
       </c>
       <c r="E87" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="F87" t="n">
-        <v>6867.3</v>
+        <v>6860.7</v>
       </c>
       <c r="G87" t="n">
-        <v>3828.3</v>
+        <v>3829.4</v>
       </c>
       <c r="H87" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="I87" t="n">
-        <v>6866.2</v>
+        <v>6856.2</v>
       </c>
       <c r="J87" t="n">
-        <v>0.8999999999996362</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K87" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>5.400000000000091</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4326,1767 +4326,1767 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>127.0-35.0</t>
+          <t>120.0-165.0</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3830.6</v>
+        <v>3828.9</v>
       </c>
       <c r="E89" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="F89" t="n">
-        <v>6866.1</v>
+        <v>6885.5</v>
       </c>
       <c r="G89" t="n">
-        <v>3830.5</v>
+        <v>3828</v>
       </c>
       <c r="H89" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I89" t="n">
-        <v>6864.5</v>
+        <v>6883.8</v>
       </c>
       <c r="J89" t="n">
-        <v>0.09999999999990905</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K89" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.895</v>
       </c>
       <c r="L89" t="n">
-        <v>1.700000000000273</v>
+        <v>2.599999999999909</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>50.0-167.0</t>
+          <t>178.0-71.0</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3829.1</v>
+        <v>3827.9</v>
       </c>
       <c r="E90" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="F90" t="n">
-        <v>6868.5</v>
+        <v>6861.5</v>
       </c>
       <c r="G90" t="n">
-        <v>3828.2</v>
+        <v>3828.9</v>
       </c>
       <c r="H90" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="I90" t="n">
-        <v>6860.6</v>
+        <v>6855.8</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9000000000000909</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>0.93</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L90" t="n">
-        <v>8.799999999999727</v>
+        <v>6.699999999999818</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>54.0-99.0</t>
+          <t>198.0-87.0</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3829.4</v>
+        <v>3825.3</v>
       </c>
       <c r="E91" t="n">
         <v>1.77</v>
       </c>
       <c r="F91" t="n">
-        <v>6858.2</v>
+        <v>6865.9</v>
       </c>
       <c r="G91" t="n">
-        <v>3828.1</v>
+        <v>3826.3</v>
       </c>
       <c r="H91" t="n">
         <v>1.77</v>
       </c>
       <c r="I91" t="n">
-        <v>6845.3</v>
+        <v>6854.4</v>
       </c>
       <c r="J91" t="n">
-        <v>1.300000000000182</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>0.885</v>
       </c>
       <c r="L91" t="n">
-        <v>14.19999999999982</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>34.0-163.0</t>
+          <t>196.0-114.0</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3830</v>
+        <v>3828.6</v>
       </c>
       <c r="E92" t="n">
         <v>1.83</v>
       </c>
       <c r="F92" t="n">
-        <v>6860.6</v>
+        <v>6897</v>
       </c>
       <c r="G92" t="n">
-        <v>3830.1</v>
+        <v>3827.6</v>
       </c>
       <c r="H92" t="n">
         <v>1.83</v>
       </c>
       <c r="I92" t="n">
-        <v>6845.3</v>
+        <v>6890</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09999999999990905</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>0.9150000000000001</v>
       </c>
       <c r="L92" t="n">
-        <v>15.40000000000009</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>19.0-43.0</t>
+          <t>226.0-267.0</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3827.8</v>
+        <v>3829</v>
       </c>
       <c r="E93" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="F93" t="n">
-        <v>6866.5</v>
+        <v>6834.8</v>
       </c>
       <c r="G93" t="n">
-        <v>3828.1</v>
+        <v>3830.1</v>
       </c>
       <c r="H93" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I93" t="n">
-        <v>6863.4</v>
+        <v>6830.6</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2999999999997272</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K93" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L93" t="n">
-        <v>3.400000000000091</v>
+        <v>5.299999999999727</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>155.0-52.0</t>
+          <t>84.0-16.0</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3829.5</v>
+        <v>3829.2</v>
       </c>
       <c r="E94" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="F94" t="n">
-        <v>6847.7</v>
+        <v>6857.5</v>
       </c>
       <c r="G94" t="n">
-        <v>3828.7</v>
+        <v>3828.1</v>
       </c>
       <c r="H94" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="I94" t="n">
-        <v>6845.4</v>
+        <v>6857.3</v>
       </c>
       <c r="J94" t="n">
-        <v>0.8000000000001819</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K94" t="n">
-        <v>0.93</v>
+        <v>0.895</v>
       </c>
       <c r="L94" t="n">
-        <v>3.100000000000364</v>
+        <v>1.299999999999727</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>61.0-101.0</t>
+          <t>180.0-92.0</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3821.2</v>
+        <v>3822.2</v>
       </c>
       <c r="E95" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="F95" t="n">
-        <v>6858.5</v>
+        <v>6896.2</v>
       </c>
       <c r="G95" t="n">
-        <v>3822.6</v>
+        <v>3825.2</v>
       </c>
       <c r="H95" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="I95" t="n">
-        <v>6853.2</v>
+        <v>6888.5</v>
       </c>
       <c r="J95" t="n">
-        <v>1.400000000000091</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L95" t="n">
-        <v>6.700000000000273</v>
+        <v>10.69999999999982</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>50.0-167.0</t>
+          <t>195.0-117.0</t>
         </is>
       </c>
       <c r="D96" t="n">
+        <v>3828</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F96" t="n">
+        <v>6878.3</v>
+      </c>
+      <c r="G96" t="n">
         <v>3829.1</v>
       </c>
-      <c r="E96" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F96" t="n">
-        <v>6868.5</v>
-      </c>
-      <c r="G96" t="n">
-        <v>3828.2</v>
-      </c>
       <c r="H96" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="I96" t="n">
-        <v>6860.6</v>
+        <v>6872.5</v>
       </c>
       <c r="J96" t="n">
-        <v>0.9000000000000909</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K96" t="n">
-        <v>0.93</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L96" t="n">
-        <v>8.799999999999727</v>
+        <v>6.900000000000091</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>169.0-152.0</t>
+          <t>111.0-74.0</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>3829.9</v>
+        <v>3829.4</v>
       </c>
       <c r="E97" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="F97" t="n">
-        <v>6864.6</v>
+        <v>6877.7</v>
       </c>
       <c r="G97" t="n">
-        <v>3829.2</v>
+        <v>3828.3</v>
       </c>
       <c r="H97" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="I97" t="n">
-        <v>6863.1</v>
+        <v>6877</v>
       </c>
       <c r="J97" t="n">
-        <v>0.7000000000002728</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K97" t="n">
-        <v>0.92</v>
+        <v>0.875</v>
       </c>
       <c r="L97" t="n">
-        <v>2.200000000000273</v>
+        <v>1.799999999999727</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>20.0-168.0</t>
+          <t>116.0-29.0</t>
         </is>
       </c>
       <c r="D98" t="n">
+        <v>3829.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F98" t="n">
+        <v>6896.6</v>
+      </c>
+      <c r="G98" t="n">
         <v>3828.1</v>
       </c>
-      <c r="E98" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F98" t="n">
-        <v>6843.4</v>
-      </c>
-      <c r="G98" t="n">
-        <v>3828.8</v>
-      </c>
       <c r="H98" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="I98" t="n">
-        <v>6840.9</v>
+        <v>6892.2</v>
       </c>
       <c r="J98" t="n">
-        <v>0.7000000000002728</v>
+        <v>1.400000000000091</v>
       </c>
       <c r="K98" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L98" t="n">
-        <v>3.200000000000273</v>
+        <v>5.800000000000637</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>91.0-90.0</t>
+          <t>38.0-197.0</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3822.1</v>
+        <v>3829.5</v>
       </c>
       <c r="E99" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="F99" t="n">
-        <v>6860.8</v>
+        <v>6883.2</v>
       </c>
       <c r="G99" t="n">
-        <v>3822.6</v>
+        <v>3828.4</v>
       </c>
       <c r="H99" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="I99" t="n">
-        <v>6859.5</v>
+        <v>6882.5</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K99" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L99" t="n">
-        <v>1.800000000000182</v>
+        <v>1.799999999999727</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>65.0-88.0</t>
+          <t>199.0-124.0</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3828.7</v>
+        <v>3830.5</v>
       </c>
       <c r="E100" t="n">
         <v>1.76</v>
       </c>
       <c r="F100" t="n">
-        <v>6864.4</v>
+        <v>6896.3</v>
       </c>
       <c r="G100" t="n">
-        <v>3828.5</v>
+        <v>3829.4</v>
       </c>
       <c r="H100" t="n">
         <v>1.76</v>
       </c>
       <c r="I100" t="n">
-        <v>6846.1</v>
+        <v>6886.7</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1999999999998181</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K100" t="n">
         <v>0.8799999999999999</v>
       </c>
       <c r="L100" t="n">
-        <v>18.49999999999909</v>
+        <v>10.70000000000027</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>198.0-87.0</t>
+          <t>113.0-133.0</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3825.3</v>
+        <v>3828.8</v>
       </c>
       <c r="E101" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="F101" t="n">
-        <v>6865.9</v>
+        <v>6899.8</v>
       </c>
       <c r="G101" t="n">
-        <v>3826.3</v>
+        <v>3829.9</v>
       </c>
       <c r="H101" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="I101" t="n">
-        <v>6854.4</v>
+        <v>6895.3</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K101" t="n">
-        <v>0.885</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L101" t="n">
-        <v>12.5</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>274.0-209.0</t>
+          <t>72.0-39.0</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3829.4</v>
+        <v>3828.5</v>
       </c>
       <c r="E102" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="F102" t="n">
-        <v>6839.1</v>
+        <v>6860</v>
       </c>
       <c r="G102" t="n">
-        <v>3828.7</v>
+        <v>3829.7</v>
       </c>
       <c r="H102" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="I102" t="n">
-        <v>6829.8</v>
+        <v>6858.1</v>
       </c>
       <c r="J102" t="n">
-        <v>0.7000000000002728</v>
+        <v>1.199999999999818</v>
       </c>
       <c r="K102" t="n">
-        <v>0.93</v>
+        <v>0.895</v>
       </c>
       <c r="L102" t="n">
-        <v>10.00000000000045</v>
+        <v>3.099999999999454</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>148.0-56.0</t>
+          <t>96.0-205.0</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3829.9</v>
+        <v>3823.4</v>
       </c>
       <c r="E103" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="F103" t="n">
-        <v>6857.6</v>
+        <v>6873.9</v>
       </c>
       <c r="G103" t="n">
-        <v>3828.7</v>
+        <v>3822.1</v>
       </c>
       <c r="H103" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="I103" t="n">
-        <v>6856.4</v>
+        <v>6826.8</v>
       </c>
       <c r="J103" t="n">
-        <v>1.200000000000273</v>
+        <v>1.300000000000182</v>
       </c>
       <c r="K103" t="n">
-        <v>0.92</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="L103" t="n">
-        <v>2.400000000001</v>
+        <v>48.39999999999964</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>84.0-16.0</t>
+          <t>54.0-99.0</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3829.2</v>
+        <v>3829.4</v>
       </c>
       <c r="E104" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="F104" t="n">
-        <v>6857.5</v>
+        <v>6858.2</v>
       </c>
       <c r="G104" t="n">
         <v>3828.1</v>
       </c>
       <c r="H104" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="I104" t="n">
-        <v>6857.3</v>
+        <v>6845.3</v>
       </c>
       <c r="J104" t="n">
-        <v>1.099999999999909</v>
+        <v>1.300000000000182</v>
       </c>
       <c r="K104" t="n">
-        <v>0.895</v>
+        <v>0.885</v>
       </c>
       <c r="L104" t="n">
-        <v>1.299999999999727</v>
+        <v>14.19999999999982</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>12.0-49.0</t>
+          <t>21.0-181.0</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3829.9</v>
+        <v>3830</v>
       </c>
       <c r="E105" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="F105" t="n">
-        <v>6861.8</v>
+        <v>6875</v>
       </c>
       <c r="G105" t="n">
-        <v>3829.3</v>
+        <v>3828.7</v>
       </c>
       <c r="H105" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="I105" t="n">
-        <v>6856.8</v>
+        <v>6868.7</v>
       </c>
       <c r="J105" t="n">
-        <v>0.5999999999999091</v>
+        <v>1.300000000000182</v>
       </c>
       <c r="K105" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L105" t="n">
-        <v>5.599999999999909</v>
+        <v>7.600000000000364</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 5</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>248.0-244.0</t>
+          <t>61.0-101.0</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>3828.9</v>
+        <v>3821.2</v>
       </c>
       <c r="E106" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="F106" t="n">
-        <v>6828.6</v>
+        <v>6858.5</v>
       </c>
       <c r="G106" t="n">
-        <v>3829.1</v>
+        <v>3822.6</v>
       </c>
       <c r="H106" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="I106" t="n">
-        <v>6821.7</v>
+        <v>6853.2</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1999999999998181</v>
+        <v>1.400000000000091</v>
       </c>
       <c r="K106" t="n">
-        <v>0.93</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L106" t="n">
-        <v>7.100000000000364</v>
+        <v>6.700000000000273</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>194.0-55.0</t>
+          <t>153.0-213.0</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3828.5</v>
+        <v>3824.7</v>
       </c>
       <c r="E107" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="F107" t="n">
-        <v>6860.7</v>
+        <v>6853.3</v>
       </c>
       <c r="G107" t="n">
-        <v>3829.4</v>
+        <v>3828.6</v>
       </c>
       <c r="H107" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I107" t="n">
-        <v>6856.2</v>
+        <v>6835.3</v>
       </c>
       <c r="J107" t="n">
-        <v>0.9000000000000909</v>
+        <v>3.900000000000091</v>
       </c>
       <c r="K107" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L107" t="n">
-        <v>5.400000000000091</v>
+        <v>21.90000000000009</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>72.0-39.0</t>
+          <t>221.0-247.0</t>
         </is>
       </c>
       <c r="D108" t="n">
+        <v>3830</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6839.1</v>
+      </c>
+      <c r="G108" t="n">
         <v>3828.5</v>
       </c>
-      <c r="E108" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F108" t="n">
-        <v>6860</v>
-      </c>
-      <c r="G108" t="n">
-        <v>3829.7</v>
-      </c>
       <c r="H108" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="I108" t="n">
-        <v>6858.1</v>
+        <v>6836.6</v>
       </c>
       <c r="J108" t="n">
-        <v>1.199999999999818</v>
+        <v>1.5</v>
       </c>
       <c r="K108" t="n">
-        <v>0.895</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L108" t="n">
-        <v>3.099999999999454</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Segment 4</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>178.0-71.0</t>
+          <t>154.0-260.0</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v>3827.9</v>
       </c>
       <c r="E109" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="F109" t="n">
-        <v>6861.5</v>
+        <v>6856.5</v>
       </c>
       <c r="G109" t="n">
-        <v>3828.9</v>
+        <v>3829.4</v>
       </c>
       <c r="H109" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="I109" t="n">
-        <v>6855.8</v>
+        <v>6839.4</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K109" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="L109" t="n">
-        <v>6.699999999999818</v>
+        <v>18.60000000000036</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>119.0-263.0</t>
+          <t>123.0-15.0</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3829.3</v>
+        <v>3829.5</v>
       </c>
       <c r="E110" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="F110" t="n">
-        <v>6841.7</v>
+        <v>6878.1</v>
       </c>
       <c r="G110" t="n">
-        <v>3828.4</v>
+        <v>3828</v>
       </c>
       <c r="H110" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="I110" t="n">
-        <v>6828.2</v>
+        <v>6877.9</v>
       </c>
       <c r="J110" t="n">
-        <v>0.9000000000000909</v>
+        <v>1.5</v>
       </c>
       <c r="K110" t="n">
-        <v>0.885</v>
+        <v>0.895</v>
       </c>
       <c r="L110" t="n">
-        <v>14.40000000000009</v>
+        <v>1.700000000000728</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>137.0-93.0</t>
+          <t>94.0-57.0</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3823.1</v>
+        <v>3826.8</v>
       </c>
       <c r="E111" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="F111" t="n">
-        <v>6854.4</v>
+        <v>6868.5</v>
       </c>
       <c r="G111" t="n">
-        <v>3824.8</v>
+        <v>3829.6</v>
       </c>
       <c r="H111" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I111" t="n">
-        <v>6848.1</v>
+        <v>6865.1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.700000000000273</v>
+        <v>2.799999999999727</v>
       </c>
       <c r="K111" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L111" t="n">
-        <v>7.999999999999545</v>
+        <v>6.199999999999363</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>5.0-81.0</t>
+          <t>203.0-230.0</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>3825.4</v>
+        <v>3823</v>
       </c>
       <c r="E112" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="F112" t="n">
-        <v>6851.9</v>
+        <v>6839</v>
       </c>
       <c r="G112" t="n">
-        <v>3828.9</v>
+        <v>3824.6</v>
       </c>
       <c r="H112" t="n">
         <v>1.79</v>
       </c>
       <c r="I112" t="n">
-        <v>6848.9</v>
+        <v>6836</v>
       </c>
       <c r="J112" t="n">
-        <v>3.5</v>
+        <v>1.599999999999909</v>
       </c>
       <c r="K112" t="n">
-        <v>0.895</v>
+        <v>0.8999722222222222</v>
       </c>
       <c r="L112" t="n">
-        <v>6.5</v>
+        <v>4.619999999999909</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>164.0-105.0</t>
+          <t>137.0-93.0</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3829</v>
+        <v>3823.1</v>
       </c>
       <c r="E113" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="F113" t="n">
-        <v>6897.9</v>
+        <v>6854.4</v>
       </c>
       <c r="G113" t="n">
-        <v>3828.6</v>
+        <v>3824.8</v>
       </c>
       <c r="H113" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="I113" t="n">
-        <v>6880.8</v>
+        <v>6848.1</v>
       </c>
       <c r="J113" t="n">
-        <v>0.4000000000000909</v>
+        <v>1.700000000000273</v>
       </c>
       <c r="K113" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L113" t="n">
-        <v>17.49999999999955</v>
+        <v>7.999999999999545</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>17.0-36.0</t>
+          <t>89.0-95.0</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3829.7</v>
+        <v>3822.6</v>
       </c>
       <c r="E114" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="F114" t="n">
-        <v>6852.2</v>
+        <v>6880.4</v>
       </c>
       <c r="G114" t="n">
-        <v>3829.5</v>
+        <v>3824.3</v>
       </c>
       <c r="H114" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I114" t="n">
-        <v>6849.1</v>
+        <v>6860.8</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1999999999998181</v>
+        <v>1.700000000000273</v>
       </c>
       <c r="K114" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="L114" t="n">
-        <v>3.299999999999272</v>
+        <v>21.29999999999973</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>108.0-229.0</t>
+          <t>44.0-11.0</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3828.7</v>
+        <v>3828.1</v>
       </c>
       <c r="E115" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="F115" t="n">
-        <v>6843.6</v>
+        <v>6869.6</v>
       </c>
       <c r="G115" t="n">
-        <v>3825.9</v>
+        <v>3830</v>
       </c>
       <c r="H115" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="I115" t="n">
-        <v>6838.9</v>
+        <v>6867.7</v>
       </c>
       <c r="J115" t="n">
-        <v>2.799999999999727</v>
+        <v>1.900000000000091</v>
       </c>
       <c r="K115" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L115" t="n">
-        <v>7.500000000000455</v>
+        <v>3.800000000000637</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>171.0-75.0</t>
+          <t>109.0-190.0</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3829.4</v>
+        <v>3826.8</v>
       </c>
       <c r="E116" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="F116" t="n">
-        <v>6850.6</v>
+        <v>6896.4</v>
       </c>
       <c r="G116" t="n">
-        <v>3828.6</v>
+        <v>3828.8</v>
       </c>
       <c r="H116" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="I116" t="n">
-        <v>6849.8</v>
+        <v>6896.1</v>
       </c>
       <c r="J116" t="n">
-        <v>0.8000000000001819</v>
+        <v>2</v>
       </c>
       <c r="K116" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.885</v>
       </c>
       <c r="L116" t="n">
-        <v>1.600000000000364</v>
+        <v>2.299999999999272</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>142.0-129.0</t>
+          <t>23.0-170.0</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3829.8</v>
+        <v>3831.9</v>
       </c>
       <c r="E117" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="F117" t="n">
-        <v>6878.8</v>
+        <v>6881.2</v>
       </c>
       <c r="G117" t="n">
-        <v>3828.3</v>
+        <v>3828.5</v>
       </c>
       <c r="H117" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="I117" t="n">
-        <v>6877.7</v>
+        <v>6881.1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.5</v>
+        <v>3.400000000000091</v>
       </c>
       <c r="K117" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L117" t="n">
-        <v>2.600000000000364</v>
+        <v>3.499999999999545</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>41.0-139.0</t>
+          <t>228.0-218.0</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3830.1</v>
+        <v>3827.1</v>
       </c>
       <c r="E118" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="F118" t="n">
-        <v>6851.4</v>
+        <v>6833.6</v>
       </c>
       <c r="G118" t="n">
-        <v>3828</v>
+        <v>3829.3</v>
       </c>
       <c r="H118" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="I118" t="n">
-        <v>6848.8</v>
+        <v>6828.8</v>
       </c>
       <c r="J118" t="n">
-        <v>2.099999999999909</v>
+        <v>2.200000000000273</v>
       </c>
       <c r="K118" t="n">
-        <v>0.92</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L118" t="n">
-        <v>4.699999999999363</v>
+        <v>7.000000000000455</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>121.0-261.0</t>
+          <t>132.0-193.0</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3829.3</v>
+        <v>3829.4</v>
       </c>
       <c r="E119" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="F119" t="n">
-        <v>6844.5</v>
+        <v>6847.4</v>
       </c>
       <c r="G119" t="n">
-        <v>3828.9</v>
+        <v>3832</v>
       </c>
       <c r="H119" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="I119" t="n">
-        <v>6838.5</v>
+        <v>6843.4</v>
       </c>
       <c r="J119" t="n">
-        <v>0.4000000000000909</v>
+        <v>2.599999999999909</v>
       </c>
       <c r="K119" t="n">
-        <v>0.92</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L119" t="n">
-        <v>6.400000000000091</v>
+        <v>6.599999999999909</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3.0-241.0</t>
+          <t>108.0-229.0</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>3829</v>
+        <v>3828.7</v>
       </c>
       <c r="E120" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="F120" t="n">
-        <v>6843</v>
+        <v>6843.6</v>
       </c>
       <c r="G120" t="n">
-        <v>3828.4</v>
+        <v>3825.9</v>
       </c>
       <c r="H120" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I120" t="n">
-        <v>6839.6</v>
+        <v>6838.9</v>
       </c>
       <c r="J120" t="n">
-        <v>0.5999999999999091</v>
+        <v>2.799999999999727</v>
       </c>
       <c r="K120" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L120" t="n">
-        <v>3.999999999999545</v>
+        <v>7.500000000000455</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>173.0-28.0</t>
+          <t>8.0-179.0</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>3829.7</v>
+        <v>3829.5</v>
       </c>
       <c r="E121" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="F121" t="n">
-        <v>6877.3</v>
+        <v>6876.6</v>
       </c>
       <c r="G121" t="n">
-        <v>3829.4</v>
+        <v>3826.4</v>
       </c>
       <c r="H121" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="I121" t="n">
-        <v>6869.2</v>
+        <v>6867.4</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2999999999997272</v>
+        <v>3.099999999999909</v>
       </c>
       <c r="K121" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.885</v>
       </c>
       <c r="L121" t="n">
-        <v>8.400000000000091</v>
+        <v>12.30000000000064</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>115.0-37.0</t>
+          <t>204.0-275.0</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3830</v>
+        <v>3823.6</v>
       </c>
       <c r="E122" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="F122" t="n">
-        <v>6842</v>
+        <v>6822.2</v>
       </c>
       <c r="G122" t="n">
-        <v>3829.1</v>
+        <v>3820.4</v>
       </c>
       <c r="H122" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I122" t="n">
-        <v>6841.4</v>
+        <v>6816.5</v>
       </c>
       <c r="J122" t="n">
-        <v>0.9000000000000909</v>
+        <v>3.199999999999818</v>
       </c>
       <c r="K122" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.8924929971988794</v>
       </c>
       <c r="L122" t="n">
-        <v>1.500000000000455</v>
+        <v>8.909999999999636</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>141.0-33.0</t>
+          <t>191.0-192.0</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3828.7</v>
+        <v>3822.1</v>
       </c>
       <c r="E123" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="F123" t="n">
-        <v>6853.3</v>
+        <v>6890.2</v>
       </c>
       <c r="G123" t="n">
-        <v>3829.5</v>
+        <v>3825.4</v>
       </c>
       <c r="H123" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="I123" t="n">
-        <v>6844.7</v>
+        <v>6877.1</v>
       </c>
       <c r="J123" t="n">
-        <v>0.8000000000001819</v>
+        <v>3.300000000000182</v>
       </c>
       <c r="K123" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.8724928366762178</v>
       </c>
       <c r="L123" t="n">
-        <v>9.400000000000546</v>
+        <v>16.40999999999963</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>134.0-252.0</t>
+          <t>5.0-81.0</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>3830.1</v>
+        <v>3825.4</v>
       </c>
       <c r="E124" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="F124" t="n">
-        <v>6856.4</v>
+        <v>6851.9</v>
       </c>
       <c r="G124" t="n">
-        <v>3829.5</v>
+        <v>3828.9</v>
       </c>
       <c r="H124" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="I124" t="n">
-        <v>6828.7</v>
+        <v>6848.9</v>
       </c>
       <c r="J124" t="n">
-        <v>0.5999999999999091</v>
+        <v>3.5</v>
       </c>
       <c r="K124" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.895</v>
       </c>
       <c r="L124" t="n">
-        <v>28.29999999999973</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>134.0-252.0</t>
+          <t>100.0-66.0</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3830.1</v>
+        <v>3825.1</v>
       </c>
       <c r="E125" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="F125" t="n">
-        <v>6856.4</v>
+        <v>6875.5</v>
       </c>
       <c r="G125" t="n">
-        <v>3829.5</v>
+        <v>3828.7</v>
       </c>
       <c r="H125" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="I125" t="n">
-        <v>6828.7</v>
+        <v>6871.7</v>
       </c>
       <c r="J125" t="n">
-        <v>0.5999999999999091</v>
+        <v>3.599999999999909</v>
       </c>
       <c r="K125" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L125" t="n">
-        <v>28.29999999999973</v>
+        <v>7.400000000000091</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>20.0-168.0</t>
+          <t>62.0-6.0</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3828.1</v>
+        <v>3823.3</v>
       </c>
       <c r="E126" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="F126" t="n">
-        <v>6843.4</v>
+        <v>6872.2</v>
       </c>
       <c r="G126" t="n">
-        <v>3828.8</v>
+        <v>3827.2</v>
       </c>
       <c r="H126" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="I126" t="n">
-        <v>6840.9</v>
+        <v>6857.7</v>
       </c>
       <c r="J126" t="n">
-        <v>0.7000000000002728</v>
+        <v>3.899999999999636</v>
       </c>
       <c r="K126" t="n">
-        <v>0.93</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L126" t="n">
-        <v>3.200000000000273</v>
+        <v>18.39999999999964</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>51.0-1.0</t>
+          <t>212.0-239.0</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3830.1</v>
+        <v>3828.7</v>
       </c>
       <c r="E127" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="F127" t="n">
-        <v>6843.9</v>
+        <v>6807</v>
       </c>
       <c r="G127" t="n">
-        <v>3829.7</v>
+        <v>3828.5</v>
       </c>
       <c r="H127" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="I127" t="n">
-        <v>6843.2</v>
+        <v>6804</v>
       </c>
       <c r="J127" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="K127" t="n">
-        <v>0.885</v>
+        <v>0.92</v>
       </c>
       <c r="L127" t="n">
-        <v>1.099999999999909</v>
+        <v>3.199999999999818</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>153.0-213.0</t>
+          <t>254.0-225.0</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3824.7</v>
+        <v>3828.9</v>
       </c>
       <c r="E128" t="n">
         <v>1.83</v>
       </c>
       <c r="F128" t="n">
-        <v>6853.3</v>
+        <v>6809.9</v>
       </c>
       <c r="G128" t="n">
-        <v>3828.6</v>
+        <v>3829.1</v>
       </c>
       <c r="H128" t="n">
         <v>1.83</v>
       </c>
       <c r="I128" t="n">
-        <v>6835.3</v>
+        <v>6807.4</v>
       </c>
       <c r="J128" t="n">
-        <v>3.900000000000091</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="K128" t="n">
         <v>0.9150000000000001</v>
       </c>
       <c r="L128" t="n">
-        <v>21.90000000000009</v>
+        <v>2.699999999999818</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6096,2147 +6096,387 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>42.0-122.0</t>
+          <t>240.0-243.0</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>3828.8</v>
+        <v>3828.5</v>
       </c>
       <c r="E129" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="F129" t="n">
-        <v>6899.5</v>
+        <v>6813.2</v>
       </c>
       <c r="G129" t="n">
-        <v>3829.2</v>
+        <v>3827.8</v>
       </c>
       <c r="H129" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I129" t="n">
-        <v>6899.4</v>
+        <v>6812.9</v>
       </c>
       <c r="J129" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.6999999999998181</v>
       </c>
       <c r="K129" t="n">
-        <v>0.92</v>
+        <v>0.9397606382978724</v>
       </c>
       <c r="L129" t="n">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>82.0-174.0</t>
+          <t>256.0-234.0</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3829.5</v>
+        <v>3826.5</v>
       </c>
       <c r="E130" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="F130" t="n">
-        <v>6847.4</v>
+        <v>6814.1</v>
       </c>
       <c r="G130" t="n">
-        <v>3829.3</v>
+        <v>3825.5</v>
       </c>
       <c r="H130" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="I130" t="n">
-        <v>6847.3</v>
+        <v>6806.8</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1999999999998181</v>
+        <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>0.92</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2999999999992724</v>
+        <v>8.300000000000182</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>46.0-85.0</t>
+          <t>214.0-227.0</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3828.8</v>
+        <v>3829</v>
       </c>
       <c r="E131" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="F131" t="n">
-        <v>6846.8</v>
+        <v>6801.7</v>
       </c>
       <c r="G131" t="n">
-        <v>3825.2</v>
+        <v>3827.7</v>
       </c>
       <c r="H131" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I131" t="n">
-        <v>6846.7</v>
+        <v>6801.4</v>
       </c>
       <c r="J131" t="n">
-        <v>3.600000000000364</v>
+        <v>1.300000000000182</v>
       </c>
       <c r="K131" t="n">
-        <v>0.92</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L131" t="n">
-        <v>3.700000000000728</v>
+        <v>1.600000000000364</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>154.0-260.0</t>
+          <t>231.0-232.0</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3827.9</v>
+        <v>3826.7</v>
       </c>
       <c r="E132" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="F132" t="n">
-        <v>6856.5</v>
+        <v>6810.9</v>
       </c>
       <c r="G132" t="n">
-        <v>3829.4</v>
+        <v>3824.4</v>
       </c>
       <c r="H132" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I132" t="n">
-        <v>6839.4</v>
+        <v>6780.8</v>
       </c>
       <c r="J132" t="n">
-        <v>1.5</v>
+        <v>2.299999999999727</v>
       </c>
       <c r="K132" t="n">
-        <v>0.8899999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L132" t="n">
-        <v>18.60000000000036</v>
+        <v>32.39999999999918</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>40.0-53.0</t>
+          <t>206.0-202.0</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3828.6</v>
+        <v>3824.7</v>
       </c>
       <c r="E133" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="F133" t="n">
-        <v>6899.3</v>
+        <v>6804.6</v>
       </c>
       <c r="G133" t="n">
-        <v>3829.1</v>
+        <v>3822.1</v>
       </c>
       <c r="H133" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="I133" t="n">
-        <v>6896.6</v>
+        <v>6795.6</v>
       </c>
       <c r="J133" t="n">
-        <v>0.5</v>
+        <v>2.599999999999909</v>
       </c>
       <c r="K133" t="n">
-        <v>0.92</v>
+        <v>0.875</v>
       </c>
       <c r="L133" t="n">
-        <v>3.199999999999818</v>
+        <v>11.59999999999991</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>155.0-52.0</t>
+          <t>233.0-245.0</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3829.5</v>
+        <v>3825.8</v>
       </c>
       <c r="E134" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="F134" t="n">
-        <v>6847.7</v>
+        <v>6804.3</v>
       </c>
       <c r="G134" t="n">
-        <v>3828.7</v>
+        <v>3828.8</v>
       </c>
       <c r="H134" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="I134" t="n">
-        <v>6845.4</v>
+        <v>6792</v>
       </c>
       <c r="J134" t="n">
-        <v>0.8000000000001819</v>
+        <v>3</v>
       </c>
       <c r="K134" t="n">
-        <v>0.93</v>
+        <v>0.902437673130194</v>
       </c>
       <c r="L134" t="n">
-        <v>3.100000000000364</v>
+        <v>15.33000000000018</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>132.0-193.0</t>
+          <t>223.0-237.0</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>3829.4</v>
+        <v>3829.7</v>
       </c>
       <c r="E135" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="F135" t="n">
-        <v>6847.4</v>
+        <v>6795.8</v>
       </c>
       <c r="G135" t="n">
-        <v>3832</v>
+        <v>3824.8</v>
       </c>
       <c r="H135" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I135" t="n">
-        <v>6843.4</v>
+        <v>6781.9</v>
       </c>
       <c r="J135" t="n">
-        <v>2.599999999999909</v>
+        <v>4.899999999999636</v>
       </c>
       <c r="K135" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L135" t="n">
-        <v>6.599999999999909</v>
+        <v>18.80000000000018</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Segment 5</t>
+          <t>Segment 1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>177.0-69.0</t>
+          <t>268.0-269.0</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3828.7</v>
+        <v>3831</v>
       </c>
       <c r="E136" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="F136" t="n">
-        <v>6848.5</v>
+        <v>6793.9</v>
       </c>
       <c r="G136" t="n">
-        <v>3828.2</v>
+        <v>3827.39</v>
       </c>
       <c r="H136" t="n">
-        <v>1.79</v>
+        <v>1.2257</v>
       </c>
       <c r="I136" t="n">
-        <v>6843.5</v>
+        <v>6834.1</v>
       </c>
       <c r="J136" t="n">
-        <v>0.5</v>
+        <v>3.610000000000127</v>
       </c>
       <c r="K136" t="n">
-        <v>0.895</v>
+        <v>0.7340481722682201</v>
       </c>
       <c r="L136" t="n">
-        <v>5.5</v>
+        <v>44.41430000000086</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Segment 6</t>
+          <t>Segment 1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>204.0-275.0</t>
+          <t>265.0-207.0</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3823.6</v>
+        <v>3829.5</v>
       </c>
       <c r="E137" t="n">
         <v>1.78</v>
       </c>
       <c r="F137" t="n">
-        <v>6822.2</v>
+        <v>6808.7</v>
       </c>
       <c r="G137" t="n">
-        <v>3820.4</v>
+        <v>3825.1</v>
       </c>
       <c r="H137" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I137" t="n">
-        <v>6816.5</v>
+        <v>6785.6</v>
       </c>
       <c r="J137" t="n">
-        <v>3.199999999999818</v>
+        <v>4.400000000000091</v>
       </c>
       <c r="K137" t="n">
-        <v>0.8924929971988794</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="L137" t="n">
-        <v>8.909999999999636</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>203.0-230.0</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>3823</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F138" t="n">
-        <v>6839</v>
-      </c>
-      <c r="G138" t="n">
-        <v>3824.6</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I138" t="n">
-        <v>6836</v>
-      </c>
-      <c r="J138" t="n">
-        <v>1.599999999999909</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.8999722222222222</v>
-      </c>
-      <c r="L138" t="n">
-        <v>4.619999999999909</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>221.0-247.0</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>3830</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F139" t="n">
-        <v>6839.1</v>
-      </c>
-      <c r="G139" t="n">
-        <v>3828.5</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I139" t="n">
-        <v>6836.6</v>
-      </c>
-      <c r="J139" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.9100000000000001</v>
-      </c>
-      <c r="L139" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>116.0-29.0</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>3829.5</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F140" t="n">
-        <v>6896.6</v>
-      </c>
-      <c r="G140" t="n">
-        <v>3828.1</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I140" t="n">
-        <v>6892.2</v>
-      </c>
-      <c r="J140" t="n">
-        <v>1.400000000000091</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L140" t="n">
-        <v>5.800000000000637</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>208.0-201.0</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>3824.1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="F141" t="n">
-        <v>6837.6</v>
-      </c>
-      <c r="G141" t="n">
-        <v>3820.2</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="I141" t="n">
-        <v>6830.2</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3.900000000000091</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="L141" t="n">
-        <v>11.30000000000064</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>250.0-264.0</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>3829.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F142" t="n">
-        <v>6837.2</v>
-      </c>
-      <c r="G142" t="n">
-        <v>3829.9</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I142" t="n">
-        <v>6835.7</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.4000000000000909</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.8924929971988794</v>
-      </c>
-      <c r="L142" t="n">
-        <v>1.910000000000091</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>255.0-273.0</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>3829.4</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F143" t="n">
-        <v>6825.8</v>
-      </c>
-      <c r="G143" t="n">
-        <v>3830.1</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I143" t="n">
-        <v>6819.6</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.6999999999998181</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.9447619047619047</v>
-      </c>
-      <c r="L143" t="n">
-        <v>6.959999999999636</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>180.0-92.0</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>3822.2</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F144" t="n">
-        <v>6896.2</v>
-      </c>
-      <c r="G144" t="n">
-        <v>3825.2</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I144" t="n">
-        <v>6888.5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L144" t="n">
-        <v>10.69999999999982</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>251.0-238.0</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>3828.8</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F145" t="n">
-        <v>6824.3</v>
-      </c>
-      <c r="G145" t="n">
-        <v>3828.7</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I145" t="n">
-        <v>6820.9</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.1000000000003638</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.9148907103825137</v>
-      </c>
-      <c r="L145" t="n">
-        <v>3.54000000000091</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>253.0-211.0</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>3829.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F146" t="n">
-        <v>6825.1</v>
-      </c>
-      <c r="G146" t="n">
-        <v>3828.6</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I146" t="n">
-        <v>6820.6</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.9000000000000909</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.892436974789916</v>
-      </c>
-      <c r="L146" t="n">
-        <v>5.430000000000091</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>86.0-242.0</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>3829.6</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F147" t="n">
-        <v>6840.1</v>
-      </c>
-      <c r="G147" t="n">
-        <v>3829.7</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="I147" t="n">
-        <v>6828.3</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0.09999999999990905</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.9400000000000001</v>
-      </c>
-      <c r="L147" t="n">
-        <v>11.90000000000009</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>64.0-2.0</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>3828.9</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F148" t="n">
-        <v>6885.5</v>
-      </c>
-      <c r="G148" t="n">
-        <v>3829.5</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I148" t="n">
-        <v>6883</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0.5999999999999091</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L148" t="n">
-        <v>3.099999999999909</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>274.0-209.0</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>3829.4</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F149" t="n">
-        <v>6839.1</v>
-      </c>
-      <c r="G149" t="n">
-        <v>3828.7</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I149" t="n">
-        <v>6829.8</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.7000000000002728</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L149" t="n">
-        <v>10.00000000000045</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>217.0-215.0</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>3829.2</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F150" t="n">
-        <v>6826.5</v>
-      </c>
-      <c r="G150" t="n">
-        <v>3829.8</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I150" t="n">
-        <v>6823.3</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.6000000000003638</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.8899999999999999</v>
-      </c>
-      <c r="L150" t="n">
-        <v>3.800000000000182</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>210.0-246.0</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>3829.1</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F151" t="n">
-        <v>6825.7</v>
-      </c>
-      <c r="G151" t="n">
-        <v>3829.2</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I151" t="n">
-        <v>6824.5</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.09999999999990905</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.9124931506849315</v>
-      </c>
-      <c r="L151" t="n">
-        <v>1.309999999999727</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>7.0-103.0</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>3829</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F152" t="n">
-        <v>6882.7</v>
-      </c>
-      <c r="G152" t="n">
-        <v>3828.4</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I152" t="n">
-        <v>6878.6</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0.5999999999999091</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L152" t="n">
-        <v>4.699999999999363</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>248.0-244.0</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>3828.9</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F153" t="n">
-        <v>6828.6</v>
-      </c>
-      <c r="G153" t="n">
-        <v>3829.1</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I153" t="n">
-        <v>6821.7</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0.1999999999998181</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L153" t="n">
-        <v>7.100000000000364</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>226.0-267.0</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>3829</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="F154" t="n">
-        <v>6834.8</v>
-      </c>
-      <c r="G154" t="n">
-        <v>3830.1</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I154" t="n">
-        <v>6830.6</v>
-      </c>
-      <c r="J154" t="n">
-        <v>1.099999999999909</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.9150000000000001</v>
-      </c>
-      <c r="L154" t="n">
-        <v>5.299999999999727</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>104.0-216.0</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>3829.2</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F155" t="n">
-        <v>6841.5</v>
-      </c>
-      <c r="G155" t="n">
-        <v>3829.6</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I155" t="n">
-        <v>6823.4</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0.4000000000000909</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.8799999999999999</v>
-      </c>
-      <c r="L155" t="n">
-        <v>18.50000000000045</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>27.0-47.0</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>3829.1</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F156" t="n">
-        <v>6878.2</v>
-      </c>
-      <c r="G156" t="n">
-        <v>3829.6</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I156" t="n">
-        <v>6872.4</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L156" t="n">
-        <v>6.300000000000182</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>266.0-219.0</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>3829.5</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F157" t="n">
-        <v>6826.5</v>
-      </c>
-      <c r="G157" t="n">
-        <v>3828.4</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I157" t="n">
-        <v>6825.8</v>
-      </c>
-      <c r="J157" t="n">
-        <v>1.099999999999909</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L157" t="n">
-        <v>1.799999999999727</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>220.0-235.0</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>3830.1</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F158" t="n">
-        <v>6836.2</v>
-      </c>
-      <c r="G158" t="n">
-        <v>3829</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I158" t="n">
-        <v>6827.3</v>
-      </c>
-      <c r="J158" t="n">
-        <v>1.099999999999909</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.9350000000000002</v>
-      </c>
-      <c r="L158" t="n">
-        <v>9.999999999999545</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>224.0-258.0</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>3829</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="F159" t="n">
-        <v>6828.1</v>
-      </c>
-      <c r="G159" t="n">
-        <v>3829.7</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I159" t="n">
-        <v>6826.4</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0.6999999999998181</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.9150000000000001</v>
-      </c>
-      <c r="L159" t="n">
-        <v>2.400000000000546</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>18.0-135.0</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>3825.7</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F160" t="n">
-        <v>6867.9</v>
-      </c>
-      <c r="G160" t="n">
-        <v>3829.3</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I160" t="n">
-        <v>6864.1</v>
-      </c>
-      <c r="J160" t="n">
-        <v>3.600000000000364</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L160" t="n">
-        <v>7.399999999999636</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>249.0-259.0</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>3829.1</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F161" t="n">
-        <v>6835.4</v>
-      </c>
-      <c r="G161" t="n">
-        <v>3829.6</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I161" t="n">
-        <v>6827.6</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.9100000000000001</v>
-      </c>
-      <c r="L161" t="n">
-        <v>8.299999999999272</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>228.0-218.0</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>3827.1</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F162" t="n">
-        <v>6833.6</v>
-      </c>
-      <c r="G162" t="n">
-        <v>3829.3</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="I162" t="n">
-        <v>6828.8</v>
-      </c>
-      <c r="J162" t="n">
-        <v>2.200000000000273</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.9049999999999999</v>
-      </c>
-      <c r="L162" t="n">
-        <v>7.000000000000455</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Segment 6</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>271.0-272.0</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>3830.3</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F163" t="n">
-        <v>6832.1</v>
-      </c>
-      <c r="G163" t="n">
-        <v>3830.6</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I163" t="n">
-        <v>6826.8</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0.2999999999997272</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L163" t="n">
-        <v>5.599999999999909</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>223.0-237.0</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>3829.7</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F164" t="n">
-        <v>6795.8</v>
-      </c>
-      <c r="G164" t="n">
-        <v>3824.8</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I164" t="n">
-        <v>6781.9</v>
-      </c>
-      <c r="J164" t="n">
-        <v>4.899999999999636</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L164" t="n">
-        <v>18.80000000000018</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>268.0-269.0</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>3831</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="F165" t="n">
-        <v>6793.9</v>
-      </c>
-      <c r="G165" t="n">
-        <v>3827.39</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1.2257</v>
-      </c>
-      <c r="I165" t="n">
-        <v>6834.1</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3.610000000000127</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.7340481722682201</v>
-      </c>
-      <c r="L165" t="n">
-        <v>44.41430000000086</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>240.0-243.0</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>3828.5</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F166" t="n">
-        <v>6813.2</v>
-      </c>
-      <c r="G166" t="n">
-        <v>3827.8</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I166" t="n">
-        <v>6812.9</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0.6999999999998181</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.9397606382978724</v>
-      </c>
-      <c r="L166" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>240.0-243.0</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>3828.5</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F167" t="n">
-        <v>6813.2</v>
-      </c>
-      <c r="G167" t="n">
-        <v>3827.8</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I167" t="n">
-        <v>6812.9</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0.6999999999998181</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.9397606382978724</v>
-      </c>
-      <c r="L167" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>231.0-232.0</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>3826.7</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F168" t="n">
-        <v>6810.9</v>
-      </c>
-      <c r="G168" t="n">
-        <v>3824.4</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I168" t="n">
-        <v>6780.8</v>
-      </c>
-      <c r="J168" t="n">
-        <v>2.299999999999727</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="L168" t="n">
-        <v>32.39999999999918</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>256.0-234.0</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>3826.5</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F169" t="n">
-        <v>6814.1</v>
-      </c>
-      <c r="G169" t="n">
-        <v>3825.5</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I169" t="n">
-        <v>6806.8</v>
-      </c>
-      <c r="J169" t="n">
-        <v>1</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.9350000000000002</v>
-      </c>
-      <c r="L169" t="n">
-        <v>8.300000000000182</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>254.0-225.0</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>3828.9</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="F170" t="n">
-        <v>6809.9</v>
-      </c>
-      <c r="G170" t="n">
-        <v>3829.1</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I170" t="n">
-        <v>6807.4</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0.1999999999998181</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.9150000000000001</v>
-      </c>
-      <c r="L170" t="n">
-        <v>2.699999999999818</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>256.0-234.0</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>3826.5</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F171" t="n">
-        <v>6814.1</v>
-      </c>
-      <c r="G171" t="n">
-        <v>3825.5</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I171" t="n">
-        <v>6806.8</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.9350000000000002</v>
-      </c>
-      <c r="L171" t="n">
-        <v>8.300000000000182</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>265.0-207.0</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>3829.5</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F172" t="n">
-        <v>6808.7</v>
-      </c>
-      <c r="G172" t="n">
-        <v>3825.1</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I172" t="n">
-        <v>6785.6</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4.400000000000091</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.8899999999999999</v>
-      </c>
-      <c r="L172" t="n">
         <v>27.49999999999955</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>233.0-245.0</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>3825.8</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F173" t="n">
-        <v>6804.3</v>
-      </c>
-      <c r="G173" t="n">
-        <v>3828.8</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I173" t="n">
-        <v>6792</v>
-      </c>
-      <c r="J173" t="n">
-        <v>3</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.902437673130194</v>
-      </c>
-      <c r="L173" t="n">
-        <v>15.33000000000018</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>206.0-202.0</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>3824.7</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F174" t="n">
-        <v>6804.6</v>
-      </c>
-      <c r="G174" t="n">
-        <v>3822.1</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I174" t="n">
-        <v>6795.6</v>
-      </c>
-      <c r="J174" t="n">
-        <v>2.599999999999909</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="L174" t="n">
-        <v>11.59999999999991</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>214.0-227.0</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>3829</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F175" t="n">
-        <v>6801.7</v>
-      </c>
-      <c r="G175" t="n">
-        <v>3827.7</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I175" t="n">
-        <v>6801.4</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1.300000000000182</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.9250000000000002</v>
-      </c>
-      <c r="L175" t="n">
-        <v>1.600000000000364</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>212.0-239.0</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>3828.7</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F176" t="n">
-        <v>6807</v>
-      </c>
-      <c r="G176" t="n">
-        <v>3828.5</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I176" t="n">
-        <v>6804</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0.1999999999998181</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L176" t="n">
-        <v>3.199999999999818</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Segment 1</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>214.0-227.0</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>3829</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F177" t="n">
-        <v>6801.7</v>
-      </c>
-      <c r="G177" t="n">
-        <v>3827.7</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I177" t="n">
-        <v>6801.4</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1.300000000000182</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.9250000000000002</v>
-      </c>
-      <c r="L177" t="n">
-        <v>1.600000000000364</v>
       </c>
     </row>
   </sheetData>

--- a/pythonProject/output_segments.xlsx
+++ b/pythonProject/output_segments.xlsx
@@ -547,40 +547,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>210.0-246.0</t>
+          <t>147.0-126.0</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3829.1</v>
+        <v>3829.6</v>
       </c>
       <c r="E3" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="F3" t="n">
-        <v>6825.7</v>
+        <v>6892.9</v>
       </c>
       <c r="G3" t="n">
-        <v>3829.2</v>
+        <v>3829.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="I3" t="n">
-        <v>6824.5</v>
+        <v>6892.2</v>
       </c>
       <c r="J3" t="n">
         <v>0.09999999999990905</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9124931506849315</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>1.309999999999727</v>
+        <v>0.7999999999997272</v>
       </c>
     </row>
     <row r="4">
@@ -635,40 +635,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>86.0-242.0</t>
+          <t>127.0-35.0</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3829.6</v>
+        <v>3830.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="F5" t="n">
-        <v>6840.1</v>
+        <v>6866.1</v>
       </c>
       <c r="G5" t="n">
-        <v>3829.7</v>
+        <v>3830.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6828.3</v>
+        <v>6864.5</v>
       </c>
       <c r="J5" t="n">
         <v>0.09999999999990905</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>11.90000000000009</v>
+        <v>1.700000000000273</v>
       </c>
     </row>
     <row r="6">
@@ -679,40 +679,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>34.0-163.0</t>
+          <t>157.0-83.0</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3830</v>
+        <v>3829.2</v>
       </c>
       <c r="E6" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="F6" t="n">
-        <v>6860.6</v>
+        <v>6871.8</v>
       </c>
       <c r="G6" t="n">
-        <v>3830.1</v>
+        <v>3829.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="I6" t="n">
-        <v>6845.3</v>
+        <v>6862.4</v>
       </c>
       <c r="J6" t="n">
         <v>0.09999999999990905</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="L6" t="n">
-        <v>15.40000000000009</v>
+        <v>9.500000000000455</v>
       </c>
     </row>
     <row r="7">
@@ -767,40 +767,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>127.0-35.0</t>
+          <t>86.0-242.0</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3830.6</v>
+        <v>3829.6</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="F8" t="n">
-        <v>6866.1</v>
+        <v>6840.1</v>
       </c>
       <c r="G8" t="n">
-        <v>3830.5</v>
+        <v>3829.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="I8" t="n">
-        <v>6864.5</v>
+        <v>6828.3</v>
       </c>
       <c r="J8" t="n">
         <v>0.09999999999990905</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>1.700000000000273</v>
+        <v>11.90000000000009</v>
       </c>
     </row>
     <row r="9">
@@ -811,40 +811,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>157.0-83.0</t>
+          <t>34.0-163.0</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3829.2</v>
+        <v>3830</v>
       </c>
       <c r="E9" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="F9" t="n">
-        <v>6871.8</v>
+        <v>6860.6</v>
       </c>
       <c r="G9" t="n">
-        <v>3829.1</v>
+        <v>3830.1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="I9" t="n">
-        <v>6862.4</v>
+        <v>6845.3</v>
       </c>
       <c r="J9" t="n">
         <v>0.09999999999990905</v>
       </c>
       <c r="K9" t="n">
-        <v>0.895</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>9.500000000000455</v>
+        <v>15.40000000000009</v>
       </c>
     </row>
     <row r="10">
@@ -899,40 +899,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>147.0-126.0</t>
+          <t>210.0-246.0</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3829.6</v>
+        <v>3829.1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="F11" t="n">
-        <v>6892.9</v>
+        <v>6825.7</v>
       </c>
       <c r="G11" t="n">
-        <v>3829.5</v>
+        <v>3829.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="I11" t="n">
-        <v>6892.2</v>
+        <v>6824.5</v>
       </c>
       <c r="J11" t="n">
         <v>0.09999999999990905</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9124931506849315</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7999999999997272</v>
+        <v>1.309999999999727</v>
       </c>
     </row>
     <row r="12">
@@ -1031,40 +1031,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>248.0-244.0</t>
+          <t>82.0-174.0</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3828.9</v>
+        <v>3829.5</v>
       </c>
       <c r="E14" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="F14" t="n">
-        <v>6828.6</v>
+        <v>6847.4</v>
       </c>
       <c r="G14" t="n">
-        <v>3829.1</v>
+        <v>3829.3</v>
       </c>
       <c r="H14" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="I14" t="n">
-        <v>6821.7</v>
+        <v>6847.3</v>
       </c>
       <c r="J14" t="n">
         <v>0.1999999999998181</v>
       </c>
       <c r="K14" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L14" t="n">
-        <v>7.100000000000364</v>
+        <v>0.2999999999992724</v>
       </c>
     </row>
     <row r="15">
@@ -1075,40 +1075,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>82.0-174.0</t>
+          <t>128.0-9.0</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3829.5</v>
+        <v>3829.1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="F15" t="n">
-        <v>6847.4</v>
+        <v>6894.5</v>
       </c>
       <c r="G15" t="n">
-        <v>3829.3</v>
+        <v>3828.9</v>
       </c>
       <c r="H15" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="I15" t="n">
-        <v>6847.3</v>
+        <v>6893.9</v>
       </c>
       <c r="J15" t="n">
         <v>0.1999999999998181</v>
       </c>
       <c r="K15" t="n">
-        <v>0.92</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2999999999992724</v>
+        <v>0.8000000000001819</v>
       </c>
     </row>
     <row r="16">
@@ -1207,40 +1207,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>65.0-88.0</t>
+          <t>248.0-244.0</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3828.7</v>
+        <v>3828.9</v>
       </c>
       <c r="E18" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="F18" t="n">
-        <v>6864.4</v>
+        <v>6828.6</v>
       </c>
       <c r="G18" t="n">
-        <v>3828.5</v>
+        <v>3829.1</v>
       </c>
       <c r="H18" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="I18" t="n">
-        <v>6846.1</v>
+        <v>6821.7</v>
       </c>
       <c r="J18" t="n">
         <v>0.1999999999998181</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L18" t="n">
-        <v>18.49999999999909</v>
+        <v>7.100000000000364</v>
       </c>
     </row>
     <row r="19">
@@ -1251,40 +1251,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>128.0-9.0</t>
+          <t>65.0-88.0</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3829.1</v>
+        <v>3828.7</v>
       </c>
       <c r="E19" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="F19" t="n">
-        <v>6894.5</v>
+        <v>6864.4</v>
       </c>
       <c r="G19" t="n">
-        <v>3828.9</v>
+        <v>3828.5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="I19" t="n">
-        <v>6893.9</v>
+        <v>6846.1</v>
       </c>
       <c r="J19" t="n">
         <v>0.1999999999998181</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8000000000001819</v>
+        <v>18.49999999999909</v>
       </c>
     </row>
     <row r="20">
@@ -1295,31 +1295,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>31.0-77.0</t>
+          <t>45.0-125.0</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3829.6</v>
+        <v>3829.7</v>
       </c>
       <c r="E20" t="n">
         <v>1.81</v>
       </c>
       <c r="F20" t="n">
-        <v>6868.6</v>
+        <v>6895.1</v>
       </c>
       <c r="G20" t="n">
-        <v>3829.8</v>
+        <v>3829.9</v>
       </c>
       <c r="H20" t="n">
         <v>1.81</v>
       </c>
       <c r="I20" t="n">
-        <v>6864.9</v>
+        <v>6894.8</v>
       </c>
       <c r="J20" t="n">
         <v>0.2000000000002728</v>
@@ -1328,7 +1328,7 @@
         <v>0.9049999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>3.900000000001</v>
+        <v>0.5000000000004547</v>
       </c>
     </row>
     <row r="21">
@@ -1383,31 +1383,31 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>45.0-125.0</t>
+          <t>31.0-77.0</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3829.7</v>
+        <v>3829.6</v>
       </c>
       <c r="E22" t="n">
         <v>1.81</v>
       </c>
       <c r="F22" t="n">
-        <v>6895.1</v>
+        <v>6868.6</v>
       </c>
       <c r="G22" t="n">
-        <v>3829.9</v>
+        <v>3829.8</v>
       </c>
       <c r="H22" t="n">
         <v>1.81</v>
       </c>
       <c r="I22" t="n">
-        <v>6894.8</v>
+        <v>6864.9</v>
       </c>
       <c r="J22" t="n">
         <v>0.2000000000002728</v>
@@ -1416,7 +1416,7 @@
         <v>0.9049999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5000000000004547</v>
+        <v>3.900000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1427,40 +1427,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>24.0-200.0</t>
+          <t>188.0-14.0</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3828.4</v>
+        <v>3828.8</v>
       </c>
       <c r="E23" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="F23" t="n">
-        <v>6887.6</v>
+        <v>6881.6</v>
       </c>
       <c r="G23" t="n">
-        <v>3829.2</v>
+        <v>3829.1</v>
       </c>
       <c r="H23" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="I23" t="n">
-        <v>6881.5</v>
+        <v>6879.3</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7999999999997272</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>6.900000000000091</v>
+        <v>2.599999999999909</v>
       </c>
     </row>
     <row r="24">
@@ -1471,40 +1471,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13.0-63.0</t>
+          <t>151.0-59.0</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3828.9</v>
+        <v>3830.7</v>
       </c>
       <c r="E24" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="F24" t="n">
-        <v>6893.6</v>
+        <v>6894.4</v>
       </c>
       <c r="G24" t="n">
-        <v>3828.5</v>
+        <v>3827.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="I24" t="n">
-        <v>6890.4</v>
+        <v>6892.4</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4000000000000909</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.895</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>3.600000000000819</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25">
@@ -1515,40 +1515,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>249.0-259.0</t>
+          <t>19.0-43.0</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3829.1</v>
+        <v>3827.8</v>
       </c>
       <c r="E25" t="n">
         <v>1.82</v>
       </c>
       <c r="F25" t="n">
-        <v>6835.4</v>
+        <v>6866.5</v>
       </c>
       <c r="G25" t="n">
-        <v>3829.6</v>
+        <v>3828.1</v>
       </c>
       <c r="H25" t="n">
         <v>1.82</v>
       </c>
       <c r="I25" t="n">
-        <v>6827.6</v>
+        <v>6863.4</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K25" t="n">
         <v>0.9100000000000001</v>
       </c>
       <c r="L25" t="n">
-        <v>8.299999999999272</v>
+        <v>3.400000000000091</v>
       </c>
     </row>
     <row r="26">
@@ -1559,40 +1559,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>274.0-209.0</t>
+          <t>271.0-272.0</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3829.4</v>
+        <v>3830.3</v>
       </c>
       <c r="E26" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="F26" t="n">
-        <v>6839.1</v>
+        <v>6832.1</v>
       </c>
       <c r="G26" t="n">
-        <v>3828.7</v>
+        <v>3830.6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="I26" t="n">
-        <v>6829.8</v>
+        <v>6826.8</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7000000000002728</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K26" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L26" t="n">
-        <v>10.00000000000045</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="27">
@@ -1603,40 +1603,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>177.0-69.0</t>
+          <t>145.0-30.0</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3828.7</v>
+        <v>3829.8</v>
       </c>
       <c r="E27" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="F27" t="n">
-        <v>6848.5</v>
+        <v>6896.5</v>
       </c>
       <c r="G27" t="n">
-        <v>3828.2</v>
+        <v>3829.4</v>
       </c>
       <c r="H27" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="I27" t="n">
-        <v>6843.5</v>
+        <v>6895.9</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K27" t="n">
-        <v>0.895</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L27" t="n">
-        <v>5.5</v>
+        <v>1.000000000000455</v>
       </c>
     </row>
     <row r="28">
@@ -1647,40 +1647,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>91.0-90.0</t>
+          <t>173.0-28.0</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3822.1</v>
+        <v>3829.7</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="F28" t="n">
-        <v>6860.8</v>
+        <v>6877.3</v>
       </c>
       <c r="G28" t="n">
-        <v>3822.6</v>
+        <v>3829.4</v>
       </c>
       <c r="H28" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="I28" t="n">
-        <v>6859.5</v>
+        <v>6869.2</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L28" t="n">
-        <v>1.800000000000182</v>
+        <v>8.400000000000091</v>
       </c>
     </row>
     <row r="29">
@@ -1691,40 +1691,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20.0-168.0</t>
+          <t>143.0-176.0</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3828.1</v>
+        <v>3829</v>
       </c>
       <c r="E29" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="F29" t="n">
-        <v>6843.4</v>
+        <v>6884.6</v>
       </c>
       <c r="G29" t="n">
-        <v>3828.8</v>
+        <v>3828.7</v>
       </c>
       <c r="H29" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="I29" t="n">
-        <v>6840.9</v>
+        <v>6873.9</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7000000000002728</v>
+        <v>0.3000000000001819</v>
       </c>
       <c r="K29" t="n">
-        <v>0.93</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L29" t="n">
-        <v>3.200000000000273</v>
+        <v>11.00000000000091</v>
       </c>
     </row>
     <row r="30">
@@ -1735,40 +1735,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>27.0-47.0</t>
+          <t>159.0-67.0</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3829.1</v>
+        <v>3823.5</v>
       </c>
       <c r="E30" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="F30" t="n">
-        <v>6878.2</v>
+        <v>6875.1</v>
       </c>
       <c r="G30" t="n">
-        <v>3829.6</v>
+        <v>3825.2</v>
       </c>
       <c r="H30" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="I30" t="n">
-        <v>6872.4</v>
+        <v>6846.6</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5</v>
+        <v>1.699999999999818</v>
       </c>
       <c r="K30" t="n">
-        <v>0.92</v>
+        <v>0.9374933333333334</v>
       </c>
       <c r="L30" t="n">
-        <v>6.300000000000182</v>
+        <v>30.20999999999982</v>
       </c>
     </row>
     <row r="31">
@@ -1779,40 +1779,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>25.0-166.0</t>
+          <t>42.0-122.0</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3830</v>
+        <v>3828.8</v>
       </c>
       <c r="E31" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F31" t="n">
-        <v>6878.2</v>
+        <v>6899.5</v>
       </c>
       <c r="G31" t="n">
-        <v>3829.5</v>
+        <v>3829.2</v>
       </c>
       <c r="H31" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I31" t="n">
-        <v>6878.1</v>
+        <v>6899.4</v>
       </c>
       <c r="J31" t="n">
+        <v>0.3999999999996362</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L31" t="n">
         <v>0.5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.9150000000000001</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.5999999999994543</v>
       </c>
     </row>
     <row r="32">
@@ -1823,40 +1823,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>155.0-52.0</t>
+          <t>186.0-257.0</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3829.5</v>
+        <v>3829.2</v>
       </c>
       <c r="E32" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="F32" t="n">
-        <v>6847.7</v>
+        <v>6873.4</v>
       </c>
       <c r="G32" t="n">
-        <v>3828.7</v>
+        <v>3828.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="I32" t="n">
-        <v>6845.4</v>
+        <v>6830</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8000000000001819</v>
+        <v>0.3999999999996362</v>
       </c>
       <c r="K32" t="n">
-        <v>0.93</v>
+        <v>0.875</v>
       </c>
       <c r="L32" t="n">
-        <v>3.100000000000364</v>
+        <v>43.79999999999927</v>
       </c>
     </row>
     <row r="33">
@@ -1867,40 +1867,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>102.0-98.0</t>
+          <t>220.0-235.0</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3824.5</v>
+        <v>3830.1</v>
       </c>
       <c r="E33" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="F33" t="n">
-        <v>6895.6</v>
+        <v>6836.2</v>
       </c>
       <c r="G33" t="n">
-        <v>3825</v>
+        <v>3829</v>
       </c>
       <c r="H33" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="I33" t="n">
-        <v>6887.5</v>
+        <v>6827.3</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K33" t="n">
-        <v>0.885</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L33" t="n">
-        <v>8.600000000000364</v>
+        <v>9.999999999999545</v>
       </c>
     </row>
     <row r="34">
@@ -1911,40 +1911,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>40.0-53.0</t>
+          <t>51.0-1.0</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3828.6</v>
+        <v>3830.1</v>
       </c>
       <c r="E34" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="F34" t="n">
-        <v>6899.3</v>
+        <v>6843.9</v>
       </c>
       <c r="G34" t="n">
-        <v>3829.1</v>
+        <v>3829.7</v>
       </c>
       <c r="H34" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="I34" t="n">
-        <v>6896.6</v>
+        <v>6843.2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K34" t="n">
-        <v>0.92</v>
+        <v>0.885</v>
       </c>
       <c r="L34" t="n">
-        <v>3.199999999999818</v>
+        <v>1.099999999999909</v>
       </c>
     </row>
     <row r="35">
@@ -1955,40 +1955,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>50.0-167.0</t>
+          <t>141.0-33.0</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3829.1</v>
+        <v>3828.7</v>
       </c>
       <c r="E35" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="F35" t="n">
-        <v>6868.5</v>
+        <v>6853.3</v>
       </c>
       <c r="G35" t="n">
-        <v>3828.2</v>
+        <v>3829.5</v>
       </c>
       <c r="H35" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I35" t="n">
-        <v>6860.6</v>
+        <v>6844.7</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9000000000000909</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K35" t="n">
-        <v>0.93</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L35" t="n">
-        <v>8.799999999999727</v>
+        <v>9.400000000000546</v>
       </c>
     </row>
     <row r="36">
@@ -1999,40 +1999,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3.0-241.0</t>
+          <t>13.0-63.0</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3829</v>
+        <v>3828.9</v>
       </c>
       <c r="E36" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="F36" t="n">
-        <v>6843</v>
+        <v>6893.6</v>
       </c>
       <c r="G36" t="n">
-        <v>3828.4</v>
+        <v>3828.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="I36" t="n">
-        <v>6839.6</v>
+        <v>6890.4</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.895</v>
       </c>
       <c r="L36" t="n">
-        <v>3.999999999999545</v>
+        <v>3.600000000000819</v>
       </c>
     </row>
     <row r="37">
@@ -2043,40 +2043,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>134.0-252.0</t>
+          <t>131.0-183.0</t>
         </is>
       </c>
       <c r="D37" t="n">
+        <v>3829.7</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6888.4</v>
+      </c>
+      <c r="G37" t="n">
         <v>3830.1</v>
       </c>
-      <c r="E37" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F37" t="n">
-        <v>6856.4</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3829.5</v>
-      </c>
       <c r="H37" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="I37" t="n">
-        <v>6828.7</v>
+        <v>6883.2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>28.29999999999973</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="38">
@@ -2087,40 +2087,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>68.0-73.0</t>
+          <t>12.0-49.0</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3829.6</v>
+        <v>3829.9</v>
       </c>
       <c r="E38" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="F38" t="n">
-        <v>6871.8</v>
+        <v>6861.8</v>
       </c>
       <c r="G38" t="n">
-        <v>3827.5</v>
+        <v>3829.3</v>
       </c>
       <c r="H38" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I38" t="n">
-        <v>6870.3</v>
+        <v>6856.8</v>
       </c>
       <c r="J38" t="n">
-        <v>2.099999999999909</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K38" t="n">
-        <v>0.93</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L38" t="n">
-        <v>3.599999999999909</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="39">
@@ -2131,37 +2131,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>112.0-70.0</t>
+          <t>121.0-261.0</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3829.1</v>
+        <v>3829.3</v>
       </c>
       <c r="E39" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="F39" t="n">
-        <v>6883.1</v>
+        <v>6844.5</v>
       </c>
       <c r="G39" t="n">
-        <v>3828.5</v>
+        <v>3828.9</v>
       </c>
       <c r="H39" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I39" t="n">
-        <v>6877.3</v>
+        <v>6838.5</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L39" t="n">
         <v>6.400000000000091</v>
@@ -2175,40 +2175,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7.0-103.0</t>
+          <t>110.0-4.0</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3829</v>
+        <v>3828.7</v>
       </c>
       <c r="E40" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="F40" t="n">
-        <v>6882.7</v>
+        <v>6879.2</v>
       </c>
       <c r="G40" t="n">
-        <v>3828.4</v>
+        <v>3829.6</v>
       </c>
       <c r="H40" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="I40" t="n">
-        <v>6878.6</v>
+        <v>6864.6</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K40" t="n">
-        <v>0.92</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L40" t="n">
-        <v>4.699999999999363</v>
+        <v>15.49999999999955</v>
       </c>
     </row>
     <row r="41">
@@ -2219,40 +2219,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>149.0-136.0</t>
+          <t>164.0-105.0</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3826.7</v>
+        <v>3829</v>
       </c>
       <c r="E41" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="F41" t="n">
-        <v>6888.3</v>
+        <v>6897.9</v>
       </c>
       <c r="G41" t="n">
-        <v>3828.9</v>
+        <v>3828.6</v>
       </c>
       <c r="H41" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="I41" t="n">
-        <v>6881</v>
+        <v>6880.8</v>
       </c>
       <c r="J41" t="n">
-        <v>2.200000000000273</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K41" t="n">
-        <v>0.93</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L41" t="n">
-        <v>9.500000000000455</v>
+        <v>17.49999999999955</v>
       </c>
     </row>
     <row r="42">
@@ -2263,40 +2263,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>64.0-2.0</t>
+          <t>104.0-216.0</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3828.9</v>
+        <v>3829.2</v>
       </c>
       <c r="E42" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="F42" t="n">
-        <v>6885.5</v>
+        <v>6841.5</v>
       </c>
       <c r="G42" t="n">
-        <v>3829.5</v>
+        <v>3829.6</v>
       </c>
       <c r="H42" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="I42" t="n">
-        <v>6883</v>
+        <v>6823.4</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K42" t="n">
-        <v>0.92</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L42" t="n">
-        <v>3.099999999999909</v>
+        <v>18.50000000000045</v>
       </c>
     </row>
     <row r="43">
@@ -2307,40 +2307,40 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>80.0-79.0</t>
+          <t>24.0-200.0</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3829.4</v>
+        <v>3828.4</v>
       </c>
       <c r="E43" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="F43" t="n">
-        <v>6890.7</v>
+        <v>6887.6</v>
       </c>
       <c r="G43" t="n">
-        <v>3828.8</v>
+        <v>3829.2</v>
       </c>
       <c r="H43" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="I43" t="n">
-        <v>6887.6</v>
+        <v>6881.5</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L43" t="n">
-        <v>3.699999999999363</v>
+        <v>6.900000000000091</v>
       </c>
     </row>
     <row r="44">
@@ -2351,40 +2351,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>271.0-272.0</t>
+          <t>97.0-160.0</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3830.3</v>
+        <v>3828.5</v>
       </c>
       <c r="E44" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="F44" t="n">
-        <v>6832.1</v>
+        <v>6899.5</v>
       </c>
       <c r="G44" t="n">
-        <v>3830.6</v>
+        <v>3828.1</v>
       </c>
       <c r="H44" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="I44" t="n">
-        <v>6826.8</v>
+        <v>6858.4</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2999999999997272</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K44" t="n">
-        <v>0.92</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="L44" t="n">
-        <v>5.599999999999909</v>
+        <v>41.50000000000045</v>
       </c>
     </row>
     <row r="45">
@@ -2395,40 +2395,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>151.0-59.0</t>
+          <t>250.0-264.0</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3830.7</v>
+        <v>3829.5</v>
       </c>
       <c r="E45" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="F45" t="n">
-        <v>6894.4</v>
+        <v>6837.2</v>
       </c>
       <c r="G45" t="n">
-        <v>3827.2</v>
+        <v>3829.9</v>
       </c>
       <c r="H45" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="I45" t="n">
-        <v>6892.4</v>
+        <v>6835.7</v>
       </c>
       <c r="J45" t="n">
-        <v>3.5</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.8924929971988794</v>
       </c>
       <c r="L45" t="n">
-        <v>5.5</v>
+        <v>1.910000000000091</v>
       </c>
     </row>
     <row r="46">
@@ -2439,40 +2439,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>19.0-43.0</t>
+          <t>25.0-166.0</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3827.8</v>
+        <v>3830</v>
       </c>
       <c r="E46" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="F46" t="n">
-        <v>6866.5</v>
+        <v>6878.2</v>
       </c>
       <c r="G46" t="n">
-        <v>3828.1</v>
+        <v>3829.5</v>
       </c>
       <c r="H46" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I46" t="n">
-        <v>6863.4</v>
+        <v>6878.1</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2999999999997272</v>
+        <v>0.5</v>
       </c>
       <c r="K46" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L46" t="n">
-        <v>3.400000000000091</v>
+        <v>0.5999999999994543</v>
       </c>
     </row>
     <row r="47">
@@ -2483,40 +2483,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>173.0-28.0</t>
+          <t>91.0-90.0</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3829.7</v>
+        <v>3822.1</v>
       </c>
       <c r="E47" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="F47" t="n">
-        <v>6877.3</v>
+        <v>6860.8</v>
       </c>
       <c r="G47" t="n">
-        <v>3829.4</v>
+        <v>3822.6</v>
       </c>
       <c r="H47" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="I47" t="n">
-        <v>6869.2</v>
+        <v>6859.5</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2999999999997272</v>
+        <v>0.5</v>
       </c>
       <c r="K47" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L47" t="n">
-        <v>8.400000000000091</v>
+        <v>1.800000000000182</v>
       </c>
     </row>
     <row r="48">
@@ -2527,40 +2527,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>109</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>145.0-30.0</t>
+          <t>274.0-209.0</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3829.8</v>
+        <v>3829.4</v>
       </c>
       <c r="E48" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="F48" t="n">
-        <v>6896.5</v>
+        <v>6839.1</v>
       </c>
       <c r="G48" t="n">
-        <v>3829.4</v>
+        <v>3828.7</v>
       </c>
       <c r="H48" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="I48" t="n">
-        <v>6895.9</v>
+        <v>6829.8</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.7000000000002728</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="L48" t="n">
-        <v>1.000000000000455</v>
+        <v>10.00000000000045</v>
       </c>
     </row>
     <row r="49">
@@ -2571,40 +2571,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>188.0-14.0</t>
+          <t>40.0-53.0</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3828.8</v>
+        <v>3828.6</v>
       </c>
       <c r="E49" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="F49" t="n">
-        <v>6881.6</v>
+        <v>6899.3</v>
       </c>
       <c r="G49" t="n">
         <v>3829.1</v>
       </c>
       <c r="H49" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="I49" t="n">
-        <v>6879.3</v>
+        <v>6896.6</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2999999999997272</v>
+        <v>0.5</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L49" t="n">
-        <v>2.599999999999909</v>
+        <v>3.199999999999818</v>
       </c>
     </row>
     <row r="50">
@@ -2615,40 +2615,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>143.0-176.0</t>
+          <t>177.0-69.0</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3829</v>
+        <v>3828.7</v>
       </c>
       <c r="E50" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="F50" t="n">
-        <v>6884.6</v>
+        <v>6848.5</v>
       </c>
       <c r="G50" t="n">
-        <v>3828.7</v>
+        <v>3828.2</v>
       </c>
       <c r="H50" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I50" t="n">
-        <v>6873.9</v>
+        <v>6843.5</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3000000000001819</v>
+        <v>0.5</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="L50" t="n">
-        <v>11.00000000000091</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="51">
@@ -2659,40 +2659,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>159.0-67.0</t>
+          <t>20.0-168.0</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3823.5</v>
+        <v>3828.1</v>
       </c>
       <c r="E51" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="F51" t="n">
-        <v>6875.1</v>
+        <v>6843.4</v>
       </c>
       <c r="G51" t="n">
-        <v>3825.2</v>
+        <v>3828.8</v>
       </c>
       <c r="H51" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I51" t="n">
-        <v>6846.6</v>
+        <v>6840.9</v>
       </c>
       <c r="J51" t="n">
-        <v>1.699999999999818</v>
+        <v>0.7000000000002728</v>
       </c>
       <c r="K51" t="n">
-        <v>0.9374933333333334</v>
+        <v>0.93</v>
       </c>
       <c r="L51" t="n">
-        <v>30.20999999999982</v>
+        <v>3.200000000000273</v>
       </c>
     </row>
     <row r="52">
@@ -2703,40 +2703,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>186.0-257.0</t>
+          <t>27.0-47.0</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3829.2</v>
+        <v>3829.1</v>
       </c>
       <c r="E52" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="F52" t="n">
-        <v>6873.4</v>
+        <v>6878.2</v>
       </c>
       <c r="G52" t="n">
-        <v>3828.8</v>
+        <v>3829.6</v>
       </c>
       <c r="H52" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="I52" t="n">
-        <v>6830</v>
+        <v>6872.4</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.5</v>
       </c>
       <c r="K52" t="n">
-        <v>0.875</v>
+        <v>0.92</v>
       </c>
       <c r="L52" t="n">
-        <v>43.79999999999927</v>
+        <v>6.300000000000182</v>
       </c>
     </row>
     <row r="53">
@@ -2747,40 +2747,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>42.0-122.0</t>
+          <t>249.0-259.0</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3828.8</v>
+        <v>3829.1</v>
       </c>
       <c r="E53" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="F53" t="n">
-        <v>6899.5</v>
+        <v>6835.4</v>
       </c>
       <c r="G53" t="n">
-        <v>3829.2</v>
+        <v>3829.6</v>
       </c>
       <c r="H53" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I53" t="n">
-        <v>6899.4</v>
+        <v>6827.6</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.5</v>
       </c>
       <c r="K53" t="n">
-        <v>0.92</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L53" t="n">
-        <v>0.5</v>
+        <v>8.299999999999272</v>
       </c>
     </row>
     <row r="54">
@@ -2791,40 +2791,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>220.0-235.0</t>
+          <t>155.0-52.0</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3830.1</v>
+        <v>3829.5</v>
       </c>
       <c r="E54" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="F54" t="n">
-        <v>6836.2</v>
+        <v>6847.7</v>
       </c>
       <c r="G54" t="n">
-        <v>3829</v>
+        <v>3828.7</v>
       </c>
       <c r="H54" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I54" t="n">
-        <v>6827.3</v>
+        <v>6845.4</v>
       </c>
       <c r="J54" t="n">
-        <v>1.099999999999909</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.93</v>
       </c>
       <c r="L54" t="n">
-        <v>9.999999999999545</v>
+        <v>3.100000000000364</v>
       </c>
     </row>
     <row r="55">
@@ -2835,40 +2835,40 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>104.0-216.0</t>
+          <t>102.0-98.0</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3829.2</v>
+        <v>3824.5</v>
       </c>
       <c r="E55" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="F55" t="n">
-        <v>6841.5</v>
+        <v>6895.6</v>
       </c>
       <c r="G55" t="n">
-        <v>3829.6</v>
+        <v>3825</v>
       </c>
       <c r="H55" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I55" t="n">
-        <v>6823.4</v>
+        <v>6887.5</v>
       </c>
       <c r="J55" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.5</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.885</v>
       </c>
       <c r="L55" t="n">
-        <v>18.50000000000045</v>
+        <v>8.600000000000364</v>
       </c>
     </row>
     <row r="56">
@@ -2879,40 +2879,40 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>250.0-264.0</t>
+          <t>50.0-167.0</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3829.5</v>
+        <v>3829.1</v>
       </c>
       <c r="E56" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="F56" t="n">
-        <v>6837.2</v>
+        <v>6868.5</v>
       </c>
       <c r="G56" t="n">
-        <v>3829.9</v>
+        <v>3828.2</v>
       </c>
       <c r="H56" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="I56" t="n">
-        <v>6835.7</v>
+        <v>6860.6</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K56" t="n">
-        <v>0.8924929971988794</v>
+        <v>0.93</v>
       </c>
       <c r="L56" t="n">
-        <v>1.910000000000091</v>
+        <v>8.799999999999727</v>
       </c>
     </row>
     <row r="57">
@@ -2923,40 +2923,40 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>141.0-33.0</t>
+          <t>106.0-184.0</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3828.7</v>
+        <v>3829.3</v>
       </c>
       <c r="E57" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="F57" t="n">
-        <v>6853.3</v>
+        <v>6894.8</v>
       </c>
       <c r="G57" t="n">
-        <v>3829.5</v>
+        <v>3829.9</v>
       </c>
       <c r="H57" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="I57" t="n">
-        <v>6844.7</v>
+        <v>6893.5</v>
       </c>
       <c r="J57" t="n">
-        <v>0.8000000000001819</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K57" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="L57" t="n">
-        <v>9.400000000000546</v>
+        <v>1.900000000000091</v>
       </c>
     </row>
     <row r="58">
@@ -2967,40 +2967,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>121.0-261.0</t>
+          <t>64.0-2.0</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3829.3</v>
+        <v>3828.9</v>
       </c>
       <c r="E58" t="n">
         <v>1.84</v>
       </c>
       <c r="F58" t="n">
-        <v>6844.5</v>
+        <v>6885.5</v>
       </c>
       <c r="G58" t="n">
-        <v>3828.9</v>
+        <v>3829.5</v>
       </c>
       <c r="H58" t="n">
         <v>1.84</v>
       </c>
       <c r="I58" t="n">
-        <v>6838.5</v>
+        <v>6883</v>
       </c>
       <c r="J58" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K58" t="n">
         <v>0.92</v>
       </c>
       <c r="L58" t="n">
-        <v>6.400000000000091</v>
+        <v>3.099999999999909</v>
       </c>
     </row>
     <row r="59">
@@ -3011,40 +3011,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>51.0-1.0</t>
+          <t>68.0-73.0</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3830.1</v>
+        <v>3829.6</v>
       </c>
       <c r="E59" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="F59" t="n">
-        <v>6843.9</v>
+        <v>6871.8</v>
       </c>
       <c r="G59" t="n">
-        <v>3829.7</v>
+        <v>3827.5</v>
       </c>
       <c r="H59" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="I59" t="n">
-        <v>6843.2</v>
+        <v>6870.3</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4000000000000909</v>
+        <v>2.099999999999909</v>
       </c>
       <c r="K59" t="n">
-        <v>0.885</v>
+        <v>0.93</v>
       </c>
       <c r="L59" t="n">
-        <v>1.099999999999909</v>
+        <v>3.599999999999909</v>
       </c>
     </row>
     <row r="60">
@@ -3055,40 +3055,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>12.0-49.0</t>
+          <t>80.0-79.0</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3829.9</v>
+        <v>3829.4</v>
       </c>
       <c r="E60" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="F60" t="n">
-        <v>6861.8</v>
+        <v>6890.7</v>
       </c>
       <c r="G60" t="n">
-        <v>3829.3</v>
+        <v>3828.8</v>
       </c>
       <c r="H60" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="I60" t="n">
-        <v>6856.8</v>
+        <v>6887.6</v>
       </c>
       <c r="J60" t="n">
         <v>0.5999999999999091</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L60" t="n">
-        <v>5.599999999999909</v>
+        <v>3.699999999999363</v>
       </c>
     </row>
     <row r="61">
@@ -3099,40 +3099,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>97.0-160.0</t>
+          <t>3.0-241.0</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3828.5</v>
+        <v>3829</v>
       </c>
       <c r="E61" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="F61" t="n">
-        <v>6899.5</v>
+        <v>6843</v>
       </c>
       <c r="G61" t="n">
-        <v>3828.1</v>
+        <v>3828.4</v>
       </c>
       <c r="H61" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="I61" t="n">
-        <v>6858.4</v>
+        <v>6839.6</v>
       </c>
       <c r="J61" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K61" t="n">
-        <v>0.8899999999999999</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L61" t="n">
-        <v>41.50000000000045</v>
+        <v>3.999999999999545</v>
       </c>
     </row>
     <row r="62">
@@ -3143,40 +3143,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>110.0-4.0</t>
+          <t>7.0-103.0</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3828.7</v>
+        <v>3829</v>
       </c>
       <c r="E62" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="F62" t="n">
-        <v>6879.2</v>
+        <v>6882.7</v>
       </c>
       <c r="G62" t="n">
-        <v>3829.6</v>
+        <v>3828.4</v>
       </c>
       <c r="H62" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="I62" t="n">
-        <v>6864.6</v>
+        <v>6878.6</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9000000000000909</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K62" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.92</v>
       </c>
       <c r="L62" t="n">
-        <v>15.49999999999955</v>
+        <v>4.699999999999363</v>
       </c>
     </row>
     <row r="63">
@@ -3187,40 +3187,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>131.0-183.0</t>
+          <t>149.0-136.0</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3829.7</v>
+        <v>3826.7</v>
       </c>
       <c r="E63" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="F63" t="n">
-        <v>6888.4</v>
+        <v>6888.3</v>
       </c>
       <c r="G63" t="n">
-        <v>3830.1</v>
+        <v>3828.9</v>
       </c>
       <c r="H63" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="I63" t="n">
-        <v>6883.2</v>
+        <v>6881</v>
       </c>
       <c r="J63" t="n">
-        <v>0.4000000000000909</v>
+        <v>2.200000000000273</v>
       </c>
       <c r="K63" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L63" t="n">
-        <v>5.599999999999909</v>
+        <v>9.500000000000455</v>
       </c>
     </row>
     <row r="64">
@@ -3231,40 +3231,40 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>164.0-105.0</t>
+          <t>112.0-70.0</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3829</v>
+        <v>3829.1</v>
       </c>
       <c r="E64" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="F64" t="n">
-        <v>6897.9</v>
+        <v>6883.1</v>
       </c>
       <c r="G64" t="n">
-        <v>3828.6</v>
+        <v>3828.5</v>
       </c>
       <c r="H64" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="I64" t="n">
-        <v>6880.8</v>
+        <v>6877.3</v>
       </c>
       <c r="J64" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K64" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L64" t="n">
-        <v>17.49999999999955</v>
+        <v>6.400000000000091</v>
       </c>
     </row>
     <row r="65">
@@ -3319,40 +3319,40 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>106.0-184.0</t>
+          <t>134.0-252.0</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3829.3</v>
+        <v>3830.1</v>
       </c>
       <c r="E66" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="F66" t="n">
-        <v>6894.8</v>
+        <v>6856.4</v>
       </c>
       <c r="G66" t="n">
-        <v>3829.9</v>
+        <v>3829.5</v>
       </c>
       <c r="H66" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="I66" t="n">
-        <v>6893.5</v>
+        <v>6828.7</v>
       </c>
       <c r="J66" t="n">
         <v>0.5999999999999091</v>
       </c>
       <c r="K66" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L66" t="n">
-        <v>1.900000000000091</v>
+        <v>28.29999999999973</v>
       </c>
     </row>
     <row r="67">
@@ -3451,40 +3451,40 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>142.0-129.0</t>
+          <t>169.0-152.0</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3829.8</v>
+        <v>3829.9</v>
       </c>
       <c r="E69" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="F69" t="n">
-        <v>6878.8</v>
+        <v>6864.6</v>
       </c>
       <c r="G69" t="n">
-        <v>3828.3</v>
+        <v>3829.2</v>
       </c>
       <c r="H69" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I69" t="n">
-        <v>6877.7</v>
+        <v>6863.1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.5</v>
+        <v>0.7000000000002728</v>
       </c>
       <c r="K69" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.92</v>
       </c>
       <c r="L69" t="n">
-        <v>2.600000000000364</v>
+        <v>2.200000000000273</v>
       </c>
     </row>
     <row r="70">
@@ -3495,40 +3495,40 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>169.0-152.0</t>
+          <t>142.0-129.0</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3829.9</v>
+        <v>3829.8</v>
       </c>
       <c r="E70" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="F70" t="n">
-        <v>6864.6</v>
+        <v>6878.8</v>
       </c>
       <c r="G70" t="n">
-        <v>3829.2</v>
+        <v>3828.3</v>
       </c>
       <c r="H70" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I70" t="n">
-        <v>6863.1</v>
+        <v>6877.7</v>
       </c>
       <c r="J70" t="n">
-        <v>0.7000000000002728</v>
+        <v>1.5</v>
       </c>
       <c r="K70" t="n">
-        <v>0.92</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L70" t="n">
-        <v>2.200000000000273</v>
+        <v>2.600000000000364</v>
       </c>
     </row>
     <row r="71">
@@ -3627,40 +3627,40 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>266.0-219.0</t>
+          <t>48.0-146.0</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3829.5</v>
+        <v>3828.4</v>
       </c>
       <c r="E73" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="F73" t="n">
-        <v>6826.5</v>
+        <v>6877.7</v>
       </c>
       <c r="G73" t="n">
-        <v>3828.4</v>
+        <v>3829.2</v>
       </c>
       <c r="H73" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I73" t="n">
-        <v>6825.8</v>
+        <v>6876.6</v>
       </c>
       <c r="J73" t="n">
-        <v>1.099999999999909</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="K73" t="n">
-        <v>0.92</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L73" t="n">
-        <v>1.799999999999727</v>
+        <v>1.899999999999181</v>
       </c>
     </row>
     <row r="74">
@@ -3671,40 +3671,40 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>48.0-146.0</t>
+          <t>266.0-219.0</t>
         </is>
       </c>
       <c r="D74" t="n">
+        <v>3829.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F74" t="n">
+        <v>6826.5</v>
+      </c>
+      <c r="G74" t="n">
         <v>3828.4</v>
       </c>
-      <c r="E74" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="F74" t="n">
-        <v>6877.7</v>
-      </c>
-      <c r="G74" t="n">
-        <v>3829.2</v>
-      </c>
       <c r="H74" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I74" t="n">
-        <v>6876.6</v>
+        <v>6825.8</v>
       </c>
       <c r="J74" t="n">
-        <v>0.7999999999997272</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K74" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L74" t="n">
-        <v>1.899999999999181</v>
+        <v>1.799999999999727</v>
       </c>
     </row>
     <row r="75">
@@ -3803,40 +3803,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>46.0-85.0</t>
+          <t>150.0-158.0</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3828.8</v>
+        <v>3830</v>
       </c>
       <c r="E77" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="F77" t="n">
-        <v>6846.8</v>
+        <v>6876.1</v>
       </c>
       <c r="G77" t="n">
-        <v>3825.2</v>
+        <v>3829.2</v>
       </c>
       <c r="H77" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I77" t="n">
-        <v>6846.7</v>
+        <v>6873.5</v>
       </c>
       <c r="J77" t="n">
-        <v>3.600000000000364</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K77" t="n">
-        <v>0.92</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L77" t="n">
-        <v>3.700000000000728</v>
+        <v>3.400000000000546</v>
       </c>
     </row>
     <row r="78">
@@ -3847,40 +3847,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>118.0-76.0</t>
+          <t>46.0-85.0</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3828</v>
+        <v>3828.8</v>
       </c>
       <c r="E78" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="F78" t="n">
-        <v>6876.3</v>
+        <v>6846.8</v>
       </c>
       <c r="G78" t="n">
-        <v>3828.8</v>
+        <v>3825.2</v>
       </c>
       <c r="H78" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="I78" t="n">
-        <v>6873.1</v>
+        <v>6846.7</v>
       </c>
       <c r="J78" t="n">
-        <v>0.8000000000001819</v>
+        <v>3.600000000000364</v>
       </c>
       <c r="K78" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L78" t="n">
-        <v>4</v>
+        <v>3.700000000000728</v>
       </c>
     </row>
     <row r="79">
@@ -3891,40 +3891,40 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>150.0-158.0</t>
+          <t>118.0-76.0</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3830</v>
+        <v>3828</v>
       </c>
       <c r="E79" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="F79" t="n">
-        <v>6876.1</v>
+        <v>6876.3</v>
       </c>
       <c r="G79" t="n">
-        <v>3829.2</v>
+        <v>3828.8</v>
       </c>
       <c r="H79" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="I79" t="n">
-        <v>6873.5</v>
+        <v>6873.1</v>
       </c>
       <c r="J79" t="n">
         <v>0.8000000000001819</v>
       </c>
       <c r="K79" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L79" t="n">
-        <v>3.400000000000546</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -4067,40 +4067,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>253.0-211.0</t>
+          <t>115.0-37.0</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3829.5</v>
+        <v>3830</v>
       </c>
       <c r="E83" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="F83" t="n">
-        <v>6825.1</v>
+        <v>6842</v>
       </c>
       <c r="G83" t="n">
-        <v>3828.6</v>
+        <v>3829.1</v>
       </c>
       <c r="H83" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="I83" t="n">
-        <v>6820.6</v>
+        <v>6841.4</v>
       </c>
       <c r="J83" t="n">
         <v>0.9000000000000909</v>
       </c>
       <c r="K83" t="n">
-        <v>0.892436974789916</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L83" t="n">
-        <v>5.430000000000091</v>
+        <v>1.500000000000455</v>
       </c>
     </row>
     <row r="84">
@@ -4111,40 +4111,40 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>119.0-263.0</t>
+          <t>120.0-165.0</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3829.3</v>
+        <v>3828.9</v>
       </c>
       <c r="E84" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="F84" t="n">
-        <v>6841.7</v>
+        <v>6885.5</v>
       </c>
       <c r="G84" t="n">
-        <v>3828.4</v>
+        <v>3828</v>
       </c>
       <c r="H84" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="I84" t="n">
-        <v>6828.2</v>
+        <v>6883.8</v>
       </c>
       <c r="J84" t="n">
         <v>0.9000000000000909</v>
       </c>
       <c r="K84" t="n">
-        <v>0.885</v>
+        <v>0.895</v>
       </c>
       <c r="L84" t="n">
-        <v>14.40000000000009</v>
+        <v>2.599999999999909</v>
       </c>
     </row>
     <row r="85">
@@ -4199,31 +4199,31 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>115.0-37.0</t>
+          <t>194.0-55.0</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3830</v>
+        <v>3828.5</v>
       </c>
       <c r="E86" t="n">
         <v>1.82</v>
       </c>
       <c r="F86" t="n">
-        <v>6842</v>
+        <v>6860.7</v>
       </c>
       <c r="G86" t="n">
-        <v>3829.1</v>
+        <v>3829.4</v>
       </c>
       <c r="H86" t="n">
         <v>1.82</v>
       </c>
       <c r="I86" t="n">
-        <v>6841.4</v>
+        <v>6856.2</v>
       </c>
       <c r="J86" t="n">
         <v>0.9000000000000909</v>
@@ -4232,7 +4232,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="L86" t="n">
-        <v>1.500000000000455</v>
+        <v>5.400000000000091</v>
       </c>
     </row>
     <row r="87">
@@ -4243,40 +4243,40 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>105</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>194.0-55.0</t>
+          <t>119.0-263.0</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3828.5</v>
+        <v>3829.3</v>
       </c>
       <c r="E87" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="F87" t="n">
-        <v>6860.7</v>
+        <v>6841.7</v>
       </c>
       <c r="G87" t="n">
-        <v>3829.4</v>
+        <v>3828.4</v>
       </c>
       <c r="H87" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="I87" t="n">
-        <v>6856.2</v>
+        <v>6828.2</v>
       </c>
       <c r="J87" t="n">
         <v>0.9000000000000909</v>
       </c>
       <c r="K87" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="L87" t="n">
-        <v>5.400000000000091</v>
+        <v>14.40000000000009</v>
       </c>
     </row>
     <row r="88">
@@ -4331,40 +4331,40 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>120.0-165.0</t>
+          <t>253.0-211.0</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3828.9</v>
+        <v>3829.5</v>
       </c>
       <c r="E89" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="F89" t="n">
-        <v>6885.5</v>
+        <v>6825.1</v>
       </c>
       <c r="G89" t="n">
-        <v>3828</v>
+        <v>3828.6</v>
       </c>
       <c r="H89" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I89" t="n">
-        <v>6883.8</v>
+        <v>6820.6</v>
       </c>
       <c r="J89" t="n">
         <v>0.9000000000000909</v>
       </c>
       <c r="K89" t="n">
-        <v>0.895</v>
+        <v>0.892436974789916</v>
       </c>
       <c r="L89" t="n">
-        <v>2.599999999999909</v>
+        <v>5.430000000000091</v>
       </c>
     </row>
     <row r="90">
@@ -4419,40 +4419,40 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>198.0-87.0</t>
+          <t>196.0-114.0</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3825.3</v>
+        <v>3828.6</v>
       </c>
       <c r="E91" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="F91" t="n">
-        <v>6865.9</v>
+        <v>6897</v>
       </c>
       <c r="G91" t="n">
-        <v>3826.3</v>
+        <v>3827.6</v>
       </c>
       <c r="H91" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="I91" t="n">
-        <v>6854.4</v>
+        <v>6890</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>0.885</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L91" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -4463,40 +4463,40 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>196.0-114.0</t>
+          <t>198.0-87.0</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3828.6</v>
+        <v>3825.3</v>
       </c>
       <c r="E92" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="F92" t="n">
-        <v>6897</v>
+        <v>6865.9</v>
       </c>
       <c r="G92" t="n">
-        <v>3827.6</v>
+        <v>3826.3</v>
       </c>
       <c r="H92" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="I92" t="n">
-        <v>6890</v>
+        <v>6854.4</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="L92" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="93">
@@ -4507,40 +4507,40 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>226.0-267.0</t>
+          <t>84.0-16.0</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3829</v>
+        <v>3829.2</v>
       </c>
       <c r="E93" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="F93" t="n">
-        <v>6834.8</v>
+        <v>6857.5</v>
       </c>
       <c r="G93" t="n">
-        <v>3830.1</v>
+        <v>3828.1</v>
       </c>
       <c r="H93" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="I93" t="n">
-        <v>6830.6</v>
+        <v>6857.3</v>
       </c>
       <c r="J93" t="n">
         <v>1.099999999999909</v>
       </c>
       <c r="K93" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="L93" t="n">
-        <v>5.299999999999727</v>
+        <v>1.299999999999727</v>
       </c>
     </row>
     <row r="94">
@@ -4551,40 +4551,40 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>84.0-16.0</t>
+          <t>111.0-74.0</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3829.2</v>
+        <v>3829.4</v>
       </c>
       <c r="E94" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="F94" t="n">
-        <v>6857.5</v>
+        <v>6877.7</v>
       </c>
       <c r="G94" t="n">
-        <v>3828.1</v>
+        <v>3828.3</v>
       </c>
       <c r="H94" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="I94" t="n">
-        <v>6857.3</v>
+        <v>6877</v>
       </c>
       <c r="J94" t="n">
         <v>1.099999999999909</v>
       </c>
       <c r="K94" t="n">
-        <v>0.895</v>
+        <v>0.875</v>
       </c>
       <c r="L94" t="n">
-        <v>1.299999999999727</v>
+        <v>1.799999999999727</v>
       </c>
     </row>
     <row r="95">
@@ -4595,40 +4595,40 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>180.0-92.0</t>
+          <t>38.0-197.0</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3822.2</v>
+        <v>3829.5</v>
       </c>
       <c r="E95" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="F95" t="n">
-        <v>6896.2</v>
+        <v>6883.2</v>
       </c>
       <c r="G95" t="n">
-        <v>3825.2</v>
+        <v>3828.4</v>
       </c>
       <c r="H95" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I95" t="n">
-        <v>6888.5</v>
+        <v>6882.5</v>
       </c>
       <c r="J95" t="n">
-        <v>3</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K95" t="n">
-        <v>0.92</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L95" t="n">
-        <v>10.69999999999982</v>
+        <v>1.799999999999727</v>
       </c>
     </row>
     <row r="96">
@@ -4639,40 +4639,40 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>195.0-117.0</t>
+          <t>180.0-92.0</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3828</v>
+        <v>3822.2</v>
       </c>
       <c r="E96" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="F96" t="n">
-        <v>6878.3</v>
+        <v>6896.2</v>
       </c>
       <c r="G96" t="n">
-        <v>3829.1</v>
+        <v>3825.2</v>
       </c>
       <c r="H96" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="I96" t="n">
-        <v>6872.5</v>
+        <v>6888.5</v>
       </c>
       <c r="J96" t="n">
-        <v>1.099999999999909</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L96" t="n">
-        <v>6.900000000000091</v>
+        <v>10.69999999999982</v>
       </c>
     </row>
     <row r="97">
@@ -4683,40 +4683,40 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>111.0-74.0</t>
+          <t>226.0-267.0</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>3829.4</v>
+        <v>3829</v>
       </c>
       <c r="E97" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="F97" t="n">
-        <v>6877.7</v>
+        <v>6834.8</v>
       </c>
       <c r="G97" t="n">
-        <v>3828.3</v>
+        <v>3830.1</v>
       </c>
       <c r="H97" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="I97" t="n">
-        <v>6877</v>
+        <v>6830.6</v>
       </c>
       <c r="J97" t="n">
         <v>1.099999999999909</v>
       </c>
       <c r="K97" t="n">
-        <v>0.875</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L97" t="n">
-        <v>1.799999999999727</v>
+        <v>5.299999999999727</v>
       </c>
     </row>
     <row r="98">
@@ -4727,40 +4727,40 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>116.0-29.0</t>
+          <t>113.0-133.0</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3829.5</v>
+        <v>3828.8</v>
       </c>
       <c r="E98" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="F98" t="n">
-        <v>6896.6</v>
+        <v>6899.8</v>
       </c>
       <c r="G98" t="n">
-        <v>3828.1</v>
+        <v>3829.9</v>
       </c>
       <c r="H98" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="I98" t="n">
-        <v>6892.2</v>
+        <v>6895.3</v>
       </c>
       <c r="J98" t="n">
-        <v>1.400000000000091</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K98" t="n">
-        <v>0.92</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L98" t="n">
-        <v>5.800000000000637</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="99">
@@ -4771,40 +4771,40 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>38.0-197.0</t>
+          <t>116.0-29.0</t>
         </is>
       </c>
       <c r="D99" t="n">
         <v>3829.5</v>
       </c>
       <c r="E99" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F99" t="n">
-        <v>6883.2</v>
+        <v>6896.6</v>
       </c>
       <c r="G99" t="n">
-        <v>3828.4</v>
+        <v>3828.1</v>
       </c>
       <c r="H99" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I99" t="n">
-        <v>6882.5</v>
+        <v>6892.2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.099999999999909</v>
+        <v>1.400000000000091</v>
       </c>
       <c r="K99" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L99" t="n">
-        <v>1.799999999999727</v>
+        <v>5.800000000000637</v>
       </c>
     </row>
     <row r="100">
@@ -4815,31 +4815,31 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>199.0-124.0</t>
+          <t>195.0-117.0</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3830.5</v>
+        <v>3828</v>
       </c>
       <c r="E100" t="n">
         <v>1.76</v>
       </c>
       <c r="F100" t="n">
-        <v>6896.3</v>
+        <v>6878.3</v>
       </c>
       <c r="G100" t="n">
-        <v>3829.4</v>
+        <v>3829.1</v>
       </c>
       <c r="H100" t="n">
         <v>1.76</v>
       </c>
       <c r="I100" t="n">
-        <v>6886.7</v>
+        <v>6872.5</v>
       </c>
       <c r="J100" t="n">
         <v>1.099999999999909</v>
@@ -4848,7 +4848,7 @@
         <v>0.8799999999999999</v>
       </c>
       <c r="L100" t="n">
-        <v>10.70000000000027</v>
+        <v>6.900000000000091</v>
       </c>
     </row>
     <row r="101">
@@ -4859,40 +4859,40 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>113.0-133.0</t>
+          <t>199.0-124.0</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3828.8</v>
+        <v>3830.5</v>
       </c>
       <c r="E101" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="F101" t="n">
-        <v>6899.8</v>
+        <v>6896.3</v>
       </c>
       <c r="G101" t="n">
-        <v>3829.9</v>
+        <v>3829.4</v>
       </c>
       <c r="H101" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="I101" t="n">
-        <v>6895.3</v>
+        <v>6886.7</v>
       </c>
       <c r="J101" t="n">
         <v>1.099999999999909</v>
       </c>
       <c r="K101" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L101" t="n">
-        <v>5.599999999999909</v>
+        <v>10.70000000000027</v>
       </c>
     </row>
     <row r="102">
@@ -4947,40 +4947,40 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>96.0-205.0</t>
+          <t>21.0-181.0</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3823.4</v>
+        <v>3830</v>
       </c>
       <c r="E103" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="F103" t="n">
-        <v>6873.9</v>
+        <v>6875</v>
       </c>
       <c r="G103" t="n">
-        <v>3822.1</v>
+        <v>3828.7</v>
       </c>
       <c r="H103" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="I103" t="n">
-        <v>6826.8</v>
+        <v>6868.7</v>
       </c>
       <c r="J103" t="n">
         <v>1.300000000000182</v>
       </c>
       <c r="K103" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L103" t="n">
-        <v>48.39999999999964</v>
+        <v>7.600000000000364</v>
       </c>
     </row>
     <row r="104">
@@ -5035,40 +5035,40 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>21.0-181.0</t>
+          <t>96.0-205.0</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3830</v>
+        <v>3823.4</v>
       </c>
       <c r="E105" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="F105" t="n">
-        <v>6875</v>
+        <v>6873.9</v>
       </c>
       <c r="G105" t="n">
-        <v>3828.7</v>
+        <v>3822.1</v>
       </c>
       <c r="H105" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="I105" t="n">
-        <v>6868.7</v>
+        <v>6826.8</v>
       </c>
       <c r="J105" t="n">
         <v>1.300000000000182</v>
       </c>
       <c r="K105" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="L105" t="n">
-        <v>7.600000000000364</v>
+        <v>48.39999999999964</v>
       </c>
     </row>
     <row r="106">
@@ -5167,40 +5167,40 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>221.0-247.0</t>
+          <t>123.0-15.0</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3830</v>
+        <v>3829.5</v>
       </c>
       <c r="E108" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="F108" t="n">
-        <v>6839.1</v>
+        <v>6878.1</v>
       </c>
       <c r="G108" t="n">
-        <v>3828.5</v>
+        <v>3828</v>
       </c>
       <c r="H108" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I108" t="n">
-        <v>6836.6</v>
+        <v>6877.9</v>
       </c>
       <c r="J108" t="n">
         <v>1.5</v>
       </c>
       <c r="K108" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="L108" t="n">
-        <v>4</v>
+        <v>1.700000000000728</v>
       </c>
     </row>
     <row r="109">
@@ -5211,40 +5211,40 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>154.0-260.0</t>
+          <t>221.0-247.0</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>3827.9</v>
+        <v>3830</v>
       </c>
       <c r="E109" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="F109" t="n">
-        <v>6856.5</v>
+        <v>6839.1</v>
       </c>
       <c r="G109" t="n">
-        <v>3829.4</v>
+        <v>3828.5</v>
       </c>
       <c r="H109" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="I109" t="n">
-        <v>6839.4</v>
+        <v>6836.6</v>
       </c>
       <c r="J109" t="n">
         <v>1.5</v>
       </c>
       <c r="K109" t="n">
-        <v>0.8899999999999999</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L109" t="n">
-        <v>18.60000000000036</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -5255,40 +5255,40 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>123.0-15.0</t>
+          <t>154.0-260.0</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3829.5</v>
+        <v>3827.9</v>
       </c>
       <c r="E110" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="F110" t="n">
-        <v>6878.1</v>
+        <v>6856.5</v>
       </c>
       <c r="G110" t="n">
-        <v>3828</v>
+        <v>3829.4</v>
       </c>
       <c r="H110" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I110" t="n">
-        <v>6877.9</v>
+        <v>6839.4</v>
       </c>
       <c r="J110" t="n">
         <v>1.5</v>
       </c>
       <c r="K110" t="n">
-        <v>0.895</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="L110" t="n">
-        <v>1.700000000000728</v>
+        <v>18.60000000000036</v>
       </c>
     </row>
     <row r="111">
@@ -6003,40 +6003,40 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>212.0-239.0</t>
+          <t>254.0-225.0</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3828.7</v>
+        <v>3828.9</v>
       </c>
       <c r="E127" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="F127" t="n">
-        <v>6807</v>
+        <v>6809.9</v>
       </c>
       <c r="G127" t="n">
-        <v>3828.5</v>
+        <v>3829.1</v>
       </c>
       <c r="H127" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I127" t="n">
-        <v>6804</v>
+        <v>6807.4</v>
       </c>
       <c r="J127" t="n">
         <v>0.1999999999998181</v>
       </c>
       <c r="K127" t="n">
-        <v>0.92</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L127" t="n">
-        <v>3.199999999999818</v>
+        <v>2.699999999999818</v>
       </c>
     </row>
     <row r="128">
@@ -6047,40 +6047,40 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>254.0-225.0</t>
+          <t>212.0-239.0</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3828.9</v>
+        <v>3828.7</v>
       </c>
       <c r="E128" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F128" t="n">
-        <v>6809.9</v>
+        <v>6807</v>
       </c>
       <c r="G128" t="n">
-        <v>3829.1</v>
+        <v>3828.5</v>
       </c>
       <c r="H128" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I128" t="n">
-        <v>6807.4</v>
+        <v>6804</v>
       </c>
       <c r="J128" t="n">
         <v>0.1999999999998181</v>
       </c>
       <c r="K128" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L128" t="n">
-        <v>2.699999999999818</v>
+        <v>3.199999999999818</v>
       </c>
     </row>
     <row r="129">

--- a/pythonProject/output_segments.xlsx
+++ b/pythonProject/output_segments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,40 +503,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>172.0-26.0</t>
+          <t>19.0-43.0</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3829.3</v>
+        <v>3827.8</v>
       </c>
       <c r="E2" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="F2" t="n">
-        <v>6878.3</v>
+        <v>6866.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3829.3</v>
+        <v>3828.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="I2" t="n">
-        <v>6872.7</v>
+        <v>6863.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K2" t="n">
-        <v>0.93</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>5.600000000000364</v>
+        <v>3.400000000000091</v>
       </c>
     </row>
     <row r="3">
@@ -547,40 +547,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>147.0-126.0</t>
+          <t>151.0-58.0</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3829.6</v>
+        <v>3830.7</v>
       </c>
       <c r="E3" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="F3" t="n">
-        <v>6892.9</v>
+        <v>6894.4</v>
       </c>
       <c r="G3" t="n">
-        <v>3829.5</v>
+        <v>3830.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="I3" t="n">
-        <v>6892.2</v>
+        <v>6873.1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09999999999990905</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7999999999997272</v>
+        <v>21.89999999999918</v>
       </c>
     </row>
     <row r="4">
@@ -591,40 +591,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>138.0-236.0</t>
+          <t>55.0-17.0</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3827.3</v>
+        <v>3829.4</v>
       </c>
       <c r="E4" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="F4" t="n">
-        <v>6869.3</v>
+        <v>6856.2</v>
       </c>
       <c r="G4" t="n">
-        <v>3828.1</v>
+        <v>3829.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="I4" t="n">
-        <v>6831.5</v>
+        <v>6852.2</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7999999999997272</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9624935064935063</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>38.60999999999991</v>
+        <v>4.299999999999727</v>
       </c>
     </row>
     <row r="5">
@@ -635,40 +635,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>127.0-35.0</t>
+          <t>271.0-272.0</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>3830.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6832.1</v>
+      </c>
+      <c r="G5" t="n">
         <v>3830.6</v>
       </c>
-      <c r="E5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6866.1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3830.5</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="I5" t="n">
-        <v>6864.5</v>
+        <v>6826.8</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09999999999990905</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L5" t="n">
-        <v>1.700000000000273</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="6">
@@ -679,40 +679,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>157.0-83.0</t>
+          <t>145.0-30.0</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3829.2</v>
+        <v>3829.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="F6" t="n">
-        <v>6871.8</v>
+        <v>6896.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3829.1</v>
+        <v>3829.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="I6" t="n">
-        <v>6862.4</v>
+        <v>6895.9</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09999999999990905</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K6" t="n">
-        <v>0.895</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>9.500000000000455</v>
+        <v>1.000000000000455</v>
       </c>
     </row>
     <row r="7">
@@ -723,40 +723,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>156.0-222.0</t>
+          <t>173.0-28.0</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3827.2</v>
+        <v>3829.7</v>
       </c>
       <c r="E7" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="F7" t="n">
-        <v>6859</v>
+        <v>6877.3</v>
       </c>
       <c r="G7" t="n">
-        <v>3829.1</v>
+        <v>3829.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="I7" t="n">
-        <v>6831.9</v>
+        <v>6869.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.900000000000091</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L7" t="n">
-        <v>29.00000000000045</v>
+        <v>8.400000000000091</v>
       </c>
     </row>
     <row r="8">
@@ -767,40 +767,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>86.0-242.0</t>
+          <t>143.0-176.0</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3829.6</v>
+        <v>3829</v>
       </c>
       <c r="E8" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="F8" t="n">
-        <v>6840.1</v>
+        <v>6884.6</v>
       </c>
       <c r="G8" t="n">
-        <v>3829.7</v>
+        <v>3828.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="I8" t="n">
-        <v>6828.3</v>
+        <v>6873.9</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09999999999990905</v>
+        <v>0.3000000000001819</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>11.90000000000009</v>
+        <v>11.00000000000091</v>
       </c>
     </row>
     <row r="9">
@@ -811,40 +811,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>34.0-163.0</t>
+          <t>159.0-67.0</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3830</v>
+        <v>3823.5</v>
       </c>
       <c r="E9" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="F9" t="n">
-        <v>6860.6</v>
+        <v>6875.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3830.1</v>
+        <v>3825.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="I9" t="n">
-        <v>6845.3</v>
+        <v>6846.6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09999999999990905</v>
+        <v>1.699999999999818</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.9374933333333334</v>
       </c>
       <c r="L9" t="n">
-        <v>15.40000000000009</v>
+        <v>30.20999999999982</v>
       </c>
     </row>
     <row r="10">
@@ -855,40 +855,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>130.0-262.0</t>
+          <t>42.0-122.0</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3829.3</v>
+        <v>3828.8</v>
       </c>
       <c r="E10" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="F10" t="n">
-        <v>6856.6</v>
+        <v>6899.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3829.8</v>
+        <v>3829.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="I10" t="n">
-        <v>6835</v>
+        <v>6899.4</v>
       </c>
       <c r="J10" t="n">
+        <v>0.3999999999996362</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.9449999999999998</v>
-      </c>
-      <c r="L10" t="n">
-        <v>22.10000000000036</v>
       </c>
     </row>
     <row r="11">
@@ -899,40 +899,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>210.0-246.0</t>
+          <t>220.0-235.0</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3829.1</v>
+        <v>3830.1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="F11" t="n">
-        <v>6825.7</v>
+        <v>6836.2</v>
       </c>
       <c r="G11" t="n">
-        <v>3829.2</v>
+        <v>3829</v>
       </c>
       <c r="H11" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="I11" t="n">
-        <v>6824.5</v>
+        <v>6827.3</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09999999999990905</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9124931506849315</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L11" t="n">
-        <v>1.309999999999727</v>
+        <v>9.999999999999545</v>
       </c>
     </row>
     <row r="12">
@@ -943,40 +943,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>251.0-238.0</t>
+          <t>186.0-257.0</t>
         </is>
       </c>
       <c r="D12" t="n">
+        <v>3829.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6873.4</v>
+      </c>
+      <c r="G12" t="n">
         <v>3828.8</v>
       </c>
-      <c r="E12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6824.3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3828.7</v>
-      </c>
       <c r="H12" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="I12" t="n">
-        <v>6820.9</v>
+        <v>6830</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1000000000003638</v>
+        <v>0.3999999999996362</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9148907103825137</v>
+        <v>0.875</v>
       </c>
       <c r="L12" t="n">
-        <v>3.54000000000091</v>
+        <v>43.79999999999927</v>
       </c>
     </row>
     <row r="13">
@@ -987,40 +987,40 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>140.0-32.0</t>
+          <t>213.0-226.0</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3829.5</v>
+        <v>3828.6</v>
       </c>
       <c r="E13" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="F13" t="n">
-        <v>6873.8</v>
+        <v>6835.3</v>
       </c>
       <c r="G13" t="n">
-        <v>3829.9</v>
+        <v>3829</v>
       </c>
       <c r="H13" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="I13" t="n">
-        <v>6863.6</v>
+        <v>6834.8</v>
       </c>
       <c r="J13" t="n">
         <v>0.4000000000000909</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9449999999999998</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>10.59999999999991</v>
+        <v>0.9000000000000909</v>
       </c>
     </row>
     <row r="14">
@@ -1031,40 +1031,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>82.0-174.0</t>
+          <t>141.0-33.0</t>
         </is>
       </c>
       <c r="D14" t="n">
+        <v>3828.7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6853.3</v>
+      </c>
+      <c r="G14" t="n">
         <v>3829.5</v>
       </c>
-      <c r="E14" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6847.4</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3829.3</v>
-      </c>
       <c r="H14" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="I14" t="n">
-        <v>6847.3</v>
+        <v>6844.7</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K14" t="n">
-        <v>0.92</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2999999999992724</v>
+        <v>9.400000000000546</v>
       </c>
     </row>
     <row r="15">
@@ -1075,40 +1075,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>128.0-9.0</t>
+          <t>51.0-1.0</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3829.1</v>
+        <v>3830.1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="F15" t="n">
-        <v>6894.5</v>
+        <v>6843.9</v>
       </c>
       <c r="G15" t="n">
-        <v>3828.9</v>
+        <v>3829.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="I15" t="n">
-        <v>6893.9</v>
+        <v>6843.2</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.885</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8000000000001819</v>
+        <v>1.099999999999909</v>
       </c>
     </row>
     <row r="16">
@@ -1119,40 +1119,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>255.0-273.0</t>
+          <t>12.0-49.0</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3829.4</v>
+        <v>3829.9</v>
       </c>
       <c r="E16" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="F16" t="n">
-        <v>6825.8</v>
+        <v>6861.8</v>
       </c>
       <c r="G16" t="n">
-        <v>3830.1</v>
+        <v>3829.3</v>
       </c>
       <c r="H16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I16" t="n">
-        <v>6819.6</v>
+        <v>6856.8</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6999999999998181</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9447619047619047</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L16" t="n">
-        <v>6.959999999999636</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="17">
@@ -1163,40 +1163,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17.0-36.0</t>
+          <t>13.0-63.0</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3829.7</v>
+        <v>3828.9</v>
       </c>
       <c r="E17" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="F17" t="n">
-        <v>6852.2</v>
+        <v>6893.6</v>
       </c>
       <c r="G17" t="n">
-        <v>3829.5</v>
+        <v>3828.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I17" t="n">
-        <v>6849.1</v>
+        <v>6890.4</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="L17" t="n">
-        <v>3.299999999999272</v>
+        <v>3.600000000000819</v>
       </c>
     </row>
     <row r="18">
@@ -1207,40 +1207,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>248.0-244.0</t>
+          <t>131.0-183.0</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3828.9</v>
+        <v>3829.7</v>
       </c>
       <c r="E18" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="F18" t="n">
-        <v>6828.6</v>
+        <v>6888.4</v>
       </c>
       <c r="G18" t="n">
-        <v>3829.1</v>
+        <v>3830.1</v>
       </c>
       <c r="H18" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="I18" t="n">
-        <v>6821.7</v>
+        <v>6883.2</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K18" t="n">
-        <v>0.93</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>7.100000000000364</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="19">
@@ -1251,40 +1251,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>65.0-88.0</t>
+          <t>110.0-4.0</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>3828.7</v>
       </c>
       <c r="E19" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="F19" t="n">
-        <v>6864.4</v>
+        <v>6879.2</v>
       </c>
       <c r="G19" t="n">
-        <v>3828.5</v>
+        <v>3829.6</v>
       </c>
       <c r="H19" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="I19" t="n">
-        <v>6846.1</v>
+        <v>6864.6</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L19" t="n">
-        <v>18.49999999999909</v>
+        <v>15.49999999999955</v>
       </c>
     </row>
     <row r="20">
@@ -1295,40 +1295,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>45.0-125.0</t>
+          <t>121.0-261.0</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3829.7</v>
+        <v>3829.3</v>
       </c>
       <c r="E20" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="F20" t="n">
-        <v>6895.1</v>
+        <v>6844.5</v>
       </c>
       <c r="G20" t="n">
-        <v>3829.9</v>
+        <v>3828.9</v>
       </c>
       <c r="H20" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I20" t="n">
-        <v>6894.8</v>
+        <v>6838.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2000000000002728</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L20" t="n">
-        <v>0.5000000000004547</v>
+        <v>6.400000000000091</v>
       </c>
     </row>
     <row r="21">
@@ -1339,40 +1339,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>58.0-10.0</t>
+          <t>24.0-200.0</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3830.1</v>
+        <v>3828.4</v>
       </c>
       <c r="E21" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="F21" t="n">
-        <v>6873.1</v>
+        <v>6887.6</v>
       </c>
       <c r="G21" t="n">
-        <v>3829.5</v>
+        <v>3829.2</v>
       </c>
       <c r="H21" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I21" t="n">
-        <v>6864.4</v>
+        <v>6881.5</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L21" t="n">
-        <v>9.300000000000637</v>
+        <v>6.900000000000091</v>
       </c>
     </row>
     <row r="22">
@@ -1383,40 +1383,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31.0-77.0</t>
+          <t>164.0-105.0</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3829.6</v>
+        <v>3829</v>
       </c>
       <c r="E22" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="F22" t="n">
-        <v>6868.6</v>
+        <v>6897.9</v>
       </c>
       <c r="G22" t="n">
-        <v>3829.8</v>
+        <v>3828.6</v>
       </c>
       <c r="H22" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="I22" t="n">
-        <v>6864.9</v>
+        <v>6880.8</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2000000000002728</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L22" t="n">
-        <v>3.900000000001</v>
+        <v>17.49999999999955</v>
       </c>
     </row>
     <row r="23">
@@ -1427,40 +1427,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>188.0-14.0</t>
+          <t>172.0-26.0</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3828.8</v>
+        <v>3829.3</v>
       </c>
       <c r="E23" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="F23" t="n">
-        <v>6881.6</v>
+        <v>6878.3</v>
       </c>
       <c r="G23" t="n">
-        <v>3829.1</v>
+        <v>3829.3</v>
       </c>
       <c r="H23" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="I23" t="n">
-        <v>6879.3</v>
+        <v>6872.7</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2999999999997272</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L23" t="n">
-        <v>2.599999999999909</v>
+        <v>5.600000000000364</v>
       </c>
     </row>
     <row r="24">
@@ -1471,40 +1471,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>151.0-59.0</t>
+          <t>147.0-126.0</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3830.7</v>
+        <v>3829.6</v>
       </c>
       <c r="E24" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="F24" t="n">
-        <v>6894.4</v>
+        <v>6892.9</v>
       </c>
       <c r="G24" t="n">
-        <v>3827.2</v>
+        <v>3829.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="I24" t="n">
-        <v>6892.4</v>
+        <v>6892.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>0.7999999999997272</v>
       </c>
     </row>
     <row r="25">
@@ -1515,40 +1515,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19.0-43.0</t>
+          <t>138.0-236.0</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3827.8</v>
+        <v>3827.3</v>
       </c>
       <c r="E25" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="F25" t="n">
-        <v>6866.5</v>
+        <v>6869.3</v>
       </c>
       <c r="G25" t="n">
         <v>3828.1</v>
       </c>
       <c r="H25" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="I25" t="n">
-        <v>6863.4</v>
+        <v>6831.5</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2999999999997272</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.9624935064935063</v>
       </c>
       <c r="L25" t="n">
-        <v>3.400000000000091</v>
+        <v>38.60999999999991</v>
       </c>
     </row>
     <row r="26">
@@ -1559,40 +1559,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>271.0-272.0</t>
+          <t>127.0-35.0</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3830.3</v>
+        <v>3830.6</v>
       </c>
       <c r="E26" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="F26" t="n">
-        <v>6832.1</v>
+        <v>6866.1</v>
       </c>
       <c r="G26" t="n">
-        <v>3830.6</v>
+        <v>3830.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="I26" t="n">
-        <v>6826.8</v>
+        <v>6864.5</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2999999999997272</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K26" t="n">
-        <v>0.92</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>5.599999999999909</v>
+        <v>1.700000000000273</v>
       </c>
     </row>
     <row r="27">
@@ -1603,40 +1603,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>145.0-30.0</t>
+          <t>157.0-83.0</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3829.8</v>
+        <v>3829.2</v>
       </c>
       <c r="E27" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="F27" t="n">
-        <v>6896.5</v>
+        <v>6871.8</v>
       </c>
       <c r="G27" t="n">
-        <v>3829.4</v>
+        <v>3829.1</v>
       </c>
       <c r="H27" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="I27" t="n">
-        <v>6895.9</v>
+        <v>6862.4</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="L27" t="n">
-        <v>1.000000000000455</v>
+        <v>9.500000000000455</v>
       </c>
     </row>
     <row r="28">
@@ -1647,40 +1647,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>173.0-28.0</t>
+          <t>156.0-222.0</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3829.7</v>
+        <v>3827.2</v>
       </c>
       <c r="E28" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="F28" t="n">
-        <v>6877.3</v>
+        <v>6859</v>
       </c>
       <c r="G28" t="n">
-        <v>3829.4</v>
+        <v>3829.1</v>
       </c>
       <c r="H28" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="I28" t="n">
-        <v>6869.2</v>
+        <v>6831.9</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2999999999997272</v>
+        <v>1.900000000000091</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="L28" t="n">
-        <v>8.400000000000091</v>
+        <v>29.00000000000045</v>
       </c>
     </row>
     <row r="29">
@@ -1691,40 +1691,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>143.0-176.0</t>
+          <t>86.0-242.0</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3829</v>
+        <v>3829.6</v>
       </c>
       <c r="E29" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="F29" t="n">
-        <v>6884.6</v>
+        <v>6840.1</v>
       </c>
       <c r="G29" t="n">
-        <v>3828.7</v>
+        <v>3829.7</v>
       </c>
       <c r="H29" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="I29" t="n">
-        <v>6873.9</v>
+        <v>6828.3</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3000000000001819</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L29" t="n">
-        <v>11.00000000000091</v>
+        <v>11.90000000000009</v>
       </c>
     </row>
     <row r="30">
@@ -1735,40 +1735,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>159.0-67.0</t>
+          <t>34.0-163.0</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3823.5</v>
+        <v>3830</v>
       </c>
       <c r="E30" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="F30" t="n">
-        <v>6875.1</v>
+        <v>6860.6</v>
       </c>
       <c r="G30" t="n">
-        <v>3825.2</v>
+        <v>3830.1</v>
       </c>
       <c r="H30" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="I30" t="n">
-        <v>6846.6</v>
+        <v>6845.3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.699999999999818</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9374933333333334</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>30.20999999999982</v>
+        <v>15.40000000000009</v>
       </c>
     </row>
     <row r="31">
@@ -1779,40 +1779,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>42.0-122.0</t>
+          <t>130.0-262.0</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3828.8</v>
+        <v>3829.3</v>
       </c>
       <c r="E31" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="F31" t="n">
-        <v>6899.5</v>
+        <v>6856.6</v>
       </c>
       <c r="G31" t="n">
-        <v>3829.2</v>
+        <v>3829.8</v>
       </c>
       <c r="H31" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="I31" t="n">
-        <v>6899.4</v>
+        <v>6835</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.92</v>
+        <v>0.9449999999999998</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5</v>
+        <v>22.10000000000036</v>
       </c>
     </row>
     <row r="32">
@@ -1823,40 +1823,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>186.0-257.0</t>
+          <t>8.0-54.0</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3829.2</v>
+        <v>3829.5</v>
       </c>
       <c r="E32" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="F32" t="n">
-        <v>6873.4</v>
+        <v>6876.6</v>
       </c>
       <c r="G32" t="n">
-        <v>3828.8</v>
+        <v>3829.4</v>
       </c>
       <c r="H32" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="I32" t="n">
-        <v>6830</v>
+        <v>6858.2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.09999999999990905</v>
       </c>
       <c r="K32" t="n">
-        <v>0.875</v>
+        <v>0.885</v>
       </c>
       <c r="L32" t="n">
-        <v>43.79999999999927</v>
+        <v>18.50000000000045</v>
       </c>
     </row>
     <row r="33">
@@ -1867,40 +1867,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>220.0-235.0</t>
+          <t>128.0-9.0</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3830.1</v>
+        <v>3829.1</v>
       </c>
       <c r="E33" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="F33" t="n">
-        <v>6836.2</v>
+        <v>6894.5</v>
       </c>
       <c r="G33" t="n">
-        <v>3829</v>
+        <v>3828.9</v>
       </c>
       <c r="H33" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="I33" t="n">
-        <v>6827.3</v>
+        <v>6893.9</v>
       </c>
       <c r="J33" t="n">
-        <v>1.099999999999909</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L33" t="n">
-        <v>9.999999999999545</v>
+        <v>0.8000000000001819</v>
       </c>
     </row>
     <row r="34">
@@ -1911,40 +1911,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>51.0-1.0</t>
+          <t>140.0-32.0</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3830.1</v>
+        <v>3829.5</v>
       </c>
       <c r="E34" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="F34" t="n">
-        <v>6843.9</v>
+        <v>6873.8</v>
       </c>
       <c r="G34" t="n">
-        <v>3829.7</v>
+        <v>3829.9</v>
       </c>
       <c r="H34" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="I34" t="n">
-        <v>6843.2</v>
+        <v>6863.6</v>
       </c>
       <c r="J34" t="n">
         <v>0.4000000000000909</v>
       </c>
       <c r="K34" t="n">
-        <v>0.885</v>
+        <v>0.9449999999999998</v>
       </c>
       <c r="L34" t="n">
-        <v>1.099999999999909</v>
+        <v>10.59999999999991</v>
       </c>
     </row>
     <row r="35">
@@ -1955,40 +1955,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>141.0-33.0</t>
+          <t>65.0-88.0</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>3828.7</v>
       </c>
       <c r="E35" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="F35" t="n">
-        <v>6853.3</v>
+        <v>6864.4</v>
       </c>
       <c r="G35" t="n">
-        <v>3829.5</v>
+        <v>3828.5</v>
       </c>
       <c r="H35" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="I35" t="n">
-        <v>6844.7</v>
+        <v>6846.1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.8000000000001819</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>9.400000000000546</v>
+        <v>18.49999999999909</v>
       </c>
     </row>
     <row r="36">
@@ -1999,40 +1999,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13.0-63.0</t>
+          <t>45.0-125.0</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3828.9</v>
+        <v>3829.7</v>
       </c>
       <c r="E36" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="F36" t="n">
-        <v>6893.6</v>
+        <v>6895.1</v>
       </c>
       <c r="G36" t="n">
-        <v>3828.5</v>
+        <v>3829.9</v>
       </c>
       <c r="H36" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I36" t="n">
-        <v>6890.4</v>
+        <v>6894.8</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.2000000000002728</v>
       </c>
       <c r="K36" t="n">
-        <v>0.895</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L36" t="n">
-        <v>3.600000000000819</v>
+        <v>0.5000000000004547</v>
       </c>
     </row>
     <row r="37">
@@ -2043,40 +2043,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>131.0-183.0</t>
+          <t>255.0-244.0</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3829.7</v>
+        <v>3829.4</v>
       </c>
       <c r="E37" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="F37" t="n">
-        <v>6888.4</v>
+        <v>6825.8</v>
       </c>
       <c r="G37" t="n">
-        <v>3830.1</v>
+        <v>3829.1</v>
       </c>
       <c r="H37" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="I37" t="n">
-        <v>6883.2</v>
+        <v>6821.7</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.3000000000001819</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.9447619047619047</v>
       </c>
       <c r="L37" t="n">
-        <v>5.599999999999909</v>
+        <v>4.460000000000545</v>
       </c>
     </row>
     <row r="38">
@@ -2087,40 +2087,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12.0-49.0</t>
+          <t>81.0-177.0</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3829.9</v>
+        <v>3828.9</v>
       </c>
       <c r="E38" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="F38" t="n">
-        <v>6861.8</v>
+        <v>6848.9</v>
       </c>
       <c r="G38" t="n">
-        <v>3829.3</v>
+        <v>3828.7</v>
       </c>
       <c r="H38" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="I38" t="n">
-        <v>6856.8</v>
+        <v>6848.5</v>
       </c>
       <c r="J38" t="n">
+        <v>0.2000000000002728</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="L38" t="n">
         <v>0.5999999999999091</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.9350000000000002</v>
-      </c>
-      <c r="L38" t="n">
-        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="39">
@@ -2131,40 +2131,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>121.0-261.0</t>
+          <t>209.0-248.0</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3829.3</v>
+        <v>3828.7</v>
       </c>
       <c r="E39" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="F39" t="n">
-        <v>6844.5</v>
+        <v>6829.8</v>
       </c>
       <c r="G39" t="n">
         <v>3828.9</v>
       </c>
       <c r="H39" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="I39" t="n">
-        <v>6838.5</v>
+        <v>6828.6</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.2000000000002728</v>
       </c>
       <c r="K39" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="L39" t="n">
-        <v>6.400000000000091</v>
+        <v>1.400000000000091</v>
       </c>
     </row>
     <row r="40">
@@ -2175,40 +2175,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>110.0-4.0</t>
+          <t>62.0-137.0</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3828.7</v>
+        <v>3823.3</v>
       </c>
       <c r="E40" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="F40" t="n">
-        <v>6879.2</v>
+        <v>6872.2</v>
       </c>
       <c r="G40" t="n">
-        <v>3829.6</v>
+        <v>3823.1</v>
       </c>
       <c r="H40" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="I40" t="n">
-        <v>6864.6</v>
+        <v>6854.4</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9000000000000909</v>
+        <v>0.2000000000002728</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.9074931129476584</v>
       </c>
       <c r="L40" t="n">
-        <v>15.49999999999955</v>
+        <v>18.01000000000046</v>
       </c>
     </row>
     <row r="41">
@@ -2219,40 +2219,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>164.0-105.0</t>
+          <t>201.0-275.0</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3829</v>
+        <v>3820.2</v>
       </c>
       <c r="E41" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="F41" t="n">
-        <v>6897.9</v>
+        <v>6830.2</v>
       </c>
       <c r="G41" t="n">
-        <v>3828.6</v>
+        <v>3820.4</v>
       </c>
       <c r="H41" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="I41" t="n">
-        <v>6880.8</v>
+        <v>6816.5</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.2000000000002728</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.8771509971509972</v>
       </c>
       <c r="L41" t="n">
-        <v>17.49999999999955</v>
+        <v>13.97000000000009</v>
       </c>
     </row>
     <row r="42">
@@ -2263,40 +2263,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>104.0-216.0</t>
+          <t>59.0-10.0</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3829.2</v>
+        <v>3827.2</v>
       </c>
       <c r="E42" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="F42" t="n">
-        <v>6841.5</v>
+        <v>6892.4</v>
       </c>
       <c r="G42" t="n">
-        <v>3829.6</v>
+        <v>3829.5</v>
       </c>
       <c r="H42" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="I42" t="n">
-        <v>6823.4</v>
+        <v>6864.4</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4000000000000909</v>
+        <v>2.300000000000182</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="L42" t="n">
-        <v>18.50000000000045</v>
+        <v>30.30000000000018</v>
       </c>
     </row>
     <row r="43">
@@ -2307,40 +2307,40 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>24.0-200.0</t>
+          <t>188.0-14.0</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3828.4</v>
+        <v>3828.8</v>
       </c>
       <c r="E43" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="F43" t="n">
-        <v>6887.6</v>
+        <v>6881.6</v>
       </c>
       <c r="G43" t="n">
-        <v>3829.2</v>
+        <v>3829.1</v>
       </c>
       <c r="H43" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="I43" t="n">
-        <v>6881.5</v>
+        <v>6879.3</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7999999999997272</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L43" t="n">
-        <v>6.900000000000091</v>
+        <v>2.599999999999909</v>
       </c>
     </row>
     <row r="44">
@@ -2351,40 +2351,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>105</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>97.0-160.0</t>
+          <t>104.0-216.0</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3828.5</v>
+        <v>3829.2</v>
       </c>
       <c r="E44" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="F44" t="n">
-        <v>6899.5</v>
+        <v>6841.5</v>
       </c>
       <c r="G44" t="n">
-        <v>3828.1</v>
+        <v>3829.6</v>
       </c>
       <c r="H44" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="I44" t="n">
-        <v>6858.4</v>
+        <v>6823.4</v>
       </c>
       <c r="J44" t="n">
         <v>0.4000000000000909</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L44" t="n">
-        <v>41.50000000000045</v>
+        <v>18.50000000000045</v>
       </c>
     </row>
     <row r="45">
@@ -2395,40 +2395,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>250.0-264.0</t>
+          <t>97.0-160.0</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3829.5</v>
+        <v>3828.5</v>
       </c>
       <c r="E45" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="F45" t="n">
-        <v>6837.2</v>
+        <v>6899.5</v>
       </c>
       <c r="G45" t="n">
-        <v>3829.9</v>
+        <v>3828.1</v>
       </c>
       <c r="H45" t="n">
         <v>1.78</v>
       </c>
       <c r="I45" t="n">
-        <v>6835.7</v>
+        <v>6858.4</v>
       </c>
       <c r="J45" t="n">
         <v>0.4000000000000909</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8924929971988794</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="L45" t="n">
-        <v>1.910000000000091</v>
+        <v>41.50000000000045</v>
       </c>
     </row>
     <row r="46">
@@ -2439,40 +2439,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>25.0-166.0</t>
+          <t>250.0-264.0</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3830</v>
+        <v>3829.5</v>
       </c>
       <c r="E46" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="F46" t="n">
-        <v>6878.2</v>
+        <v>6837.2</v>
       </c>
       <c r="G46" t="n">
-        <v>3829.5</v>
+        <v>3829.9</v>
       </c>
       <c r="H46" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="I46" t="n">
-        <v>6878.1</v>
+        <v>6835.7</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="K46" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.8924929971988794</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5999999999994543</v>
+        <v>1.910000000000091</v>
       </c>
     </row>
     <row r="47">
@@ -2483,40 +2483,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>91.0-90.0</t>
+          <t>168.0-274.0</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3822.1</v>
+        <v>3828.8</v>
       </c>
       <c r="E47" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="F47" t="n">
-        <v>6860.8</v>
+        <v>6840.9</v>
       </c>
       <c r="G47" t="n">
-        <v>3822.6</v>
+        <v>3829.4</v>
       </c>
       <c r="H47" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="I47" t="n">
-        <v>6859.5</v>
+        <v>6839.1</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K47" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L47" t="n">
-        <v>1.800000000000182</v>
+        <v>2.399999999999181</v>
       </c>
     </row>
     <row r="48">
@@ -2527,40 +2527,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>274.0-209.0</t>
+          <t>174.0-46.0</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3829.4</v>
+        <v>3829.3</v>
       </c>
       <c r="E48" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="F48" t="n">
-        <v>6839.1</v>
+        <v>6847.3</v>
       </c>
       <c r="G48" t="n">
-        <v>3828.7</v>
+        <v>3828.8</v>
       </c>
       <c r="H48" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="I48" t="n">
-        <v>6829.8</v>
+        <v>6846.8</v>
       </c>
       <c r="J48" t="n">
-        <v>0.7000000000002728</v>
+        <v>0.5</v>
       </c>
       <c r="K48" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L48" t="n">
-        <v>10.00000000000045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2571,40 +2571,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>40.0-53.0</t>
+          <t>91.0-90.0</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3828.6</v>
+        <v>3822.1</v>
       </c>
       <c r="E49" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="F49" t="n">
-        <v>6899.3</v>
+        <v>6860.8</v>
       </c>
       <c r="G49" t="n">
-        <v>3829.1</v>
+        <v>3822.6</v>
       </c>
       <c r="H49" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="I49" t="n">
-        <v>6896.6</v>
+        <v>6859.5</v>
       </c>
       <c r="J49" t="n">
         <v>0.5</v>
       </c>
       <c r="K49" t="n">
-        <v>0.92</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L49" t="n">
-        <v>3.199999999999818</v>
+        <v>1.800000000000182</v>
       </c>
     </row>
     <row r="50">
@@ -2615,40 +2615,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>177.0-69.0</t>
+          <t>155.0-52.0</t>
         </is>
       </c>
       <c r="D50" t="n">
+        <v>3829.5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6847.7</v>
+      </c>
+      <c r="G50" t="n">
         <v>3828.7</v>
       </c>
-      <c r="E50" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F50" t="n">
-        <v>6848.5</v>
-      </c>
-      <c r="G50" t="n">
-        <v>3828.2</v>
-      </c>
       <c r="H50" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="I50" t="n">
-        <v>6843.5</v>
+        <v>6845.4</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K50" t="n">
-        <v>0.895</v>
+        <v>0.93</v>
       </c>
       <c r="L50" t="n">
-        <v>5.5</v>
+        <v>3.100000000000364</v>
       </c>
     </row>
     <row r="51">
@@ -2659,40 +2659,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>20.0-168.0</t>
+          <t>258.0-246.0</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3828.1</v>
+        <v>3829.7</v>
       </c>
       <c r="E51" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="F51" t="n">
-        <v>6843.4</v>
+        <v>6826.4</v>
       </c>
       <c r="G51" t="n">
-        <v>3828.8</v>
+        <v>3829.2</v>
       </c>
       <c r="H51" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="I51" t="n">
-        <v>6840.9</v>
+        <v>6824.5</v>
       </c>
       <c r="J51" t="n">
-        <v>0.7000000000002728</v>
+        <v>0.5</v>
       </c>
       <c r="K51" t="n">
-        <v>0.93</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L51" t="n">
-        <v>3.200000000000273</v>
+        <v>2.399999999999636</v>
       </c>
     </row>
     <row r="52">
@@ -2703,40 +2703,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>27.0-47.0</t>
+          <t>259.0-210.0</t>
         </is>
       </c>
       <c r="D52" t="n">
+        <v>3829.6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6827.6</v>
+      </c>
+      <c r="G52" t="n">
         <v>3829.1</v>
       </c>
-      <c r="E52" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F52" t="n">
-        <v>6878.2</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3829.6</v>
-      </c>
       <c r="H52" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I52" t="n">
-        <v>6872.4</v>
+        <v>6825.7</v>
       </c>
       <c r="J52" t="n">
         <v>0.5</v>
       </c>
       <c r="K52" t="n">
-        <v>0.92</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L52" t="n">
-        <v>6.300000000000182</v>
+        <v>2.400000000000546</v>
       </c>
     </row>
     <row r="53">
@@ -2747,40 +2747,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>249.0-259.0</t>
+          <t>50.0-167.0</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>3829.1</v>
       </c>
       <c r="E53" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="F53" t="n">
-        <v>6835.4</v>
+        <v>6868.5</v>
       </c>
       <c r="G53" t="n">
-        <v>3829.6</v>
+        <v>3828.2</v>
       </c>
       <c r="H53" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="I53" t="n">
-        <v>6827.6</v>
+        <v>6860.6</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="L53" t="n">
-        <v>8.299999999999272</v>
+        <v>8.799999999999727</v>
       </c>
     </row>
     <row r="54">
@@ -2791,40 +2791,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>155.0-52.0</t>
+          <t>40.0-53.0</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3829.5</v>
+        <v>3828.6</v>
       </c>
       <c r="E54" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="F54" t="n">
-        <v>6847.7</v>
+        <v>6899.3</v>
       </c>
       <c r="G54" t="n">
-        <v>3828.7</v>
+        <v>3829.1</v>
       </c>
       <c r="H54" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="I54" t="n">
-        <v>6845.4</v>
+        <v>6896.6</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8000000000001819</v>
+        <v>0.5</v>
       </c>
       <c r="K54" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L54" t="n">
-        <v>3.100000000000364</v>
+        <v>3.199999999999818</v>
       </c>
     </row>
     <row r="55">
@@ -2835,40 +2835,40 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>102.0-98.0</t>
+          <t>218.0-251.0</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3824.5</v>
+        <v>3829.3</v>
       </c>
       <c r="E55" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="F55" t="n">
-        <v>6895.6</v>
+        <v>6828.8</v>
       </c>
       <c r="G55" t="n">
-        <v>3825</v>
+        <v>3828.8</v>
       </c>
       <c r="H55" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="I55" t="n">
-        <v>6887.5</v>
+        <v>6824.3</v>
       </c>
       <c r="J55" t="n">
         <v>0.5</v>
       </c>
       <c r="K55" t="n">
-        <v>0.885</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L55" t="n">
-        <v>8.600000000000364</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2879,40 +2879,40 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>50.0-167.0</t>
+          <t>68.0-73.0</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3829.1</v>
+        <v>3829.6</v>
       </c>
       <c r="E56" t="n">
         <v>1.86</v>
       </c>
       <c r="F56" t="n">
-        <v>6868.5</v>
+        <v>6871.8</v>
       </c>
       <c r="G56" t="n">
-        <v>3828.2</v>
+        <v>3827.5</v>
       </c>
       <c r="H56" t="n">
         <v>1.86</v>
       </c>
       <c r="I56" t="n">
-        <v>6860.6</v>
+        <v>6870.3</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9000000000000909</v>
+        <v>2.099999999999909</v>
       </c>
       <c r="K56" t="n">
         <v>0.93</v>
       </c>
       <c r="L56" t="n">
-        <v>8.799999999999727</v>
+        <v>3.599999999999909</v>
       </c>
     </row>
     <row r="57">
@@ -2923,40 +2923,40 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>106.0-184.0</t>
+          <t>27.0-47.0</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3829.3</v>
+        <v>3829.1</v>
       </c>
       <c r="E57" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="F57" t="n">
-        <v>6894.8</v>
+        <v>6878.2</v>
       </c>
       <c r="G57" t="n">
-        <v>3829.9</v>
+        <v>3829.6</v>
       </c>
       <c r="H57" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="I57" t="n">
-        <v>6893.5</v>
+        <v>6872.4</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.5</v>
       </c>
       <c r="K57" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L57" t="n">
-        <v>1.900000000000091</v>
+        <v>6.300000000000182</v>
       </c>
     </row>
     <row r="58">
@@ -2967,40 +2967,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>64.0-2.0</t>
+          <t>36.0-115.0</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3828.9</v>
+        <v>3829.5</v>
       </c>
       <c r="E58" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="F58" t="n">
-        <v>6885.5</v>
+        <v>6849.1</v>
       </c>
       <c r="G58" t="n">
-        <v>3829.5</v>
+        <v>3830</v>
       </c>
       <c r="H58" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I58" t="n">
-        <v>6883</v>
+        <v>6842</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.5</v>
       </c>
       <c r="K58" t="n">
-        <v>0.92</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>3.099999999999909</v>
+        <v>7.600000000000364</v>
       </c>
     </row>
     <row r="59">
@@ -3011,40 +3011,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>68.0-73.0</t>
+          <t>102.0-98.0</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3829.6</v>
+        <v>3824.5</v>
       </c>
       <c r="E59" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="F59" t="n">
-        <v>6871.8</v>
+        <v>6895.6</v>
       </c>
       <c r="G59" t="n">
-        <v>3827.5</v>
+        <v>3825</v>
       </c>
       <c r="H59" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="I59" t="n">
-        <v>6870.3</v>
+        <v>6887.5</v>
       </c>
       <c r="J59" t="n">
-        <v>2.099999999999909</v>
+        <v>0.5</v>
       </c>
       <c r="K59" t="n">
-        <v>0.93</v>
+        <v>0.885</v>
       </c>
       <c r="L59" t="n">
-        <v>3.599999999999909</v>
+        <v>8.600000000000364</v>
       </c>
     </row>
     <row r="60">
@@ -3055,40 +3055,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>80.0-79.0</t>
+          <t>92.0-18.0</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3829.4</v>
+        <v>3825.2</v>
       </c>
       <c r="E60" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="F60" t="n">
-        <v>6890.7</v>
+        <v>6888.5</v>
       </c>
       <c r="G60" t="n">
-        <v>3828.8</v>
+        <v>3825.7</v>
       </c>
       <c r="H60" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="I60" t="n">
-        <v>6887.6</v>
+        <v>6867.9</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.5</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L60" t="n">
-        <v>3.699999999999363</v>
+        <v>21.10000000000036</v>
       </c>
     </row>
     <row r="61">
@@ -3099,40 +3099,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3.0-241.0</t>
+          <t>149.0-136.0</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3829</v>
+        <v>3826.7</v>
       </c>
       <c r="E61" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="F61" t="n">
-        <v>6843</v>
+        <v>6888.3</v>
       </c>
       <c r="G61" t="n">
-        <v>3828.4</v>
+        <v>3828.9</v>
       </c>
       <c r="H61" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="I61" t="n">
-        <v>6839.6</v>
+        <v>6881</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5999999999999091</v>
+        <v>2.200000000000273</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L61" t="n">
-        <v>3.999999999999545</v>
+        <v>9.500000000000455</v>
       </c>
     </row>
     <row r="62">
@@ -3143,40 +3143,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>109</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>7.0-103.0</t>
+          <t>208.0-204.0</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3829</v>
+        <v>3824.1</v>
       </c>
       <c r="E62" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="F62" t="n">
-        <v>6882.7</v>
+        <v>6837.6</v>
       </c>
       <c r="G62" t="n">
-        <v>3828.4</v>
+        <v>3823.6</v>
       </c>
       <c r="H62" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="I62" t="n">
-        <v>6878.6</v>
+        <v>6822.2</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.5</v>
       </c>
       <c r="K62" t="n">
-        <v>0.92</v>
+        <v>0.874742857142857</v>
       </c>
       <c r="L62" t="n">
-        <v>4.699999999999363</v>
+        <v>15.96000000000055</v>
       </c>
     </row>
     <row r="63">
@@ -3187,40 +3187,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>149.0-136.0</t>
+          <t>175.0-60.0</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3826.7</v>
+        <v>3828.9</v>
       </c>
       <c r="E63" t="n">
         <v>1.86</v>
       </c>
       <c r="F63" t="n">
-        <v>6888.3</v>
+        <v>6890.4</v>
       </c>
       <c r="G63" t="n">
-        <v>3828.9</v>
+        <v>3826.9</v>
       </c>
       <c r="H63" t="n">
         <v>1.86</v>
       </c>
       <c r="I63" t="n">
-        <v>6881</v>
+        <v>6889.6</v>
       </c>
       <c r="J63" t="n">
-        <v>2.200000000000273</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
         <v>0.93</v>
       </c>
       <c r="L63" t="n">
-        <v>9.500000000000455</v>
+        <v>2.799999999999272</v>
       </c>
     </row>
     <row r="64">
@@ -3231,40 +3231,40 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>112.0-70.0</t>
+          <t>169.0-135.0</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3829.1</v>
+        <v>3829.9</v>
       </c>
       <c r="E64" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="F64" t="n">
-        <v>6883.1</v>
+        <v>6864.6</v>
       </c>
       <c r="G64" t="n">
-        <v>3828.5</v>
+        <v>3829.3</v>
       </c>
       <c r="H64" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I64" t="n">
-        <v>6877.3</v>
+        <v>6864.1</v>
       </c>
       <c r="J64" t="n">
         <v>0.5999999999999091</v>
       </c>
       <c r="K64" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L64" t="n">
-        <v>6.400000000000091</v>
+        <v>1.099999999999909</v>
       </c>
     </row>
     <row r="65">
@@ -3275,40 +3275,40 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>175.0-60.0</t>
+          <t>247.0-249.0</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3828.9</v>
+        <v>3828.5</v>
       </c>
       <c r="E65" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="F65" t="n">
-        <v>6890.4</v>
+        <v>6836.6</v>
       </c>
       <c r="G65" t="n">
-        <v>3826.9</v>
+        <v>3829.1</v>
       </c>
       <c r="H65" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="I65" t="n">
-        <v>6889.6</v>
+        <v>6835.4</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K65" t="n">
-        <v>0.93</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L65" t="n">
-        <v>2.799999999999272</v>
+        <v>1.800000000000637</v>
       </c>
     </row>
     <row r="66">
@@ -3319,40 +3319,40 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>134.0-252.0</t>
+          <t>238.0-273.0</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3830.1</v>
+        <v>3828.7</v>
       </c>
       <c r="E66" t="n">
         <v>1.85</v>
       </c>
       <c r="F66" t="n">
-        <v>6856.4</v>
+        <v>6820.9</v>
       </c>
       <c r="G66" t="n">
-        <v>3829.5</v>
+        <v>3830.1</v>
       </c>
       <c r="H66" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="I66" t="n">
-        <v>6828.7</v>
+        <v>6819.6</v>
       </c>
       <c r="J66" t="n">
-        <v>0.5999999999999091</v>
+        <v>1.400000000000091</v>
       </c>
       <c r="K66" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.9274932614555258</v>
       </c>
       <c r="L66" t="n">
-        <v>28.29999999999973</v>
+        <v>2.709999999999363</v>
       </c>
     </row>
     <row r="67">
@@ -3363,40 +3363,40 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>217.0-215.0</t>
+          <t>106.0-184.0</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3829.2</v>
+        <v>3829.3</v>
       </c>
       <c r="E67" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="F67" t="n">
-        <v>6826.5</v>
+        <v>6894.8</v>
       </c>
       <c r="G67" t="n">
-        <v>3829.8</v>
+        <v>3829.9</v>
       </c>
       <c r="H67" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="I67" t="n">
-        <v>6823.3</v>
+        <v>6893.5</v>
       </c>
       <c r="J67" t="n">
-        <v>0.6000000000003638</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K67" t="n">
-        <v>0.8899999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="L67" t="n">
-        <v>3.800000000000182</v>
+        <v>1.900000000000091</v>
       </c>
     </row>
     <row r="68">
@@ -3407,40 +3407,40 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>224.0-258.0</t>
+          <t>134.0-252.0</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3829</v>
+        <v>3830.1</v>
       </c>
       <c r="E68" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="F68" t="n">
-        <v>6828.1</v>
+        <v>6856.4</v>
       </c>
       <c r="G68" t="n">
-        <v>3829.7</v>
+        <v>3829.5</v>
       </c>
       <c r="H68" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="I68" t="n">
-        <v>6826.4</v>
+        <v>6828.7</v>
       </c>
       <c r="J68" t="n">
-        <v>0.6999999999998181</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K68" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L68" t="n">
-        <v>2.400000000000546</v>
+        <v>28.29999999999973</v>
       </c>
     </row>
     <row r="69">
@@ -3451,40 +3451,40 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>169.0-152.0</t>
+          <t>64.0-2.0</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3829.9</v>
+        <v>3828.9</v>
       </c>
       <c r="E69" t="n">
         <v>1.84</v>
       </c>
       <c r="F69" t="n">
-        <v>6864.6</v>
+        <v>6885.5</v>
       </c>
       <c r="G69" t="n">
-        <v>3829.2</v>
+        <v>3829.5</v>
       </c>
       <c r="H69" t="n">
         <v>1.84</v>
       </c>
       <c r="I69" t="n">
-        <v>6863.1</v>
+        <v>6883</v>
       </c>
       <c r="J69" t="n">
-        <v>0.7000000000002728</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K69" t="n">
         <v>0.92</v>
       </c>
       <c r="L69" t="n">
-        <v>2.200000000000273</v>
+        <v>3.099999999999909</v>
       </c>
     </row>
     <row r="70">
@@ -3495,40 +3495,40 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>142.0-129.0</t>
+          <t>80.0-79.0</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3829.8</v>
+        <v>3829.4</v>
       </c>
       <c r="E70" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="F70" t="n">
-        <v>6878.8</v>
+        <v>6890.7</v>
       </c>
       <c r="G70" t="n">
-        <v>3828.3</v>
+        <v>3828.8</v>
       </c>
       <c r="H70" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="I70" t="n">
-        <v>6877.7</v>
+        <v>6887.6</v>
       </c>
       <c r="J70" t="n">
-        <v>1.5</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>2.600000000000364</v>
+        <v>3.699999999999363</v>
       </c>
     </row>
     <row r="71">
@@ -3539,40 +3539,40 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>182.0-189.0</t>
+          <t>3.0-241.0</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3829.9</v>
+        <v>3829</v>
       </c>
       <c r="E71" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="F71" t="n">
-        <v>6889.5</v>
+        <v>6843</v>
       </c>
       <c r="G71" t="n">
-        <v>3829.2</v>
+        <v>3828.4</v>
       </c>
       <c r="H71" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="I71" t="n">
-        <v>6866.1</v>
+        <v>6839.6</v>
       </c>
       <c r="J71" t="n">
-        <v>0.7000000000002728</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K71" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L71" t="n">
-        <v>24.09999999999991</v>
+        <v>3.999999999999545</v>
       </c>
     </row>
     <row r="72">
@@ -3583,40 +3583,40 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>185.0-144.0</t>
+          <t>7.0-103.0</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3829.7</v>
+        <v>3829</v>
       </c>
       <c r="E72" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="F72" t="n">
-        <v>6875.7</v>
+        <v>6882.7</v>
       </c>
       <c r="G72" t="n">
-        <v>3828.9</v>
+        <v>3828.4</v>
       </c>
       <c r="H72" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I72" t="n">
-        <v>6875.6</v>
+        <v>6878.6</v>
       </c>
       <c r="J72" t="n">
-        <v>0.7999999999997272</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L72" t="n">
-        <v>0.8999999999991815</v>
+        <v>4.699999999999363</v>
       </c>
     </row>
     <row r="73">
@@ -3627,40 +3627,40 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>48.0-146.0</t>
+          <t>142.0-129.0</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3828.4</v>
+        <v>3829.8</v>
       </c>
       <c r="E73" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="F73" t="n">
+        <v>6878.8</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3828.3</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I73" t="n">
         <v>6877.7</v>
       </c>
-      <c r="G73" t="n">
-        <v>3829.2</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I73" t="n">
-        <v>6876.6</v>
-      </c>
       <c r="J73" t="n">
-        <v>0.7999999999997272</v>
+        <v>1.5</v>
       </c>
       <c r="K73" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L73" t="n">
-        <v>1.899999999999181</v>
+        <v>2.600000000000364</v>
       </c>
     </row>
     <row r="74">
@@ -3671,40 +3671,40 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>266.0-219.0</t>
+          <t>112.0-70.0</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3829.5</v>
+        <v>3829.1</v>
       </c>
       <c r="E74" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="F74" t="n">
-        <v>6826.5</v>
+        <v>6883.1</v>
       </c>
       <c r="G74" t="n">
-        <v>3828.4</v>
+        <v>3828.5</v>
       </c>
       <c r="H74" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="I74" t="n">
-        <v>6825.8</v>
+        <v>6877.3</v>
       </c>
       <c r="J74" t="n">
-        <v>1.099999999999909</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="K74" t="n">
-        <v>0.92</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L74" t="n">
-        <v>1.799999999999727</v>
+        <v>6.400000000000091</v>
       </c>
     </row>
     <row r="75">
@@ -3715,40 +3715,40 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>107.0-187.0</t>
+          <t>85.0-20.0</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3828.8</v>
+        <v>3825.2</v>
       </c>
       <c r="E75" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="F75" t="n">
-        <v>6893.3</v>
+        <v>6846.7</v>
       </c>
       <c r="G75" t="n">
-        <v>3829.6</v>
+        <v>3828.1</v>
       </c>
       <c r="H75" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="I75" t="n">
-        <v>6879.1</v>
+        <v>6843.4</v>
       </c>
       <c r="J75" t="n">
-        <v>0.7999999999997272</v>
+        <v>2.900000000000091</v>
       </c>
       <c r="K75" t="n">
-        <v>0.885</v>
+        <v>0.924972972972973</v>
       </c>
       <c r="L75" t="n">
-        <v>14.99999999999955</v>
+        <v>6.220000000000272</v>
       </c>
     </row>
     <row r="76">
@@ -3759,40 +3759,40 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>171.0-75.0</t>
+          <t>217.0-215.0</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3829.4</v>
+        <v>3829.2</v>
       </c>
       <c r="E76" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="F76" t="n">
-        <v>6850.6</v>
+        <v>6826.5</v>
       </c>
       <c r="G76" t="n">
-        <v>3828.6</v>
+        <v>3829.8</v>
       </c>
       <c r="H76" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I76" t="n">
-        <v>6849.8</v>
+        <v>6823.3</v>
       </c>
       <c r="J76" t="n">
-        <v>0.8000000000001819</v>
+        <v>0.6000000000003638</v>
       </c>
       <c r="K76" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="L76" t="n">
-        <v>1.600000000000364</v>
+        <v>3.800000000000182</v>
       </c>
     </row>
     <row r="77">
@@ -3803,40 +3803,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>150.0-158.0</t>
+          <t>152.0-148.0</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3830</v>
+        <v>3829.2</v>
       </c>
       <c r="E77" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F77" t="n">
-        <v>6876.1</v>
+        <v>6863.1</v>
       </c>
       <c r="G77" t="n">
-        <v>3829.2</v>
+        <v>3829.9</v>
       </c>
       <c r="H77" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I77" t="n">
-        <v>6873.5</v>
+        <v>6857.6</v>
       </c>
       <c r="J77" t="n">
-        <v>0.8000000000001819</v>
+        <v>0.7000000000002728</v>
       </c>
       <c r="K77" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L77" t="n">
-        <v>3.400000000000546</v>
+        <v>6.200000000000273</v>
       </c>
     </row>
     <row r="78">
@@ -3847,40 +3847,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>46.0-85.0</t>
+          <t>266.0-219.0</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3828.8</v>
+        <v>3829.5</v>
       </c>
       <c r="E78" t="n">
         <v>1.84</v>
       </c>
       <c r="F78" t="n">
-        <v>6846.8</v>
+        <v>6826.5</v>
       </c>
       <c r="G78" t="n">
-        <v>3825.2</v>
+        <v>3828.4</v>
       </c>
       <c r="H78" t="n">
         <v>1.84</v>
       </c>
       <c r="I78" t="n">
-        <v>6846.7</v>
+        <v>6825.8</v>
       </c>
       <c r="J78" t="n">
-        <v>3.600000000000364</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K78" t="n">
         <v>0.92</v>
       </c>
       <c r="L78" t="n">
-        <v>3.700000000000728</v>
+        <v>1.799999999999727</v>
       </c>
     </row>
     <row r="79">
@@ -3891,40 +3891,40 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>118.0-76.0</t>
+          <t>182.0-189.0</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3828</v>
+        <v>3829.9</v>
       </c>
       <c r="E79" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="F79" t="n">
-        <v>6876.3</v>
+        <v>6889.5</v>
       </c>
       <c r="G79" t="n">
-        <v>3828.8</v>
+        <v>3829.2</v>
       </c>
       <c r="H79" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="I79" t="n">
-        <v>6873.1</v>
+        <v>6866.1</v>
       </c>
       <c r="J79" t="n">
-        <v>0.8000000000001819</v>
+        <v>0.7000000000002728</v>
       </c>
       <c r="K79" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>24.09999999999991</v>
       </c>
     </row>
     <row r="80">
@@ -3935,40 +3935,40 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>161.0-162.0</t>
+          <t>185.0-144.0</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3829.2</v>
+        <v>3829.7</v>
       </c>
       <c r="E80" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="F80" t="n">
-        <v>6867.3</v>
+        <v>6875.7</v>
       </c>
       <c r="G80" t="n">
-        <v>3828.3</v>
+        <v>3828.9</v>
       </c>
       <c r="H80" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I80" t="n">
-        <v>6866.2</v>
+        <v>6875.6</v>
       </c>
       <c r="J80" t="n">
-        <v>0.8999999999996362</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="K80" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>0.8999999999991815</v>
       </c>
     </row>
     <row r="81">
@@ -3979,40 +3979,40 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>22.0-78.0</t>
+          <t>48.0-146.0</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3827.8</v>
+        <v>3828.4</v>
       </c>
       <c r="E81" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="F81" t="n">
-        <v>6883.6</v>
+        <v>6877.7</v>
       </c>
       <c r="G81" t="n">
-        <v>3828.7</v>
+        <v>3829.2</v>
       </c>
       <c r="H81" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="I81" t="n">
-        <v>6880.3</v>
+        <v>6876.6</v>
       </c>
       <c r="J81" t="n">
-        <v>0.8999999999996362</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="K81" t="n">
-        <v>0.895</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L81" t="n">
-        <v>4.199999999999818</v>
+        <v>1.899999999999181</v>
       </c>
     </row>
     <row r="82">
@@ -4023,40 +4023,40 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>41.0-139.0</t>
+          <t>107.0-187.0</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3830.1</v>
+        <v>3828.8</v>
       </c>
       <c r="E82" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="F82" t="n">
-        <v>6851.4</v>
+        <v>6893.3</v>
       </c>
       <c r="G82" t="n">
-        <v>3828</v>
+        <v>3829.6</v>
       </c>
       <c r="H82" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="I82" t="n">
-        <v>6848.8</v>
+        <v>6879.1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.099999999999909</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="K82" t="n">
-        <v>0.92</v>
+        <v>0.885</v>
       </c>
       <c r="L82" t="n">
-        <v>4.699999999999363</v>
+        <v>14.99999999999955</v>
       </c>
     </row>
     <row r="83">
@@ -4067,40 +4067,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>115.0-37.0</t>
+          <t>171.0-75.0</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3830</v>
+        <v>3829.4</v>
       </c>
       <c r="E83" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="F83" t="n">
-        <v>6842</v>
+        <v>6850.6</v>
       </c>
       <c r="G83" t="n">
-        <v>3829.1</v>
+        <v>3828.6</v>
       </c>
       <c r="H83" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I83" t="n">
-        <v>6841.4</v>
+        <v>6849.8</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9000000000000909</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K83" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L83" t="n">
-        <v>1.500000000000455</v>
+        <v>1.600000000000364</v>
       </c>
     </row>
     <row r="84">
@@ -4111,40 +4111,40 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>120.0-165.0</t>
+          <t>139.0-82.0</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3828.9</v>
+        <v>3828</v>
       </c>
       <c r="E84" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="F84" t="n">
-        <v>6885.5</v>
+        <v>6848.8</v>
       </c>
       <c r="G84" t="n">
-        <v>3828</v>
+        <v>3829.5</v>
       </c>
       <c r="H84" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="I84" t="n">
-        <v>6883.8</v>
+        <v>6847.4</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9000000000000909</v>
+        <v>1.5</v>
       </c>
       <c r="K84" t="n">
-        <v>0.895</v>
+        <v>0.92</v>
       </c>
       <c r="L84" t="n">
-        <v>2.599999999999909</v>
+        <v>2.900000000000546</v>
       </c>
     </row>
     <row r="85">
@@ -4155,40 +4155,40 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>148.0-56.0</t>
+          <t>150.0-158.0</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3829.9</v>
+        <v>3830</v>
       </c>
       <c r="E85" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="F85" t="n">
-        <v>6857.6</v>
+        <v>6876.1</v>
       </c>
       <c r="G85" t="n">
-        <v>3828.7</v>
+        <v>3829.2</v>
       </c>
       <c r="H85" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I85" t="n">
-        <v>6856.4</v>
+        <v>6873.5</v>
       </c>
       <c r="J85" t="n">
-        <v>1.200000000000273</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K85" t="n">
-        <v>0.92</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L85" t="n">
-        <v>2.400000000001</v>
+        <v>3.400000000000546</v>
       </c>
     </row>
     <row r="86">
@@ -4199,40 +4199,40 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>194.0-55.0</t>
+          <t>118.0-76.0</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3828.5</v>
+        <v>3828</v>
       </c>
       <c r="E86" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="F86" t="n">
-        <v>6860.7</v>
+        <v>6876.3</v>
       </c>
       <c r="G86" t="n">
-        <v>3829.4</v>
+        <v>3828.8</v>
       </c>
       <c r="H86" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I86" t="n">
-        <v>6856.2</v>
+        <v>6873.1</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9000000000000909</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="K86" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L86" t="n">
-        <v>5.400000000000091</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -4243,40 +4243,40 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>119.0-263.0</t>
+          <t>56.0-41.0</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3829.3</v>
+        <v>3828.7</v>
       </c>
       <c r="E87" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="F87" t="n">
-        <v>6841.7</v>
+        <v>6856.4</v>
       </c>
       <c r="G87" t="n">
-        <v>3828.4</v>
+        <v>3830.1</v>
       </c>
       <c r="H87" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="I87" t="n">
-        <v>6828.2</v>
+        <v>6851.4</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9000000000000909</v>
+        <v>1.400000000000091</v>
       </c>
       <c r="K87" t="n">
-        <v>0.885</v>
+        <v>0.92</v>
       </c>
       <c r="L87" t="n">
-        <v>14.40000000000009</v>
+        <v>6.400000000000091</v>
       </c>
     </row>
     <row r="88">
@@ -4287,40 +4287,40 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>18.0-135.0</t>
+          <t>161.0-162.0</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3825.7</v>
+        <v>3829.2</v>
       </c>
       <c r="E88" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="F88" t="n">
-        <v>6867.9</v>
+        <v>6867.3</v>
       </c>
       <c r="G88" t="n">
-        <v>3829.3</v>
+        <v>3828.3</v>
       </c>
       <c r="H88" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="I88" t="n">
-        <v>6864.1</v>
+        <v>6866.2</v>
       </c>
       <c r="J88" t="n">
-        <v>3.600000000000364</v>
+        <v>0.8999999999996362</v>
       </c>
       <c r="K88" t="n">
-        <v>0.92</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L88" t="n">
-        <v>7.399999999999636</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -4331,40 +4331,40 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>253.0-211.0</t>
+          <t>22.0-78.0</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3829.5</v>
+        <v>3827.8</v>
       </c>
       <c r="E89" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="F89" t="n">
-        <v>6825.1</v>
+        <v>6883.6</v>
       </c>
       <c r="G89" t="n">
-        <v>3828.6</v>
+        <v>3828.7</v>
       </c>
       <c r="H89" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I89" t="n">
-        <v>6820.6</v>
+        <v>6880.3</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9000000000000909</v>
+        <v>0.8999999999996362</v>
       </c>
       <c r="K89" t="n">
-        <v>0.892436974789916</v>
+        <v>0.895</v>
       </c>
       <c r="L89" t="n">
-        <v>5.430000000000091</v>
+        <v>4.199999999999818</v>
       </c>
     </row>
     <row r="90">
@@ -4375,40 +4375,40 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>178.0-71.0</t>
+          <t>181.0-31.0</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3827.9</v>
+        <v>3828.7</v>
       </c>
       <c r="E90" t="n">
         <v>1.81</v>
       </c>
       <c r="F90" t="n">
-        <v>6861.5</v>
+        <v>6868.7</v>
       </c>
       <c r="G90" t="n">
-        <v>3828.9</v>
+        <v>3829.6</v>
       </c>
       <c r="H90" t="n">
         <v>1.81</v>
       </c>
       <c r="I90" t="n">
-        <v>6855.8</v>
+        <v>6868.6</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K90" t="n">
         <v>0.9049999999999999</v>
       </c>
       <c r="L90" t="n">
-        <v>6.699999999999818</v>
+        <v>0.9999999999995453</v>
       </c>
     </row>
     <row r="91">
@@ -4419,40 +4419,40 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>196.0-114.0</t>
+          <t>120.0-165.0</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3828.6</v>
+        <v>3828.9</v>
       </c>
       <c r="E91" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="F91" t="n">
-        <v>6897</v>
+        <v>6885.5</v>
       </c>
       <c r="G91" t="n">
-        <v>3827.6</v>
+        <v>3828</v>
       </c>
       <c r="H91" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="I91" t="n">
-        <v>6890</v>
+        <v>6883.8</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K91" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="L91" t="n">
-        <v>8</v>
+        <v>2.599999999999909</v>
       </c>
     </row>
     <row r="92">
@@ -4463,40 +4463,40 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>198.0-87.0</t>
+          <t>37.0-221.0</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3825.3</v>
+        <v>3829.1</v>
       </c>
       <c r="E92" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="F92" t="n">
-        <v>6865.9</v>
+        <v>6841.4</v>
       </c>
       <c r="G92" t="n">
-        <v>3826.3</v>
+        <v>3830</v>
       </c>
       <c r="H92" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="I92" t="n">
-        <v>6854.4</v>
+        <v>6839.1</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K92" t="n">
-        <v>0.885</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L92" t="n">
-        <v>12.5</v>
+        <v>3.199999999999363</v>
       </c>
     </row>
     <row r="93">
@@ -4507,40 +4507,40 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>84.0-16.0</t>
+          <t>77.0-71.0</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3829.2</v>
+        <v>3829.8</v>
       </c>
       <c r="E93" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="F93" t="n">
-        <v>6857.5</v>
+        <v>6864.9</v>
       </c>
       <c r="G93" t="n">
-        <v>3828.1</v>
+        <v>3828.9</v>
       </c>
       <c r="H93" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I93" t="n">
-        <v>6857.3</v>
+        <v>6855.8</v>
       </c>
       <c r="J93" t="n">
-        <v>1.099999999999909</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K93" t="n">
-        <v>0.895</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L93" t="n">
-        <v>1.299999999999727</v>
+        <v>9.999999999999545</v>
       </c>
     </row>
     <row r="94">
@@ -4551,40 +4551,40 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>111.0-74.0</t>
+          <t>119.0-263.0</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3829.4</v>
+        <v>3829.3</v>
       </c>
       <c r="E94" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="F94" t="n">
-        <v>6877.7</v>
+        <v>6841.7</v>
       </c>
       <c r="G94" t="n">
-        <v>3828.3</v>
+        <v>3828.4</v>
       </c>
       <c r="H94" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="I94" t="n">
-        <v>6877</v>
+        <v>6828.2</v>
       </c>
       <c r="J94" t="n">
-        <v>1.099999999999909</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K94" t="n">
-        <v>0.875</v>
+        <v>0.885</v>
       </c>
       <c r="L94" t="n">
-        <v>1.799999999999727</v>
+        <v>14.40000000000009</v>
       </c>
     </row>
     <row r="95">
@@ -4595,40 +4595,40 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>38.0-197.0</t>
+          <t>61.0-205.0</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3829.5</v>
+        <v>3821.2</v>
       </c>
       <c r="E95" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="F95" t="n">
-        <v>6883.2</v>
+        <v>6858.5</v>
       </c>
       <c r="G95" t="n">
-        <v>3828.4</v>
+        <v>3822.1</v>
       </c>
       <c r="H95" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="I95" t="n">
-        <v>6882.5</v>
+        <v>6826.8</v>
       </c>
       <c r="J95" t="n">
-        <v>1.099999999999909</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K95" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.8749714285714285</v>
       </c>
       <c r="L95" t="n">
-        <v>1.799999999999727</v>
+        <v>32.61999999999991</v>
       </c>
     </row>
     <row r="96">
@@ -4639,40 +4639,40 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>180.0-92.0</t>
+          <t>253.0-211.0</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3822.2</v>
+        <v>3829.5</v>
       </c>
       <c r="E96" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="F96" t="n">
-        <v>6896.2</v>
+        <v>6825.1</v>
       </c>
       <c r="G96" t="n">
-        <v>3825.2</v>
+        <v>3828.6</v>
       </c>
       <c r="H96" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="I96" t="n">
-        <v>6888.5</v>
+        <v>6820.6</v>
       </c>
       <c r="J96" t="n">
-        <v>3</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="K96" t="n">
-        <v>0.92</v>
+        <v>0.892436974789916</v>
       </c>
       <c r="L96" t="n">
-        <v>10.69999999999982</v>
+        <v>5.430000000000091</v>
       </c>
     </row>
     <row r="97">
@@ -4683,40 +4683,40 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>226.0-267.0</t>
+          <t>170.0-166.0</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>3829</v>
+        <v>3828.5</v>
       </c>
       <c r="E97" t="n">
         <v>1.83</v>
       </c>
       <c r="F97" t="n">
-        <v>6834.8</v>
+        <v>6881.1</v>
       </c>
       <c r="G97" t="n">
-        <v>3830.1</v>
+        <v>3829.5</v>
       </c>
       <c r="H97" t="n">
         <v>1.83</v>
       </c>
       <c r="I97" t="n">
-        <v>6830.6</v>
+        <v>6878.1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.099999999999909</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
         <v>0.9150000000000001</v>
       </c>
       <c r="L97" t="n">
-        <v>5.299999999999727</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -4727,40 +4727,40 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>113.0-133.0</t>
+          <t>196.0-114.0</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3828.8</v>
+        <v>3828.6</v>
       </c>
       <c r="E98" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="F98" t="n">
-        <v>6899.8</v>
+        <v>6897</v>
       </c>
       <c r="G98" t="n">
-        <v>3829.9</v>
+        <v>3827.6</v>
       </c>
       <c r="H98" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I98" t="n">
-        <v>6895.3</v>
+        <v>6890</v>
       </c>
       <c r="J98" t="n">
-        <v>1.099999999999909</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L98" t="n">
-        <v>5.599999999999909</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
@@ -4815,40 +4815,40 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>195.0-117.0</t>
+          <t>84.0-16.0</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3828</v>
+        <v>3829.2</v>
       </c>
       <c r="E100" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="F100" t="n">
-        <v>6878.3</v>
+        <v>6857.5</v>
       </c>
       <c r="G100" t="n">
-        <v>3829.1</v>
+        <v>3828.1</v>
       </c>
       <c r="H100" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="I100" t="n">
-        <v>6872.5</v>
+        <v>6857.3</v>
       </c>
       <c r="J100" t="n">
         <v>1.099999999999909</v>
       </c>
       <c r="K100" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.895</v>
       </c>
       <c r="L100" t="n">
-        <v>6.900000000000091</v>
+        <v>1.299999999999727</v>
       </c>
     </row>
     <row r="101">
@@ -4859,40 +4859,40 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>199.0-124.0</t>
+          <t>111.0-74.0</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3830.5</v>
+        <v>3829.4</v>
       </c>
       <c r="E101" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="F101" t="n">
-        <v>6896.3</v>
+        <v>6877.7</v>
       </c>
       <c r="G101" t="n">
-        <v>3829.4</v>
+        <v>3828.3</v>
       </c>
       <c r="H101" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I101" t="n">
-        <v>6886.7</v>
+        <v>6877</v>
       </c>
       <c r="J101" t="n">
         <v>1.099999999999909</v>
       </c>
       <c r="K101" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="L101" t="n">
-        <v>10.70000000000027</v>
+        <v>1.799999999999727</v>
       </c>
     </row>
     <row r="102">
@@ -4903,40 +4903,40 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>72.0-39.0</t>
+          <t>38.0-197.0</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3828.5</v>
+        <v>3829.5</v>
       </c>
       <c r="E102" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="F102" t="n">
-        <v>6860</v>
+        <v>6883.2</v>
       </c>
       <c r="G102" t="n">
-        <v>3829.7</v>
+        <v>3828.4</v>
       </c>
       <c r="H102" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="I102" t="n">
-        <v>6858.1</v>
+        <v>6882.5</v>
       </c>
       <c r="J102" t="n">
-        <v>1.199999999999818</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K102" t="n">
-        <v>0.895</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L102" t="n">
-        <v>3.099999999999454</v>
+        <v>1.799999999999727</v>
       </c>
     </row>
     <row r="103">
@@ -4947,40 +4947,40 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>21.0-181.0</t>
+          <t>179.0-198.0</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3830</v>
+        <v>3826.4</v>
       </c>
       <c r="E103" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="F103" t="n">
-        <v>6875</v>
+        <v>6867.4</v>
       </c>
       <c r="G103" t="n">
-        <v>3828.7</v>
+        <v>3825.3</v>
       </c>
       <c r="H103" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="I103" t="n">
-        <v>6868.7</v>
+        <v>6865.9</v>
       </c>
       <c r="J103" t="n">
-        <v>1.300000000000182</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K103" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.885</v>
       </c>
       <c r="L103" t="n">
-        <v>7.600000000000364</v>
+        <v>2.599999999999909</v>
       </c>
     </row>
     <row r="104">
@@ -4991,40 +4991,40 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>54.0-99.0</t>
+          <t>267.0-224.0</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3829.4</v>
+        <v>3830.1</v>
       </c>
       <c r="E104" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="F104" t="n">
-        <v>6858.2</v>
+        <v>6830.6</v>
       </c>
       <c r="G104" t="n">
-        <v>3828.1</v>
+        <v>3829</v>
       </c>
       <c r="H104" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="I104" t="n">
-        <v>6845.3</v>
+        <v>6828.1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.300000000000182</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K104" t="n">
-        <v>0.885</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L104" t="n">
-        <v>14.19999999999982</v>
+        <v>3.599999999999909</v>
       </c>
     </row>
     <row r="105">
@@ -5035,40 +5035,40 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>96.0-205.0</t>
+          <t>180.0-153.0</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3823.4</v>
+        <v>3822.2</v>
       </c>
       <c r="E105" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="F105" t="n">
-        <v>6873.9</v>
+        <v>6896.2</v>
       </c>
       <c r="G105" t="n">
-        <v>3822.1</v>
+        <v>3824.7</v>
       </c>
       <c r="H105" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="I105" t="n">
-        <v>6826.8</v>
+        <v>6853.3</v>
       </c>
       <c r="J105" t="n">
-        <v>1.300000000000182</v>
+        <v>2.5</v>
       </c>
       <c r="K105" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.9174931880108993</v>
       </c>
       <c r="L105" t="n">
-        <v>48.39999999999964</v>
+        <v>45.40999999999963</v>
       </c>
     </row>
     <row r="106">
@@ -5079,40 +5079,40 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>61.0-101.0</t>
+          <t>113.0-133.0</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>3821.2</v>
+        <v>3828.8</v>
       </c>
       <c r="E106" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="F106" t="n">
-        <v>6858.5</v>
+        <v>6899.8</v>
       </c>
       <c r="G106" t="n">
-        <v>3822.6</v>
+        <v>3829.9</v>
       </c>
       <c r="H106" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="I106" t="n">
-        <v>6853.2</v>
+        <v>6895.3</v>
       </c>
       <c r="J106" t="n">
-        <v>1.400000000000091</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K106" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L106" t="n">
-        <v>6.700000000000273</v>
+        <v>5.599999999999909</v>
       </c>
     </row>
     <row r="107">
@@ -5123,40 +5123,40 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>153.0-213.0</t>
+          <t>195.0-117.0</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3824.7</v>
+        <v>3828</v>
       </c>
       <c r="E107" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="F107" t="n">
-        <v>6853.3</v>
+        <v>6878.3</v>
       </c>
       <c r="G107" t="n">
-        <v>3828.6</v>
+        <v>3829.1</v>
       </c>
       <c r="H107" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="I107" t="n">
-        <v>6835.3</v>
+        <v>6872.5</v>
       </c>
       <c r="J107" t="n">
-        <v>3.900000000000091</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K107" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L107" t="n">
-        <v>21.90000000000009</v>
+        <v>6.900000000000091</v>
       </c>
     </row>
     <row r="108">
@@ -5167,40 +5167,40 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>123.0-15.0</t>
+          <t>199.0-124.0</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3829.5</v>
+        <v>3830.5</v>
       </c>
       <c r="E108" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="F108" t="n">
-        <v>6878.1</v>
+        <v>6896.3</v>
       </c>
       <c r="G108" t="n">
-        <v>3828</v>
+        <v>3829.4</v>
       </c>
       <c r="H108" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="I108" t="n">
-        <v>6877.9</v>
+        <v>6886.7</v>
       </c>
       <c r="J108" t="n">
-        <v>1.5</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="K108" t="n">
-        <v>0.895</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="L108" t="n">
-        <v>1.700000000000728</v>
+        <v>10.70000000000027</v>
       </c>
     </row>
     <row r="109">
@@ -5211,40 +5211,40 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>221.0-247.0</t>
+          <t>72.0-39.0</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>3830</v>
+        <v>3828.5</v>
       </c>
       <c r="E109" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="F109" t="n">
-        <v>6839.1</v>
+        <v>6860</v>
       </c>
       <c r="G109" t="n">
-        <v>3828.5</v>
+        <v>3829.7</v>
       </c>
       <c r="H109" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I109" t="n">
-        <v>6836.6</v>
+        <v>6858.1</v>
       </c>
       <c r="J109" t="n">
-        <v>1.5</v>
+        <v>1.199999999999818</v>
       </c>
       <c r="K109" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="L109" t="n">
-        <v>4</v>
+        <v>3.099999999999454</v>
       </c>
     </row>
     <row r="110">
@@ -5255,40 +5255,40 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>154.0-260.0</t>
+          <t>194.0-6.0</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3827.9</v>
+        <v>3828.5</v>
       </c>
       <c r="E110" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="F110" t="n">
-        <v>6856.5</v>
+        <v>6860.7</v>
       </c>
       <c r="G110" t="n">
-        <v>3829.4</v>
+        <v>3827.2</v>
       </c>
       <c r="H110" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="I110" t="n">
-        <v>6839.4</v>
+        <v>6857.7</v>
       </c>
       <c r="J110" t="n">
-        <v>1.5</v>
+        <v>1.300000000000182</v>
       </c>
       <c r="K110" t="n">
-        <v>0.8899999999999999</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L110" t="n">
-        <v>18.60000000000036</v>
+        <v>4.300000000000182</v>
       </c>
     </row>
     <row r="111">
@@ -5299,40 +5299,40 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>94.0-57.0</t>
+          <t>21.0-66.0</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3826.8</v>
+        <v>3830</v>
       </c>
       <c r="E111" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="F111" t="n">
-        <v>6868.5</v>
+        <v>6875</v>
       </c>
       <c r="G111" t="n">
-        <v>3829.6</v>
+        <v>3828.7</v>
       </c>
       <c r="H111" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="I111" t="n">
-        <v>6865.1</v>
+        <v>6871.7</v>
       </c>
       <c r="J111" t="n">
-        <v>2.799999999999727</v>
+        <v>1.300000000000182</v>
       </c>
       <c r="K111" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L111" t="n">
-        <v>6.199999999999363</v>
+        <v>4.600000000000364</v>
       </c>
     </row>
     <row r="112">
@@ -5343,40 +5343,40 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>203.0-230.0</t>
+          <t>191.0-96.0</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>3823</v>
+        <v>3822.1</v>
       </c>
       <c r="E112" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="F112" t="n">
-        <v>6839</v>
+        <v>6890.2</v>
       </c>
       <c r="G112" t="n">
-        <v>3824.6</v>
+        <v>3823.4</v>
       </c>
       <c r="H112" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="I112" t="n">
-        <v>6836</v>
+        <v>6873.9</v>
       </c>
       <c r="J112" t="n">
-        <v>1.599999999999909</v>
+        <v>1.300000000000182</v>
       </c>
       <c r="K112" t="n">
-        <v>0.8999722222222222</v>
+        <v>0.8724928366762178</v>
       </c>
       <c r="L112" t="n">
-        <v>4.619999999999909</v>
+        <v>17.61000000000037</v>
       </c>
     </row>
     <row r="113">
@@ -5387,40 +5387,40 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>137.0-93.0</t>
+          <t>94.0-57.0</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3823.1</v>
+        <v>3826.8</v>
       </c>
       <c r="E113" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="F113" t="n">
-        <v>6854.4</v>
+        <v>6868.5</v>
       </c>
       <c r="G113" t="n">
-        <v>3824.8</v>
+        <v>3829.6</v>
       </c>
       <c r="H113" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I113" t="n">
-        <v>6848.1</v>
+        <v>6865.1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.700000000000273</v>
+        <v>2.799999999999727</v>
       </c>
       <c r="K113" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L113" t="n">
-        <v>7.999999999999545</v>
+        <v>6.199999999999363</v>
       </c>
     </row>
     <row r="114">
@@ -5431,40 +5431,40 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>89.0-95.0</t>
+          <t>123.0-15.0</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3822.6</v>
+        <v>3829.5</v>
       </c>
       <c r="E114" t="n">
         <v>1.79</v>
       </c>
       <c r="F114" t="n">
-        <v>6880.4</v>
+        <v>6878.1</v>
       </c>
       <c r="G114" t="n">
-        <v>3824.3</v>
+        <v>3828</v>
       </c>
       <c r="H114" t="n">
         <v>1.79</v>
       </c>
       <c r="I114" t="n">
-        <v>6860.8</v>
+        <v>6877.9</v>
       </c>
       <c r="J114" t="n">
-        <v>1.700000000000273</v>
+        <v>1.5</v>
       </c>
       <c r="K114" t="n">
         <v>0.895</v>
       </c>
       <c r="L114" t="n">
-        <v>21.29999999999973</v>
+        <v>1.700000000000728</v>
       </c>
     </row>
     <row r="115">
@@ -5475,40 +5475,40 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>44.0-11.0</t>
+          <t>154.0-260.0</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3828.1</v>
+        <v>3827.9</v>
       </c>
       <c r="E115" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="F115" t="n">
-        <v>6869.6</v>
+        <v>6856.5</v>
       </c>
       <c r="G115" t="n">
-        <v>3830</v>
+        <v>3829.4</v>
       </c>
       <c r="H115" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="I115" t="n">
-        <v>6867.7</v>
+        <v>6839.4</v>
       </c>
       <c r="J115" t="n">
-        <v>1.900000000000091</v>
+        <v>1.5</v>
       </c>
       <c r="K115" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="L115" t="n">
-        <v>3.800000000000637</v>
+        <v>18.60000000000036</v>
       </c>
     </row>
     <row r="116">
@@ -5519,40 +5519,40 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>109.0-190.0</t>
+          <t>89.0-95.0</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3826.8</v>
+        <v>3822.6</v>
       </c>
       <c r="E116" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="F116" t="n">
-        <v>6896.4</v>
+        <v>6880.4</v>
       </c>
       <c r="G116" t="n">
-        <v>3828.8</v>
+        <v>3824.3</v>
       </c>
       <c r="H116" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="I116" t="n">
-        <v>6896.1</v>
+        <v>6860.8</v>
       </c>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>1.700000000000273</v>
       </c>
       <c r="K116" t="n">
-        <v>0.885</v>
+        <v>0.895</v>
       </c>
       <c r="L116" t="n">
-        <v>2.299999999999272</v>
+        <v>21.29999999999973</v>
       </c>
     </row>
     <row r="117">
@@ -5563,40 +5563,40 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>23.0-170.0</t>
+          <t>87.0-99.0</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3831.9</v>
+        <v>3826.3</v>
       </c>
       <c r="E117" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="F117" t="n">
-        <v>6881.2</v>
+        <v>6854.4</v>
       </c>
       <c r="G117" t="n">
-        <v>3828.5</v>
+        <v>3828.1</v>
       </c>
       <c r="H117" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="I117" t="n">
-        <v>6881.1</v>
+        <v>6845.3</v>
       </c>
       <c r="J117" t="n">
-        <v>3.400000000000091</v>
+        <v>1.799999999999727</v>
       </c>
       <c r="K117" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="L117" t="n">
-        <v>3.499999999999545</v>
+        <v>10.89999999999918</v>
       </c>
     </row>
     <row r="118">
@@ -5607,40 +5607,40 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>228.0-218.0</t>
+          <t>23.0-25.0</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3827.1</v>
+        <v>3831.9</v>
       </c>
       <c r="E118" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="F118" t="n">
-        <v>6833.6</v>
+        <v>6881.2</v>
       </c>
       <c r="G118" t="n">
-        <v>3829.3</v>
+        <v>3830</v>
       </c>
       <c r="H118" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I118" t="n">
-        <v>6828.8</v>
+        <v>6878.2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.200000000000273</v>
+        <v>1.900000000000091</v>
       </c>
       <c r="K118" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L118" t="n">
-        <v>7.000000000000455</v>
+        <v>4.900000000000091</v>
       </c>
     </row>
     <row r="119">
@@ -5651,40 +5651,40 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>132.0-193.0</t>
+          <t>93.0-203.0</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3829.4</v>
+        <v>3824.8</v>
       </c>
       <c r="E119" t="n">
         <v>1.81</v>
       </c>
       <c r="F119" t="n">
-        <v>6847.4</v>
+        <v>6848.1</v>
       </c>
       <c r="G119" t="n">
-        <v>3832</v>
+        <v>3823</v>
       </c>
       <c r="H119" t="n">
         <v>1.81</v>
       </c>
       <c r="I119" t="n">
-        <v>6843.4</v>
+        <v>6839</v>
       </c>
       <c r="J119" t="n">
-        <v>2.599999999999909</v>
+        <v>1.800000000000182</v>
       </c>
       <c r="K119" t="n">
         <v>0.9049999999999999</v>
       </c>
       <c r="L119" t="n">
-        <v>6.599999999999909</v>
+        <v>10.90000000000055</v>
       </c>
     </row>
     <row r="120">
@@ -5695,40 +5695,40 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>108.0-229.0</t>
+          <t>44.0-11.0</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>3828.7</v>
+        <v>3828.1</v>
       </c>
       <c r="E120" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="F120" t="n">
-        <v>6843.6</v>
+        <v>6869.6</v>
       </c>
       <c r="G120" t="n">
-        <v>3825.9</v>
+        <v>3830</v>
       </c>
       <c r="H120" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="I120" t="n">
-        <v>6838.9</v>
+        <v>6867.7</v>
       </c>
       <c r="J120" t="n">
-        <v>2.799999999999727</v>
+        <v>1.900000000000091</v>
       </c>
       <c r="K120" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="L120" t="n">
-        <v>7.500000000000455</v>
+        <v>3.800000000000637</v>
       </c>
     </row>
     <row r="121">
@@ -5739,40 +5739,40 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>8.0-179.0</t>
+          <t>109.0-190.0</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>3829.5</v>
+        <v>3826.8</v>
       </c>
       <c r="E121" t="n">
         <v>1.77</v>
       </c>
       <c r="F121" t="n">
-        <v>6876.6</v>
+        <v>6896.4</v>
       </c>
       <c r="G121" t="n">
-        <v>3826.4</v>
+        <v>3828.8</v>
       </c>
       <c r="H121" t="n">
         <v>1.77</v>
       </c>
       <c r="I121" t="n">
-        <v>6867.4</v>
+        <v>6896.1</v>
       </c>
       <c r="J121" t="n">
-        <v>3.099999999999909</v>
+        <v>2</v>
       </c>
       <c r="K121" t="n">
         <v>0.885</v>
       </c>
       <c r="L121" t="n">
-        <v>12.30000000000064</v>
+        <v>2.299999999999272</v>
       </c>
     </row>
     <row r="122">
@@ -5783,40 +5783,40 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>204.0-275.0</t>
+          <t>230.0-228.0</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3823.6</v>
+        <v>3824.6</v>
       </c>
       <c r="E122" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="F122" t="n">
-        <v>6822.2</v>
+        <v>6836</v>
       </c>
       <c r="G122" t="n">
-        <v>3820.4</v>
+        <v>3827.1</v>
       </c>
       <c r="H122" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I122" t="n">
-        <v>6816.5</v>
+        <v>6833.6</v>
       </c>
       <c r="J122" t="n">
-        <v>3.199999999999818</v>
+        <v>2.5</v>
       </c>
       <c r="K122" t="n">
-        <v>0.8924929971988794</v>
+        <v>0.8999722222222222</v>
       </c>
       <c r="L122" t="n">
-        <v>8.909999999999636</v>
+        <v>4.919999999999636</v>
       </c>
     </row>
     <row r="123">
@@ -5827,40 +5827,40 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>191.0-192.0</t>
+          <t>132.0-193.0</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3822.1</v>
+        <v>3829.4</v>
       </c>
       <c r="E123" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="F123" t="n">
-        <v>6890.2</v>
+        <v>6847.4</v>
       </c>
       <c r="G123" t="n">
-        <v>3825.4</v>
+        <v>3832</v>
       </c>
       <c r="H123" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="I123" t="n">
-        <v>6877.1</v>
+        <v>6843.4</v>
       </c>
       <c r="J123" t="n">
-        <v>3.300000000000182</v>
+        <v>2.599999999999909</v>
       </c>
       <c r="K123" t="n">
-        <v>0.8724928366762178</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L123" t="n">
-        <v>16.40999999999963</v>
+        <v>6.599999999999909</v>
       </c>
     </row>
     <row r="124">
@@ -5871,40 +5871,40 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>5.0-81.0</t>
+          <t>108.0-229.0</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>3825.4</v>
+        <v>3828.7</v>
       </c>
       <c r="E124" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="F124" t="n">
-        <v>6851.9</v>
+        <v>6843.6</v>
       </c>
       <c r="G124" t="n">
-        <v>3828.9</v>
+        <v>3825.9</v>
       </c>
       <c r="H124" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I124" t="n">
-        <v>6848.9</v>
+        <v>6838.9</v>
       </c>
       <c r="J124" t="n">
-        <v>3.5</v>
+        <v>2.799999999999727</v>
       </c>
       <c r="K124" t="n">
-        <v>0.895</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L124" t="n">
-        <v>6.5</v>
+        <v>7.500000000000455</v>
       </c>
     </row>
     <row r="125">
@@ -5915,40 +5915,40 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>100.0-66.0</t>
+          <t>5.0-69.0</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3825.1</v>
+        <v>3825.4</v>
       </c>
       <c r="E125" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="F125" t="n">
-        <v>6875.5</v>
+        <v>6851.9</v>
       </c>
       <c r="G125" t="n">
-        <v>3828.7</v>
+        <v>3828.2</v>
       </c>
       <c r="H125" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="I125" t="n">
-        <v>6871.7</v>
+        <v>6843.5</v>
       </c>
       <c r="J125" t="n">
-        <v>3.599999999999909</v>
+        <v>2.799999999999727</v>
       </c>
       <c r="K125" t="n">
-        <v>0.9049999999999999</v>
+        <v>0.895</v>
       </c>
       <c r="L125" t="n">
-        <v>7.400000000000091</v>
+        <v>11.19999999999936</v>
       </c>
     </row>
     <row r="126">
@@ -5959,84 +5959,84 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>62.0-6.0</t>
+          <t>100.0-178.0</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3823.3</v>
+        <v>3825.1</v>
       </c>
       <c r="E126" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="F126" t="n">
-        <v>6872.2</v>
+        <v>6875.5</v>
       </c>
       <c r="G126" t="n">
-        <v>3827.2</v>
+        <v>3827.9</v>
       </c>
       <c r="H126" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="I126" t="n">
-        <v>6857.7</v>
+        <v>6861.5</v>
       </c>
       <c r="J126" t="n">
-        <v>3.899999999999636</v>
+        <v>2.800000000000182</v>
       </c>
       <c r="K126" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="L126" t="n">
-        <v>18.39999999999964</v>
+        <v>16.80000000000018</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Segment 1</t>
+          <t>Segment 6</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>254.0-225.0</t>
+          <t>192.0-101.0</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3828.9</v>
+        <v>3825.4</v>
       </c>
       <c r="E127" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="F127" t="n">
-        <v>6809.9</v>
+        <v>6877.1</v>
       </c>
       <c r="G127" t="n">
-        <v>3829.1</v>
+        <v>3822.6</v>
       </c>
       <c r="H127" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="I127" t="n">
-        <v>6807.4</v>
+        <v>6853.2</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1999999999998181</v>
+        <v>2.800000000000182</v>
       </c>
       <c r="K127" t="n">
-        <v>0.9150000000000001</v>
+        <v>0.8749714285714285</v>
       </c>
       <c r="L127" t="n">
-        <v>2.699999999999818</v>
+        <v>26.72000000000073</v>
       </c>
     </row>
     <row r="128">
@@ -6047,40 +6047,40 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>212.0-239.0</t>
+          <t>254.0-225.0</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3828.7</v>
+        <v>3828.9</v>
       </c>
       <c r="E128" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="F128" t="n">
-        <v>6807</v>
+        <v>6809.9</v>
       </c>
       <c r="G128" t="n">
-        <v>3828.5</v>
+        <v>3829.1</v>
       </c>
       <c r="H128" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I128" t="n">
-        <v>6804</v>
+        <v>6807.4</v>
       </c>
       <c r="J128" t="n">
         <v>0.1999999999998181</v>
       </c>
       <c r="K128" t="n">
-        <v>0.92</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="L128" t="n">
-        <v>3.199999999999818</v>
+        <v>2.699999999999818</v>
       </c>
     </row>
     <row r="129">
@@ -6091,40 +6091,40 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>240.0-243.0</t>
+          <t>212.0-239.0</t>
         </is>
       </c>
       <c r="D129" t="n">
+        <v>3828.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6807</v>
+      </c>
+      <c r="G129" t="n">
         <v>3828.5</v>
       </c>
-      <c r="E129" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F129" t="n">
-        <v>6813.2</v>
-      </c>
-      <c r="G129" t="n">
-        <v>3827.8</v>
-      </c>
       <c r="H129" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I129" t="n">
-        <v>6812.9</v>
+        <v>6804</v>
       </c>
       <c r="J129" t="n">
-        <v>0.6999999999998181</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="K129" t="n">
-        <v>0.9397606382978724</v>
+        <v>0.92</v>
       </c>
       <c r="L129" t="n">
-        <v>1.06</v>
+        <v>3.199999999999818</v>
       </c>
     </row>
     <row r="130">
@@ -6135,40 +6135,40 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>256.0-234.0</t>
+          <t>240.0-243.0</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3826.5</v>
+        <v>3828.5</v>
       </c>
       <c r="E130" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="F130" t="n">
-        <v>6814.1</v>
+        <v>6813.2</v>
       </c>
       <c r="G130" t="n">
-        <v>3825.5</v>
+        <v>3827.8</v>
       </c>
       <c r="H130" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="I130" t="n">
-        <v>6806.8</v>
+        <v>6812.9</v>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>0.6999999999998181</v>
       </c>
       <c r="K130" t="n">
-        <v>0.9350000000000002</v>
+        <v>0.9397606382978724</v>
       </c>
       <c r="L130" t="n">
-        <v>8.300000000000182</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="131">
@@ -6179,40 +6179,40 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>214.0-227.0</t>
+          <t>256.0-234.0</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3829</v>
+        <v>3826.5</v>
       </c>
       <c r="E131" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="F131" t="n">
-        <v>6801.7</v>
+        <v>6814.1</v>
       </c>
       <c r="G131" t="n">
-        <v>3827.7</v>
+        <v>3825.5</v>
       </c>
       <c r="H131" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="I131" t="n">
-        <v>6801.4</v>
+        <v>6806.8</v>
       </c>
       <c r="J131" t="n">
-        <v>1.300000000000182</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>0.9250000000000002</v>
+        <v>0.9350000000000002</v>
       </c>
       <c r="L131" t="n">
-        <v>1.600000000000364</v>
+        <v>8.300000000000182</v>
       </c>
     </row>
     <row r="132">
@@ -6223,40 +6223,40 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>231.0-232.0</t>
+          <t>214.0-227.0</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3826.7</v>
+        <v>3829</v>
       </c>
       <c r="E132" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="F132" t="n">
-        <v>6810.9</v>
+        <v>6801.7</v>
       </c>
       <c r="G132" t="n">
-        <v>3824.4</v>
+        <v>3827.7</v>
       </c>
       <c r="H132" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="I132" t="n">
-        <v>6780.8</v>
+        <v>6801.4</v>
       </c>
       <c r="J132" t="n">
-        <v>2.299999999999727</v>
+        <v>1.300000000000182</v>
       </c>
       <c r="K132" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9250000000000002</v>
       </c>
       <c r="L132" t="n">
-        <v>32.39999999999918</v>
+        <v>1.600000000000364</v>
       </c>
     </row>
     <row r="133">
@@ -6267,40 +6267,40 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>206.0-202.0</t>
+          <t>231.0-232.0</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3824.7</v>
+        <v>3826.7</v>
       </c>
       <c r="E133" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="F133" t="n">
-        <v>6804.6</v>
+        <v>6810.9</v>
       </c>
       <c r="G133" t="n">
-        <v>3822.1</v>
+        <v>3824.4</v>
       </c>
       <c r="H133" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="I133" t="n">
-        <v>6795.6</v>
+        <v>6780.8</v>
       </c>
       <c r="J133" t="n">
-        <v>2.599999999999909</v>
+        <v>2.299999999999727</v>
       </c>
       <c r="K133" t="n">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L133" t="n">
-        <v>11.59999999999991</v>
+        <v>32.39999999999918</v>
       </c>
     </row>
     <row r="134">
@@ -6311,40 +6311,40 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>233.0-245.0</t>
+          <t>206.0-202.0</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3825.8</v>
+        <v>3824.7</v>
       </c>
       <c r="E134" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="F134" t="n">
-        <v>6804.3</v>
+        <v>6804.6</v>
       </c>
       <c r="G134" t="n">
-        <v>3828.8</v>
+        <v>3822.1</v>
       </c>
       <c r="H134" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="I134" t="n">
-        <v>6792</v>
+        <v>6795.6</v>
       </c>
       <c r="J134" t="n">
-        <v>3</v>
+        <v>2.599999999999909</v>
       </c>
       <c r="K134" t="n">
-        <v>0.902437673130194</v>
+        <v>0.875</v>
       </c>
       <c r="L134" t="n">
-        <v>15.33000000000018</v>
+        <v>11.59999999999991</v>
       </c>
     </row>
     <row r="135">
@@ -6355,40 +6355,40 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>223.0-237.0</t>
+          <t>233.0-245.0</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>3829.7</v>
+        <v>3825.8</v>
       </c>
       <c r="E135" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="F135" t="n">
-        <v>6795.8</v>
+        <v>6804.3</v>
       </c>
       <c r="G135" t="n">
-        <v>3824.8</v>
+        <v>3828.8</v>
       </c>
       <c r="H135" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I135" t="n">
-        <v>6781.9</v>
+        <v>6792</v>
       </c>
       <c r="J135" t="n">
-        <v>4.899999999999636</v>
+        <v>3</v>
       </c>
       <c r="K135" t="n">
-        <v>0.92</v>
+        <v>0.902437673130194</v>
       </c>
       <c r="L135" t="n">
-        <v>18.80000000000018</v>
+        <v>15.33000000000018</v>
       </c>
     </row>
     <row r="136">
@@ -6399,40 +6399,40 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>268.0-269.0</t>
+          <t>223.0-237.0</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3831</v>
+        <v>3829.7</v>
       </c>
       <c r="E136" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F136" t="n">
-        <v>6793.9</v>
+        <v>6795.8</v>
       </c>
       <c r="G136" t="n">
-        <v>3827.39</v>
+        <v>3824.8</v>
       </c>
       <c r="H136" t="n">
-        <v>1.2257</v>
+        <v>1.84</v>
       </c>
       <c r="I136" t="n">
-        <v>6834.1</v>
+        <v>6781.9</v>
       </c>
       <c r="J136" t="n">
-        <v>3.610000000000127</v>
+        <v>4.899999999999636</v>
       </c>
       <c r="K136" t="n">
-        <v>0.7340481722682201</v>
+        <v>0.92</v>
       </c>
       <c r="L136" t="n">
-        <v>44.41430000000086</v>
+        <v>18.80000000000018</v>
       </c>
     </row>
     <row r="137">
@@ -6443,39 +6443,83 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>268.0-269.0</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>3831</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6793.9</v>
+      </c>
+      <c r="G137" t="n">
+        <v>3827.39</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1.2257</v>
+      </c>
+      <c r="I137" t="n">
+        <v>6834.1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3.610000000000127</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.7340481722682201</v>
+      </c>
+      <c r="L137" t="n">
+        <v>44.41430000000086</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Segment 1</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>265.0-207.0</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D138" t="n">
         <v>3829.5</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E138" t="n">
         <v>1.78</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F138" t="n">
         <v>6808.7</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G138" t="n">
         <v>3825.1</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H138" t="n">
         <v>1.78</v>
       </c>
-      <c r="I137" t="n">
+      <c r="I138" t="n">
         <v>6785.6</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J138" t="n">
         <v>4.400000000000091</v>
       </c>
-      <c r="K137" t="n">
+      <c r="K138" t="n">
         <v>0.8899999999999999</v>
       </c>
-      <c r="L137" t="n">
+      <c r="L138" t="n">
         <v>27.49999999999955</v>
       </c>
     </row>
